--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="661">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2403,6 +2403,42 @@
   </si>
   <si>
     <t>Dev. Efectivo cliente</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>salsas-pollo</t>
+  </si>
+  <si>
+    <t>Se aplico sobante del 31-May-23</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-POSTRES</t>
+  </si>
+  <si>
+    <t>SALCHICHA-PASTOR-QUESOS-POLLO</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2453,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2781,6 +2817,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4022,7 +4066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="562">
+  <cellXfs count="563">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4948,6 +4992,42 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5023,39 +5103,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5122,9 +5169,7 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5134,15 +5179,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FF990099"/>
-      <color rgb="FF800080"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8083,23 +8128,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="532"/>
-      <c r="C1" s="534" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-      <c r="L1" s="535"/>
-      <c r="M1" s="535"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="533"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -8109,24 +8154,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="537"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="530" t="s">
+      <c r="P3" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="503" t="s">
+      <c r="R3" s="515" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8141,14 +8186,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="505" t="s">
+      <c r="E4" s="517" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="506"/>
-      <c r="H4" s="507" t="s">
+      <c r="F4" s="518"/>
+      <c r="H4" s="519" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="508"/>
+      <c r="I4" s="520"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -8158,11 +8203,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="531"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="504"/>
+      <c r="R4" s="516"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -9997,11 +10042,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="514">
+      <c r="M49" s="526">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="514">
+      <c r="N49" s="526">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -10009,7 +10054,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="526">
+      <c r="Q49" s="538">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -10030,10 +10075,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="515"/>
-      <c r="N50" s="515"/>
+      <c r="M50" s="527"/>
+      <c r="N50" s="527"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="527"/>
+      <c r="Q50" s="539"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -10088,11 +10133,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="528">
+      <c r="M53" s="504">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="529"/>
+      <c r="N53" s="505"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -10517,26 +10562,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="522" t="s">
+      <c r="H77" s="534" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="523"/>
+      <c r="I77" s="535"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="524">
+      <c r="K77" s="536">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="525"/>
+      <c r="L77" s="537"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="516" t="s">
+      <c r="D78" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="516"/>
+      <c r="E78" s="528"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -10545,22 +10590,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="517" t="s">
+      <c r="D79" s="529" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="517"/>
+      <c r="E79" s="529"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="518" t="s">
+      <c r="I79" s="530" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="519"/>
-      <c r="K79" s="520">
+      <c r="J79" s="531"/>
+      <c r="K79" s="532">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="520"/>
+      <c r="L79" s="532"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -10601,11 +10646,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="521">
+      <c r="K81" s="533">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="520"/>
+      <c r="L81" s="532"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -10622,22 +10667,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="509" t="s">
+      <c r="D83" s="521" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="510"/>
+      <c r="E83" s="522"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="511" t="s">
+      <c r="I83" s="523" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="512"/>
-      <c r="K83" s="513">
+      <c r="J83" s="524"/>
+      <c r="K83" s="525">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="513"/>
+      <c r="L83" s="525"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -10784,12 +10829,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10806,6 +10845,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11975,10 +12020,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="542" t="s">
+      <c r="I37" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="543"/>
+      <c r="J37" s="544"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -11997,8 +12042,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="544"/>
-      <c r="J38" s="545"/>
+      <c r="I38" s="545"/>
+      <c r="J38" s="546"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -12017,8 +12062,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="546"/>
-      <c r="J39" s="547"/>
+      <c r="I39" s="547"/>
+      <c r="J39" s="548"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -12576,10 +12621,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="548" t="s">
+      <c r="I67" s="549" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="549"/>
+      <c r="J67" s="550"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -12601,11 +12646,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="552" t="s">
+      <c r="G68" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="557"/>
-      <c r="J68" s="558"/>
+      <c r="I68" s="558"/>
+      <c r="J68" s="559"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -12616,7 +12661,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="553"/>
+      <c r="G69" s="554"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -13177,8 +13222,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13204,23 +13249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="532"/>
-      <c r="C1" s="534" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-      <c r="L1" s="535"/>
-      <c r="M1" s="535"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="533"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -13230,27 +13275,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="537"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="530" t="s">
+      <c r="P3" s="506" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="559" t="s">
+      <c r="R3" s="560" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13265,14 +13310,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="505" t="s">
+      <c r="E4" s="517" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="506"/>
-      <c r="H4" s="507" t="s">
+      <c r="F4" s="518"/>
+      <c r="H4" s="519" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="508"/>
+      <c r="I4" s="520"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -13282,14 +13327,16 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="531"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="560"/>
+      <c r="R4" s="561"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="562" t="s">
+        <v>649</v>
+      </c>
       <c r="B5" s="32">
         <v>45080</v>
       </c>
@@ -13340,7 +13387,9 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31"/>
+      <c r="A6" s="562" t="s">
+        <v>650</v>
+      </c>
       <c r="B6" s="32">
         <v>45081</v>
       </c>
@@ -13385,7 +13434,9 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
+      <c r="A7" s="562" t="s">
+        <v>651</v>
+      </c>
       <c r="B7" s="32">
         <v>45082</v>
       </c>
@@ -13430,7 +13481,9 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="562" t="s">
+        <v>652</v>
+      </c>
       <c r="B8" s="32">
         <v>45083</v>
       </c>
@@ -13456,7 +13509,7 @@
       <c r="J8" s="52">
         <v>45083</v>
       </c>
-      <c r="K8" s="561" t="s">
+      <c r="K8" s="503" t="s">
         <v>648</v>
       </c>
       <c r="L8" s="49">
@@ -13483,70 +13536,94 @@
       <c r="S8" s="233"/>
     </row>
     <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+      <c r="A9" s="562" t="s">
+        <v>653</v>
+      </c>
       <c r="B9" s="32">
         <v>45084</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="33">
+        <v>3612</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>657</v>
+      </c>
       <c r="E9" s="35">
         <v>45084</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <v>107715</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>45084</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="39">
+        <v>1242</v>
+      </c>
       <c r="J9" s="40"/>
       <c r="K9" s="348"/>
       <c r="L9" s="49"/>
       <c r="M9" s="42">
-        <v>0</v>
+        <f>53630+6544.78</f>
+        <v>60174.78</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>42626</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107654.78</v>
       </c>
       <c r="Q9" s="45">
-        <v>0</v>
-      </c>
-      <c r="R9" s="46">
-        <v>0</v>
-      </c>
-      <c r="S9" s="233"/>
+        <f t="shared" si="1"/>
+        <v>-60.220000000001164</v>
+      </c>
+      <c r="R9" s="282">
+        <v>1095</v>
+      </c>
+      <c r="S9" s="459" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
+      <c r="A10" s="562" t="s">
+        <v>654</v>
+      </c>
       <c r="B10" s="32">
         <v>45085</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="33">
+        <v>18184</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>659</v>
+      </c>
       <c r="E10" s="35">
         <v>45085</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <v>134492</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>45085</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>2223</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
       <c r="M10" s="42">
-        <v>0</v>
+        <v>51494</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>62591</v>
       </c>
       <c r="P10" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>134492</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="1"/>
@@ -13558,33 +13635,43 @@
       <c r="S10" s="233"/>
     </row>
     <row r="11" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
+      <c r="A11" s="562" t="s">
+        <v>655</v>
+      </c>
       <c r="B11" s="32">
         <v>45086</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="33">
+        <v>6758</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>660</v>
+      </c>
       <c r="E11" s="35">
         <v>45086</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <v>118033</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>45086</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="39">
+        <v>1859</v>
+      </c>
       <c r="J11" s="52"/>
       <c r="K11" s="58"/>
       <c r="L11" s="49"/>
       <c r="M11" s="42">
-        <v>0</v>
+        <v>66933</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>42483</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118033</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="1"/>
@@ -13596,7 +13683,9 @@
       <c r="S11" s="233"/>
     </row>
     <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
+      <c r="A12" s="562" t="s">
+        <v>656</v>
+      </c>
       <c r="B12" s="32">
         <v>45087</v>
       </c>
@@ -13635,7 +13724,9 @@
       <c r="S12" s="233"/>
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
+      <c r="A13" s="562" t="s">
+        <v>650</v>
+      </c>
       <c r="B13" s="32">
         <v>45088</v>
       </c>
@@ -13674,7 +13765,9 @@
       <c r="S13" s="233"/>
     </row>
     <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
+      <c r="A14" s="562" t="s">
+        <v>651</v>
+      </c>
       <c r="B14" s="32">
         <v>45089</v>
       </c>
@@ -13713,7 +13806,9 @@
       <c r="S14" s="233"/>
     </row>
     <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31"/>
+      <c r="A15" s="562" t="s">
+        <v>652</v>
+      </c>
       <c r="B15" s="32">
         <v>45090</v>
       </c>
@@ -13751,7 +13846,9 @@
       <c r="S15" s="233"/>
     </row>
     <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
+      <c r="A16" s="562" t="s">
+        <v>653</v>
+      </c>
       <c r="B16" s="32">
         <v>45091</v>
       </c>
@@ -13780,6 +13877,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R16" s="46">
@@ -13788,7 +13886,9 @@
       <c r="S16" s="233"/>
     </row>
     <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+      <c r="A17" s="562" t="s">
+        <v>654</v>
+      </c>
       <c r="B17" s="32">
         <v>45092</v>
       </c>
@@ -13827,7 +13927,9 @@
       <c r="S17" s="233"/>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="562" t="s">
+        <v>655</v>
+      </c>
       <c r="B18" s="32">
         <v>45093</v>
       </c>
@@ -13865,7 +13967,9 @@
       <c r="S18" s="233"/>
     </row>
     <row r="19" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
+      <c r="A19" s="562" t="s">
+        <v>656</v>
+      </c>
       <c r="B19" s="32">
         <v>45094</v>
       </c>
@@ -13904,7 +14008,9 @@
       <c r="S19" s="233"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
+      <c r="A20" s="562" t="s">
+        <v>650</v>
+      </c>
       <c r="B20" s="32">
         <v>45095</v>
       </c>
@@ -13942,7 +14048,9 @@
       <c r="S20" s="233"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
+      <c r="A21" s="562" t="s">
+        <v>651</v>
+      </c>
       <c r="B21" s="32">
         <v>45096</v>
       </c>
@@ -13980,7 +14088,9 @@
       <c r="S21" s="233"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="A22" s="562" t="s">
+        <v>652</v>
+      </c>
       <c r="B22" s="32">
         <v>45097</v>
       </c>
@@ -14018,7 +14128,9 @@
       <c r="S22" s="500"/>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31"/>
+      <c r="A23" s="562" t="s">
+        <v>653</v>
+      </c>
       <c r="B23" s="32">
         <v>45098</v>
       </c>
@@ -14056,7 +14168,9 @@
       <c r="S23" s="233"/>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31"/>
+      <c r="A24" s="562" t="s">
+        <v>654</v>
+      </c>
       <c r="B24" s="32">
         <v>45099</v>
       </c>
@@ -14094,7 +14208,9 @@
       <c r="S24" s="233"/>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
+      <c r="A25" s="562" t="s">
+        <v>655</v>
+      </c>
       <c r="B25" s="32">
         <v>45100</v>
       </c>
@@ -14123,6 +14239,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="46">
@@ -14131,7 +14248,9 @@
       <c r="S25" s="233"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
+      <c r="A26" s="562" t="s">
+        <v>656</v>
+      </c>
       <c r="B26" s="32">
         <v>45101</v>
       </c>
@@ -14174,7 +14293,9 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
+      <c r="A27" s="562" t="s">
+        <v>650</v>
+      </c>
       <c r="B27" s="32">
         <v>45102</v>
       </c>
@@ -14212,7 +14333,9 @@
       <c r="S27" s="233"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31"/>
+      <c r="A28" s="562" t="s">
+        <v>651</v>
+      </c>
       <c r="B28" s="32">
         <v>45103</v>
       </c>
@@ -14250,7 +14373,9 @@
       <c r="S28" s="233"/>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="31"/>
+      <c r="A29" s="562" t="s">
+        <v>652</v>
+      </c>
       <c r="B29" s="32">
         <v>45104</v>
       </c>
@@ -14288,7 +14413,9 @@
       <c r="S29" s="233"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
+      <c r="A30" s="562" t="s">
+        <v>653</v>
+      </c>
       <c r="B30" s="32">
         <v>45105</v>
       </c>
@@ -14326,7 +14453,9 @@
       <c r="S30" s="501"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
+      <c r="A31" s="562" t="s">
+        <v>654</v>
+      </c>
       <c r="B31" s="32">
         <v>45106</v>
       </c>
@@ -14364,7 +14493,9 @@
       <c r="S31" s="233"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
+      <c r="A32" s="562" t="s">
+        <v>655</v>
+      </c>
       <c r="B32" s="32">
         <v>45107</v>
       </c>
@@ -14404,7 +14535,9 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
+      <c r="A33" s="562" t="s">
+        <v>656</v>
+      </c>
       <c r="B33" s="32">
         <v>45108</v>
       </c>
@@ -14441,7 +14574,9 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31"/>
+      <c r="A34" s="562" t="s">
+        <v>650</v>
+      </c>
       <c r="B34" s="32">
         <v>45109</v>
       </c>
@@ -14481,7 +14616,9 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31"/>
+      <c r="A35" s="562" t="s">
+        <v>651</v>
+      </c>
       <c r="B35" s="32">
         <v>45110</v>
       </c>
@@ -14921,21 +15058,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="514">
+      <c r="M49" s="526">
         <f>SUM(M5:M40)</f>
-        <v>245269.5</v>
-      </c>
-      <c r="N49" s="514">
+        <v>423871.28</v>
+      </c>
+      <c r="N49" s="526">
         <f>SUM(N5:N40)</f>
-        <v>236599</v>
+        <v>384299</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>589769</v>
-      </c>
-      <c r="Q49" s="526">
+        <v>949948.78</v>
+      </c>
+      <c r="Q49" s="538">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>-60.220000000001164</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -14954,13 +15091,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="515"/>
-      <c r="N50" s="515"/>
+      <c r="M50" s="527"/>
+      <c r="N50" s="527"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="527"/>
+      <c r="Q50" s="539"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>0</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15012,11 +15149,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="528">
+      <c r="M53" s="504">
         <f>M49+N49</f>
-        <v>481868.5</v>
-      </c>
-      <c r="N53" s="529"/>
+        <v>808170.28</v>
+      </c>
+      <c r="N53" s="505"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -15399,7 +15536,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>68757.5</v>
+        <v>97311.5</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -15407,7 +15544,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>589769</v>
+        <v>950009</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -15415,7 +15552,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>11040</v>
+        <v>16364</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -15441,51 +15578,51 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="522" t="s">
+      <c r="H77" s="534" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="523"/>
+      <c r="I77" s="535"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="524">
+      <c r="K77" s="536">
         <f>I75+L75</f>
-        <v>70948.5</v>
-      </c>
-      <c r="L77" s="525"/>
+        <v>76272.5</v>
+      </c>
+      <c r="L77" s="537"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="516" t="s">
+      <c r="D78" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="516"/>
+      <c r="E78" s="528"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>450063</v>
+        <v>776425</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="517" t="s">
+      <c r="D79" s="529" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="517"/>
+      <c r="E79" s="529"/>
       <c r="F79" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>0</v>
       </c>
-      <c r="I79" s="518" t="s">
+      <c r="I79" s="530" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="519"/>
-      <c r="K79" s="520">
+      <c r="J79" s="531"/>
+      <c r="K79" s="532">
         <f>F81+F82+F83</f>
-        <v>450063</v>
-      </c>
-      <c r="L79" s="520"/>
+        <v>776425</v>
+      </c>
+      <c r="L79" s="532"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -15520,18 +15657,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>450063</v>
+        <v>776425</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="521">
+      <c r="K81" s="533">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L81" s="520"/>
+      <c r="L81" s="532"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -15546,22 +15683,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="509" t="s">
+      <c r="D83" s="521" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="510"/>
+      <c r="E83" s="522"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="554" t="s">
+      <c r="I83" s="555" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="555"/>
-      <c r="K83" s="556">
+      <c r="J83" s="556"/>
+      <c r="K83" s="557">
         <f>K79+K81</f>
-        <v>-3447904.53</v>
-      </c>
-      <c r="L83" s="556"/>
+        <v>-3121542.53</v>
+      </c>
+      <c r="L83" s="557"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -15706,6 +15843,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="I83:J83"/>
     <mergeCell ref="K83:L83"/>
@@ -15718,16 +15865,6 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16541,10 +16678,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="542" t="s">
+      <c r="I37" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="543"/>
+      <c r="J37" s="544"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -16563,8 +16700,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="544"/>
-      <c r="J38" s="545"/>
+      <c r="I38" s="545"/>
+      <c r="J38" s="546"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -16583,8 +16720,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="546"/>
-      <c r="J39" s="547"/>
+      <c r="I39" s="547"/>
+      <c r="J39" s="548"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -17142,10 +17279,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="548" t="s">
+      <c r="I67" s="549" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="549"/>
+      <c r="J67" s="550"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -17167,11 +17304,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="552" t="s">
+      <c r="G68" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="557"/>
-      <c r="J68" s="558"/>
+      <c r="I68" s="558"/>
+      <c r="J68" s="559"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -17182,7 +17319,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="553"/>
+      <c r="G69" s="554"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -19116,10 +19253,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
-      <c r="K36" s="540"/>
-      <c r="L36" s="541"/>
+      <c r="I36" s="540"/>
+      <c r="J36" s="541"/>
+      <c r="K36" s="541"/>
+      <c r="L36" s="542"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19146,10 +19283,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
-      <c r="K37" s="540"/>
-      <c r="L37" s="541"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
+      <c r="K37" s="541"/>
+      <c r="L37" s="542"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19206,10 +19343,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="542" t="s">
+      <c r="I40" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="543"/>
+      <c r="J40" s="544"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19228,8 +19365,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="544"/>
-      <c r="J41" s="545"/>
+      <c r="I41" s="545"/>
+      <c r="J41" s="546"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19248,8 +19385,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="546"/>
-      <c r="J42" s="547"/>
+      <c r="I42" s="547"/>
+      <c r="J42" s="548"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -19753,10 +19890,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="548" t="s">
+      <c r="I67" s="549" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="549"/>
+      <c r="J67" s="550"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -19776,11 +19913,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="552" t="s">
+      <c r="G68" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="550"/>
-      <c r="J68" s="551"/>
+      <c r="I68" s="551"/>
+      <c r="J68" s="552"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19791,7 +19928,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="553"/>
+      <c r="G69" s="554"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -20422,23 +20559,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="532"/>
-      <c r="C1" s="534" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-      <c r="L1" s="535"/>
-      <c r="M1" s="535"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="533"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20448,24 +20585,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="537"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="530" t="s">
+      <c r="P3" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="503" t="s">
+      <c r="R3" s="515" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20480,14 +20617,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="505" t="s">
+      <c r="E4" s="517" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="506"/>
-      <c r="H4" s="507" t="s">
+      <c r="F4" s="518"/>
+      <c r="H4" s="519" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="508"/>
+      <c r="I4" s="520"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20497,11 +20634,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="531"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="504"/>
+      <c r="R4" s="516"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -22477,11 +22614,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="514">
+      <c r="M49" s="526">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="514">
+      <c r="N49" s="526">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -22489,7 +22626,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="526">
+      <c r="Q49" s="538">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -22522,10 +22659,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="515"/>
-      <c r="N50" s="515"/>
+      <c r="M50" s="527"/>
+      <c r="N50" s="527"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="527"/>
+      <c r="Q50" s="539"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -22616,11 +22753,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="528">
+      <c r="M53" s="504">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="529"/>
+      <c r="N53" s="505"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23179,26 +23316,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="522" t="s">
+      <c r="H77" s="534" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="523"/>
+      <c r="I77" s="535"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="524">
+      <c r="K77" s="536">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="525"/>
+      <c r="L77" s="537"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="516" t="s">
+      <c r="D78" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="516"/>
+      <c r="E78" s="528"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -23207,22 +23344,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="517" t="s">
+      <c r="D79" s="529" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="517"/>
+      <c r="E79" s="529"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="518" t="s">
+      <c r="I79" s="530" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="519"/>
-      <c r="K79" s="520">
+      <c r="J79" s="531"/>
+      <c r="K79" s="532">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="520"/>
+      <c r="L79" s="532"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -23263,11 +23400,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="521">
+      <c r="K81" s="533">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="520"/>
+      <c r="L81" s="532"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -23284,22 +23421,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="509" t="s">
+      <c r="D83" s="521" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="510"/>
+      <c r="E83" s="522"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="554" t="s">
+      <c r="I83" s="555" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="555"/>
-      <c r="K83" s="556">
+      <c r="J83" s="556"/>
+      <c r="K83" s="557">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="556"/>
+      <c r="L83" s="557"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -23446,6 +23583,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23462,12 +23605,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24879,10 +25016,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
-      <c r="K36" s="540"/>
-      <c r="L36" s="541"/>
+      <c r="I36" s="540"/>
+      <c r="J36" s="541"/>
+      <c r="K36" s="541"/>
+      <c r="L36" s="542"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -24909,10 +25046,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
-      <c r="K37" s="540"/>
-      <c r="L37" s="541"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
+      <c r="K37" s="541"/>
+      <c r="L37" s="542"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -24979,10 +25116,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="542" t="s">
+      <c r="I40" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="543"/>
+      <c r="J40" s="544"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -25001,8 +25138,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="544"/>
-      <c r="J41" s="545"/>
+      <c r="I41" s="545"/>
+      <c r="J41" s="546"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -25021,8 +25158,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="546"/>
-      <c r="J42" s="547"/>
+      <c r="I42" s="547"/>
+      <c r="J42" s="548"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -25526,10 +25663,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="548" t="s">
+      <c r="I67" s="549" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="549"/>
+      <c r="J67" s="550"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -25549,11 +25686,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="552" t="s">
+      <c r="G68" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="557"/>
-      <c r="J68" s="558"/>
+      <c r="I68" s="558"/>
+      <c r="J68" s="559"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -25564,7 +25701,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="553"/>
+      <c r="G69" s="554"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -26179,23 +26316,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="532"/>
-      <c r="C1" s="534" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-      <c r="L1" s="535"/>
-      <c r="M1" s="535"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="533"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -26205,24 +26342,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="537"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="530" t="s">
+      <c r="P3" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="559" t="s">
+      <c r="R3" s="560" t="s">
         <v>3</v>
       </c>
     </row>
@@ -26237,14 +26374,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="505" t="s">
+      <c r="E4" s="517" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="506"/>
-      <c r="H4" s="507" t="s">
+      <c r="F4" s="518"/>
+      <c r="H4" s="519" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="508"/>
+      <c r="I4" s="520"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -26254,11 +26391,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="531"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="560"/>
+      <c r="R4" s="561"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -28239,11 +28376,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="514">
+      <c r="M49" s="526">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="514">
+      <c r="N49" s="526">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -28251,7 +28388,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="526">
+      <c r="Q49" s="538">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -28284,10 +28421,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="515"/>
-      <c r="N50" s="515"/>
+      <c r="M50" s="527"/>
+      <c r="N50" s="527"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="527"/>
+      <c r="Q50" s="539"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -28378,11 +28515,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="528">
+      <c r="M53" s="504">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="529"/>
+      <c r="N53" s="505"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -28861,26 +28998,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="522" t="s">
+      <c r="H77" s="534" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="523"/>
+      <c r="I77" s="535"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="524">
+      <c r="K77" s="536">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="525"/>
+      <c r="L77" s="537"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="516" t="s">
+      <c r="D78" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="516"/>
+      <c r="E78" s="528"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -28889,22 +29026,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="517" t="s">
+      <c r="D79" s="529" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="517"/>
+      <c r="E79" s="529"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="518" t="s">
+      <c r="I79" s="530" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="519"/>
-      <c r="K79" s="520">
+      <c r="J79" s="531"/>
+      <c r="K79" s="532">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="520"/>
+      <c r="L79" s="532"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -28945,11 +29082,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="521">
+      <c r="K81" s="533">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="520"/>
+      <c r="L81" s="532"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -28966,22 +29103,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="509" t="s">
+      <c r="D83" s="521" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="510"/>
+      <c r="E83" s="522"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="511" t="s">
+      <c r="I83" s="523" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="512"/>
-      <c r="K83" s="513">
+      <c r="J83" s="524"/>
+      <c r="K83" s="525">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="513"/>
+      <c r="L83" s="525"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -29128,12 +29265,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29150,6 +29281,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30452,10 +30589,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
-      <c r="K36" s="540"/>
-      <c r="L36" s="541"/>
+      <c r="I36" s="540"/>
+      <c r="J36" s="541"/>
+      <c r="K36" s="541"/>
+      <c r="L36" s="542"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -30472,10 +30609,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
-      <c r="K37" s="540"/>
-      <c r="L37" s="541"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
+      <c r="K37" s="541"/>
+      <c r="L37" s="542"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -30532,10 +30669,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="542" t="s">
+      <c r="I40" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="543"/>
+      <c r="J40" s="544"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -30554,8 +30691,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="544"/>
-      <c r="J41" s="545"/>
+      <c r="I41" s="545"/>
+      <c r="J41" s="546"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -30574,8 +30711,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="546"/>
-      <c r="J42" s="547"/>
+      <c r="I42" s="547"/>
+      <c r="J42" s="548"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -31079,10 +31216,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="548" t="s">
+      <c r="I67" s="549" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="549"/>
+      <c r="J67" s="550"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -31102,11 +31239,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="552" t="s">
+      <c r="G68" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="557"/>
-      <c r="J68" s="558"/>
+      <c r="I68" s="558"/>
+      <c r="J68" s="559"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -31117,7 +31254,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="553"/>
+      <c r="G69" s="554"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -31723,23 +31860,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="532"/>
-      <c r="C1" s="534" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-      <c r="L1" s="535"/>
-      <c r="M1" s="535"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="533"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -31749,24 +31886,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="537"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="530" t="s">
+      <c r="P3" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="559" t="s">
+      <c r="R3" s="560" t="s">
         <v>3</v>
       </c>
     </row>
@@ -31781,14 +31918,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="505" t="s">
+      <c r="E4" s="517" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="506"/>
-      <c r="H4" s="507" t="s">
+      <c r="F4" s="518"/>
+      <c r="H4" s="519" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="508"/>
+      <c r="I4" s="520"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -31798,11 +31935,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="531"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="560"/>
+      <c r="R4" s="561"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -33823,11 +33960,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="514">
+      <c r="M49" s="526">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="514">
+      <c r="N49" s="526">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -33835,7 +33972,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="526">
+      <c r="Q49" s="538">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -33862,10 +33999,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="515"/>
-      <c r="N50" s="515"/>
+      <c r="M50" s="527"/>
+      <c r="N50" s="527"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="527"/>
+      <c r="Q50" s="539"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -33939,11 +34076,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="528">
+      <c r="M53" s="504">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="529"/>
+      <c r="N53" s="505"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -34572,26 +34709,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="522" t="s">
+      <c r="H79" s="534" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="523"/>
+      <c r="I79" s="535"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="524">
+      <c r="K79" s="536">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="525"/>
+      <c r="L79" s="537"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="516" t="s">
+      <c r="D80" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="516"/>
+      <c r="E80" s="528"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -34600,22 +34737,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="517" t="s">
+      <c r="D81" s="529" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="517"/>
+      <c r="E81" s="529"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="518" t="s">
+      <c r="I81" s="530" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="519"/>
-      <c r="K81" s="520">
+      <c r="J81" s="531"/>
+      <c r="K81" s="532">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="520"/>
+      <c r="L81" s="532"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -34656,11 +34793,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="521">
+      <c r="K83" s="533">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="520"/>
+      <c r="L83" s="532"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -34677,22 +34814,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="509" t="s">
+      <c r="D85" s="521" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="510"/>
+      <c r="E85" s="522"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="511" t="s">
+      <c r="I85" s="523" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="512"/>
-      <c r="K85" s="513">
+      <c r="J85" s="524"/>
+      <c r="K85" s="525">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="513"/>
+      <c r="L85" s="525"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -34840,6 +34977,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -34856,12 +34999,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36181,10 +36318,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
-      <c r="K36" s="540"/>
-      <c r="L36" s="541"/>
+      <c r="I36" s="540"/>
+      <c r="J36" s="541"/>
+      <c r="K36" s="541"/>
+      <c r="L36" s="542"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -36207,10 +36344,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
-      <c r="K37" s="540"/>
-      <c r="L37" s="541"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
+      <c r="K37" s="541"/>
+      <c r="L37" s="542"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -36285,10 +36422,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="542" t="s">
+      <c r="I40" s="543" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="543"/>
+      <c r="J40" s="544"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -36313,8 +36450,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="544"/>
-      <c r="J41" s="545"/>
+      <c r="I41" s="545"/>
+      <c r="J41" s="546"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -36339,8 +36476,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="546"/>
-      <c r="J42" s="547"/>
+      <c r="I42" s="547"/>
+      <c r="J42" s="548"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -36862,10 +36999,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="548" t="s">
+      <c r="I67" s="549" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="549"/>
+      <c r="J67" s="550"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -36885,11 +37022,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="552" t="s">
+      <c r="G68" s="553" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="557"/>
-      <c r="J68" s="558"/>
+      <c r="I68" s="558"/>
+      <c r="J68" s="559"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -36900,7 +37037,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="553"/>
+      <c r="G69" s="554"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -37489,8 +37626,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37516,23 +37653,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="532"/>
-      <c r="C1" s="534" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="510" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="535"/>
-      <c r="F1" s="535"/>
-      <c r="G1" s="535"/>
-      <c r="H1" s="535"/>
-      <c r="I1" s="535"/>
-      <c r="J1" s="535"/>
-      <c r="K1" s="535"/>
-      <c r="L1" s="535"/>
-      <c r="M1" s="535"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="533"/>
+      <c r="B2" s="509"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -37542,27 +37679,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="536" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="537"/>
+      <c r="B3" s="512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="513"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="538" t="s">
+      <c r="H3" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="538"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="530" t="s">
+      <c r="P3" s="506" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="559" t="s">
+      <c r="R3" s="560" t="s">
         <v>3</v>
       </c>
     </row>
@@ -37577,14 +37714,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="505" t="s">
+      <c r="E4" s="517" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="506"/>
-      <c r="H4" s="507" t="s">
+      <c r="F4" s="518"/>
+      <c r="H4" s="519" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="508"/>
+      <c r="I4" s="520"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -37594,11 +37731,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="531"/>
+      <c r="P4" s="507"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="560"/>
+      <c r="R4" s="561"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -39601,11 +39738,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="514">
+      <c r="M49" s="526">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="514">
+      <c r="N49" s="526">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -39613,7 +39750,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="526">
+      <c r="Q49" s="538">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -39646,10 +39783,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="515"/>
-      <c r="N50" s="515"/>
+      <c r="M50" s="527"/>
+      <c r="N50" s="527"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="527"/>
+      <c r="Q50" s="539"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -39728,11 +39865,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="528">
+      <c r="M53" s="504">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="529"/>
+      <c r="N53" s="505"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -40211,26 +40348,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="522" t="s">
+      <c r="H77" s="534" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="523"/>
+      <c r="I77" s="535"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="524">
+      <c r="K77" s="536">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="525"/>
+      <c r="L77" s="537"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="516" t="s">
+      <c r="D78" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="516"/>
+      <c r="E78" s="528"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -40239,22 +40376,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="517" t="s">
+      <c r="D79" s="529" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="517"/>
+      <c r="E79" s="529"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="518" t="s">
+      <c r="I79" s="530" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="519"/>
-      <c r="K79" s="520">
+      <c r="J79" s="531"/>
+      <c r="K79" s="532">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="520"/>
+      <c r="L79" s="532"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -40295,11 +40432,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="521">
+      <c r="K81" s="533">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="520"/>
+      <c r="L81" s="532"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -40316,22 +40453,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="509" t="s">
+      <c r="D83" s="521" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="510"/>
+      <c r="E83" s="522"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="554" t="s">
+      <c r="I83" s="555" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="555"/>
-      <c r="K83" s="556">
+      <c r="J83" s="556"/>
+      <c r="K83" s="557">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="556"/>
+      <c r="L83" s="557"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -40479,12 +40616,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40501,6 +40632,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="681">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2439,6 +2439,66 @@
   </si>
   <si>
     <t>SALCHICHA-PASTOR-QUESOS-POLLO</t>
+  </si>
+  <si>
+    <t>SAL-PASTOR-QUESOS-´POLLO-SALSAS</t>
+  </si>
+  <si>
+    <t>NOMINA ##  23</t>
+  </si>
+  <si>
+    <t>NOMINA # 23</t>
+  </si>
+  <si>
+    <t>QUESOS-TOCINO-JAMON-CHISTORRA</t>
+  </si>
+  <si>
+    <t>SRA. NORMA</t>
+  </si>
+  <si>
+    <t>ERROR DUPLICO REGISTRO DE COBRO</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMON-CHISTORRA-POLLO-LONGANIZA-CHISTORRA</t>
+  </si>
+  <si>
+    <t>CHORIZO-QUESOS-POLLO-PASTOR-JAMON</t>
+  </si>
+  <si>
+    <t>SALCHICHA-MANTEQUILLA-POLLO-QUESOS-FLETE-MAIZ</t>
+  </si>
+  <si>
+    <t>ALBICIA  Nota 3436</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 3900</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 4189</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 2598</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 2914</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 1900</t>
+  </si>
+  <si>
+    <t>ALBICIA Nota 2096</t>
+  </si>
+  <si>
+    <t>BIMBOLLOS-QUESOS-SALCHICHA-POLLO</t>
+  </si>
+  <si>
+    <t>PICAÑA-CHORIZO-POLLO-QUESOS-FLETE</t>
+  </si>
+  <si>
+    <t>PASTOR-POLLO-QUESOS-LENGUA-SALCHICHA</t>
+  </si>
+  <si>
+    <t>NOMINA # 24</t>
   </si>
 </sst>
 </file>
@@ -2453,7 +2513,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2824,6 +2884,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4066,7 +4134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="563">
+  <cellXfs count="564">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4995,39 +5063,7 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5103,6 +5139,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5169,7 +5238,7 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5179,8 +5248,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800080"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF800080"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FF66FFFF"/>
@@ -8128,23 +8197,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -8154,24 +8223,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="532" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="515" t="s">
+      <c r="R3" s="505" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8186,14 +8255,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="517" t="s">
+      <c r="E4" s="507" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="518"/>
-      <c r="H4" s="519" t="s">
+      <c r="F4" s="508"/>
+      <c r="H4" s="509" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="520"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -8203,11 +8272,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="533"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="516"/>
+      <c r="R4" s="506"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -10042,11 +10111,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="526">
+      <c r="M49" s="516">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="526">
+      <c r="N49" s="516">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -10054,7 +10123,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="538">
+      <c r="Q49" s="528">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -10075,10 +10144,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="527"/>
-      <c r="N50" s="527"/>
+      <c r="M50" s="517"/>
+      <c r="N50" s="517"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="539"/>
+      <c r="Q50" s="529"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -10133,11 +10202,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="504">
+      <c r="M53" s="530">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="505"/>
+      <c r="N53" s="531"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -10562,26 +10631,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="534" t="s">
+      <c r="H77" s="524" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="535"/>
+      <c r="I77" s="525"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="536">
+      <c r="K77" s="526">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="537"/>
+      <c r="L77" s="527"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="528" t="s">
+      <c r="D78" s="518" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="528"/>
+      <c r="E78" s="518"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -10590,22 +10659,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="529" t="s">
+      <c r="D79" s="519" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="529"/>
+      <c r="E79" s="519"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="530" t="s">
+      <c r="I79" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="531"/>
-      <c r="K79" s="532">
+      <c r="J79" s="521"/>
+      <c r="K79" s="522">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="532"/>
+      <c r="L79" s="522"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -10646,11 +10715,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="533">
+      <c r="K81" s="523">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="532"/>
+      <c r="L81" s="522"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -10667,22 +10736,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="521" t="s">
+      <c r="D83" s="511" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="522"/>
+      <c r="E83" s="512"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="523" t="s">
+      <c r="I83" s="513" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="524"/>
-      <c r="K83" s="525">
+      <c r="J83" s="514"/>
+      <c r="K83" s="515">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="525"/>
+      <c r="L83" s="515"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -10829,6 +10898,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10845,12 +10920,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12020,10 +12089,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="543" t="s">
+      <c r="I37" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="544"/>
+      <c r="J37" s="545"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -12042,8 +12111,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="545"/>
-      <c r="J38" s="546"/>
+      <c r="I38" s="546"/>
+      <c r="J38" s="547"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -12062,8 +12131,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="547"/>
-      <c r="J39" s="548"/>
+      <c r="I39" s="548"/>
+      <c r="J39" s="549"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -12621,10 +12690,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="549" t="s">
+      <c r="I67" s="550" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="550"/>
+      <c r="J67" s="551"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -12646,11 +12715,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="553" t="s">
+      <c r="G68" s="554" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="558"/>
-      <c r="J68" s="559"/>
+      <c r="I68" s="559"/>
+      <c r="J68" s="560"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -12661,7 +12730,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="554"/>
+      <c r="G69" s="555"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -13220,10 +13289,10 @@
   <sheetPr>
     <tabColor rgb="FFCCFF99"/>
   </sheetPr>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F30" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13248,24 +13317,24 @@
     <col min="18" max="18" width="15.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
-    </row>
-    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="535"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -13274,32 +13343,32 @@
       <c r="M2" s="9"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="532" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="560" t="s">
+      <c r="R3" s="561" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
@@ -13310,14 +13379,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="517" t="s">
+      <c r="E4" s="507" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="518"/>
-      <c r="H4" s="519" t="s">
+      <c r="F4" s="508"/>
+      <c r="H4" s="509" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="520"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -13327,14 +13396,14 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="533"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="561"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="562" t="s">
+      <c r="R4" s="562"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="504" t="s">
         <v>649</v>
       </c>
       <c r="B5" s="32">
@@ -13386,8 +13455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="562" t="s">
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="504" t="s">
         <v>650</v>
       </c>
       <c r="B6" s="32">
@@ -13433,8 +13502,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="562" t="s">
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="504" t="s">
         <v>651</v>
       </c>
       <c r="B7" s="32">
@@ -13480,8 +13549,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="562" t="s">
+    <row r="8" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="504" t="s">
         <v>652</v>
       </c>
       <c r="B8" s="32">
@@ -13535,8 +13604,8 @@
       </c>
       <c r="S8" s="233"/>
     </row>
-    <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="562" t="s">
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="504" t="s">
         <v>653</v>
       </c>
       <c r="B9" s="32">
@@ -13586,8 +13655,8 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="562" t="s">
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="504" t="s">
         <v>654</v>
       </c>
       <c r="B10" s="32">
@@ -13634,8 +13703,8 @@
       </c>
       <c r="S10" s="233"/>
     </row>
-    <row r="11" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="562" t="s">
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="504" t="s">
         <v>655</v>
       </c>
       <c r="B11" s="32">
@@ -13682,37 +13751,51 @@
       </c>
       <c r="S11" s="233"/>
     </row>
-    <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="562" t="s">
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="504" t="s">
         <v>656</v>
       </c>
       <c r="B12" s="32">
         <v>45087</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="33">
+        <v>9933</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>661</v>
+      </c>
       <c r="E12" s="35">
         <v>45087</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="36">
+        <v>168586</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>45087</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="39">
+        <v>14189</v>
+      </c>
+      <c r="J12" s="40">
+        <v>45087</v>
+      </c>
+      <c r="K12" s="342" t="s">
+        <v>662</v>
+      </c>
+      <c r="L12" s="49">
+        <v>22955</v>
+      </c>
       <c r="M12" s="42">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>73341</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>168586</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" si="1"/>
@@ -13723,78 +13806,104 @@
       </c>
       <c r="S12" s="233"/>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="562" t="s">
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="504" t="s">
         <v>650</v>
       </c>
       <c r="B13" s="32">
         <v>45088</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="33">
+        <v>14896</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>664</v>
+      </c>
       <c r="E13" s="35">
         <v>45088</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="36">
+        <v>119977</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>45088</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="343"/>
-      <c r="L13" s="49"/>
+      <c r="I13" s="39">
+        <v>6787</v>
+      </c>
+      <c r="J13" s="40">
+        <v>45088</v>
+      </c>
+      <c r="K13" s="343" t="s">
+        <v>665</v>
+      </c>
+      <c r="L13" s="49">
+        <v>10000</v>
+      </c>
       <c r="M13" s="42">
-        <v>0</v>
+        <v>33492</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>54436</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>119611</v>
+      </c>
+      <c r="Q13" s="404">
+        <f t="shared" si="1"/>
+        <v>-366</v>
       </c>
       <c r="R13" s="46">
         <v>0</v>
       </c>
-      <c r="S13" s="233"/>
-    </row>
-    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="562" t="s">
+      <c r="S13" s="563" t="s">
+        <v>666</v>
+      </c>
+      <c r="T13" s="563"/>
+      <c r="U13" s="563"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="504" t="s">
         <v>651</v>
       </c>
       <c r="B14" s="32">
         <v>45089</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="33">
+        <v>44181.5</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>667</v>
+      </c>
       <c r="E14" s="35">
         <v>45089</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>132622</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>45089</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="39">
+        <v>2758</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="65"/>
       <c r="L14" s="49"/>
       <c r="M14" s="42">
-        <v>0</v>
+        <v>42332.5</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>43350</v>
       </c>
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132622</v>
       </c>
       <c r="Q14" s="45">
         <f t="shared" si="1"/>
@@ -13805,36 +13914,45 @@
       </c>
       <c r="S14" s="233"/>
     </row>
-    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="562" t="s">
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="504" t="s">
         <v>652</v>
       </c>
       <c r="B15" s="32">
         <v>45090</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="33">
+        <v>22747</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>668</v>
+      </c>
       <c r="E15" s="35">
         <v>45090</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>131989</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>45090</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="39">
+        <v>1352</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="65"/>
       <c r="L15" s="49"/>
       <c r="M15" s="42">
-        <v>0</v>
+        <f>2277+56860</f>
+        <v>59137</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
+        <v>48753</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131989</v>
       </c>
       <c r="Q15" s="45">
         <f t="shared" si="1"/>
@@ -13845,36 +13963,45 @@
       </c>
       <c r="S15" s="233"/>
     </row>
-    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="562" t="s">
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="504" t="s">
         <v>653</v>
       </c>
       <c r="B16" s="32">
         <v>45091</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="33">
+        <v>14244.5</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>669</v>
+      </c>
       <c r="E16" s="35">
         <v>45091</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>91789</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>45091</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="39">
+        <v>468</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="342"/>
       <c r="L16" s="13"/>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>31220.5+6044</f>
+        <v>37264.5</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>39812</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91789</v>
       </c>
       <c r="Q16" s="45">
         <f t="shared" si="1"/>
@@ -13883,43 +14010,54 @@
       <c r="R16" s="46">
         <v>0</v>
       </c>
-      <c r="S16" s="233"/>
+      <c r="S16" s="233" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="562" t="s">
+      <c r="A17" s="504" t="s">
         <v>654</v>
       </c>
       <c r="B17" s="32">
         <v>45092</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="33">
+        <v>6594</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>677</v>
+      </c>
       <c r="E17" s="35">
         <v>45092</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="36">
+        <v>136355</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>45092</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39">
+        <v>4089</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="65"/>
       <c r="L17" s="55"/>
       <c r="M17" s="42">
-        <v>0</v>
+        <f>73400+647</f>
+        <v>74047</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>51626</v>
       </c>
       <c r="O17" s="499"/>
       <c r="P17" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136356</v>
       </c>
       <c r="Q17" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="46">
         <v>0</v>
@@ -13927,35 +14065,44 @@
       <c r="S17" s="233"/>
     </row>
     <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="562" t="s">
+      <c r="A18" s="504" t="s">
         <v>655</v>
       </c>
       <c r="B18" s="32">
         <v>45093</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="33">
+        <v>17428.5</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>678</v>
+      </c>
       <c r="E18" s="35">
         <v>45093</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36">
+        <v>159714</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>45093</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="39">
+        <v>1839</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
       <c r="L18" s="49"/>
       <c r="M18" s="42">
-        <v>0</v>
+        <f>75056.5+2300</f>
+        <v>77356.5</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>63090</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>159714</v>
       </c>
       <c r="Q18" s="45">
         <f t="shared" si="1"/>
@@ -13967,36 +14114,50 @@
       <c r="S18" s="233"/>
     </row>
     <row r="19" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="562" t="s">
+      <c r="A19" s="504" t="s">
         <v>656</v>
       </c>
       <c r="B19" s="32">
         <v>45094</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="33">
+        <v>15188</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>679</v>
+      </c>
       <c r="E19" s="35">
         <v>45094</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="36">
+        <v>218948</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>45094</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="344"/>
-      <c r="L19" s="59"/>
+      <c r="I19" s="39">
+        <v>4957</v>
+      </c>
+      <c r="J19" s="40">
+        <v>45094</v>
+      </c>
+      <c r="K19" s="344" t="s">
+        <v>680</v>
+      </c>
+      <c r="L19" s="59">
+        <v>21724</v>
+      </c>
       <c r="M19" s="42">
-        <v>0</v>
+        <v>90873</v>
       </c>
       <c r="N19" s="43">
-        <v>0</v>
+        <v>86206</v>
       </c>
       <c r="O19" s="499"/>
       <c r="P19" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>218948</v>
       </c>
       <c r="Q19" s="45">
         <f t="shared" si="1"/>
@@ -14008,7 +14169,7 @@
       <c r="S19" s="233"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="562" t="s">
+      <c r="A20" s="504" t="s">
         <v>650</v>
       </c>
       <c r="B20" s="32">
@@ -14048,7 +14209,7 @@
       <c r="S20" s="233"/>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="562" t="s">
+      <c r="A21" s="504" t="s">
         <v>651</v>
       </c>
       <c r="B21" s="32">
@@ -14088,7 +14249,7 @@
       <c r="S21" s="233"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="562" t="s">
+      <c r="A22" s="504" t="s">
         <v>652</v>
       </c>
       <c r="B22" s="32">
@@ -14128,7 +14289,7 @@
       <c r="S22" s="500"/>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="562" t="s">
+      <c r="A23" s="504" t="s">
         <v>653</v>
       </c>
       <c r="B23" s="32">
@@ -14168,7 +14329,7 @@
       <c r="S23" s="233"/>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="562" t="s">
+      <c r="A24" s="504" t="s">
         <v>654</v>
       </c>
       <c r="B24" s="32">
@@ -14208,7 +14369,7 @@
       <c r="S24" s="233"/>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="562" t="s">
+      <c r="A25" s="504" t="s">
         <v>655</v>
       </c>
       <c r="B25" s="32">
@@ -14248,7 +14409,7 @@
       <c r="S25" s="233"/>
     </row>
     <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="562" t="s">
+      <c r="A26" s="504" t="s">
         <v>656</v>
       </c>
       <c r="B26" s="32">
@@ -14293,7 +14454,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="562" t="s">
+      <c r="A27" s="504" t="s">
         <v>650</v>
       </c>
       <c r="B27" s="32">
@@ -14333,7 +14494,7 @@
       <c r="S27" s="233"/>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="562" t="s">
+      <c r="A28" s="504" t="s">
         <v>651</v>
       </c>
       <c r="B28" s="32">
@@ -14373,7 +14534,7 @@
       <c r="S28" s="233"/>
     </row>
     <row r="29" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="562" t="s">
+      <c r="A29" s="504" t="s">
         <v>652</v>
       </c>
       <c r="B29" s="32">
@@ -14413,7 +14574,7 @@
       <c r="S29" s="233"/>
     </row>
     <row r="30" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="562" t="s">
+      <c r="A30" s="504" t="s">
         <v>653</v>
       </c>
       <c r="B30" s="32">
@@ -14453,7 +14614,7 @@
       <c r="S30" s="501"/>
     </row>
     <row r="31" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="562" t="s">
+      <c r="A31" s="504" t="s">
         <v>654</v>
       </c>
       <c r="B31" s="32">
@@ -14493,7 +14654,7 @@
       <c r="S31" s="233"/>
     </row>
     <row r="32" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="562" t="s">
+      <c r="A32" s="504" t="s">
         <v>655</v>
       </c>
       <c r="B32" s="32">
@@ -14535,22 +14696,14 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="562" t="s">
-        <v>656</v>
-      </c>
-      <c r="B33" s="32">
-        <v>45108</v>
-      </c>
+      <c r="A33" s="504"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="33"/>
       <c r="D33" s="83"/>
-      <c r="E33" s="35">
-        <v>45108</v>
-      </c>
+      <c r="E33" s="35"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
-      <c r="H33" s="38">
-        <v>45108</v>
-      </c>
+      <c r="H33" s="38"/>
       <c r="I33" s="39"/>
       <c r="J33" s="370"/>
       <c r="K33" s="371"/>
@@ -14574,22 +14727,14 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="562" t="s">
-        <v>650</v>
-      </c>
-      <c r="B34" s="32">
-        <v>45109</v>
-      </c>
+      <c r="A34" s="504"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="33"/>
       <c r="D34" s="83"/>
-      <c r="E34" s="35">
-        <v>45109</v>
-      </c>
+      <c r="E34" s="35"/>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="38">
-        <v>45109</v>
-      </c>
+      <c r="H34" s="38"/>
       <c r="I34" s="39"/>
       <c r="J34" s="370"/>
       <c r="K34" s="373"/>
@@ -14616,22 +14761,14 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="562" t="s">
-        <v>651</v>
-      </c>
-      <c r="B35" s="32">
-        <v>45110</v>
-      </c>
+      <c r="A35" s="504"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="86"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="35">
-        <v>45110</v>
-      </c>
+      <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
-      <c r="H35" s="38">
-        <v>45110</v>
-      </c>
+      <c r="H35" s="38"/>
       <c r="I35" s="39"/>
       <c r="J35" s="374"/>
       <c r="K35" s="373"/>
@@ -14761,9 +14898,15 @@
       <c r="G39" s="92"/>
       <c r="H39" s="38"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="338"/>
-      <c r="K39" s="343"/>
-      <c r="L39" s="49"/>
+      <c r="J39" s="338">
+        <v>45087</v>
+      </c>
+      <c r="K39" s="343" t="s">
+        <v>663</v>
+      </c>
+      <c r="L39" s="49">
+        <v>25834</v>
+      </c>
       <c r="M39" s="42">
         <v>0</v>
       </c>
@@ -14791,9 +14934,15 @@
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="338"/>
-      <c r="K40" s="343"/>
-      <c r="L40" s="49"/>
+      <c r="J40" s="338">
+        <v>45094</v>
+      </c>
+      <c r="K40" s="343" t="s">
+        <v>680</v>
+      </c>
+      <c r="L40" s="49">
+        <v>27215</v>
+      </c>
       <c r="M40" s="42">
         <v>0</v>
       </c>
@@ -14812,9 +14961,15 @@
     </row>
     <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="470"/>
+      <c r="B41" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C41" s="93">
+        <v>14567</v>
+      </c>
+      <c r="D41" s="470" t="s">
+        <v>670</v>
+      </c>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
       <c r="G41" s="37"/>
@@ -14842,9 +14997,15 @@
     </row>
     <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C42" s="93">
+        <v>2311</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>671</v>
+      </c>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
       <c r="G42" s="37"/>
@@ -14872,9 +15033,15 @@
     </row>
     <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="102"/>
+      <c r="B43" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C43" s="93">
+        <v>14389</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>672</v>
+      </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
       <c r="G43" s="37"/>
@@ -14902,9 +15069,15 @@
     </row>
     <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="102"/>
+      <c r="B44" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C44" s="93">
+        <v>6664</v>
+      </c>
+      <c r="D44" s="102" t="s">
+        <v>673</v>
+      </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
       <c r="G44" s="37"/>
@@ -14932,9 +15105,15 @@
     </row>
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="102"/>
+      <c r="B45" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C45" s="93">
+        <v>13376</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>674</v>
+      </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
       <c r="G45" s="37"/>
@@ -14962,9 +15141,15 @@
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="102"/>
+      <c r="B46" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C46" s="93">
+        <v>3979</v>
+      </c>
+      <c r="D46" s="102" t="s">
+        <v>675</v>
+      </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
       <c r="G46" s="37"/>
@@ -14992,9 +15177,15 @@
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="102"/>
+      <c r="B47" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C47" s="93">
+        <v>4440</v>
+      </c>
+      <c r="D47" s="102" t="s">
+        <v>676</v>
+      </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
       <c r="G47" s="37"/>
@@ -15058,21 +15249,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="526">
+      <c r="M49" s="516">
         <f>SUM(M5:M40)</f>
-        <v>423871.28</v>
-      </c>
-      <c r="N49" s="526">
+        <v>886541.78</v>
+      </c>
+      <c r="N49" s="516">
         <f>SUM(N5:N40)</f>
-        <v>384299</v>
+        <v>844913</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>949948.78</v>
-      </c>
-      <c r="Q49" s="538">
+        <v>2109563.7800000003</v>
+      </c>
+      <c r="Q49" s="528">
         <f>SUM(Q5:Q40)</f>
-        <v>-60.220000000001164</v>
+        <v>-425.22000000000116</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -15091,10 +15282,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="527"/>
-      <c r="N50" s="527"/>
+      <c r="M50" s="517"/>
+      <c r="N50" s="517"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="539"/>
+      <c r="Q50" s="529"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -15149,11 +15340,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="504">
+      <c r="M53" s="530">
         <f>M49+N49</f>
-        <v>808170.28</v>
-      </c>
-      <c r="N53" s="505"/>
+        <v>1731454.78</v>
+      </c>
+      <c r="N53" s="531"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -15536,7 +15727,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>97311.5</v>
+        <v>302250</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -15544,7 +15735,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>950009</v>
+        <v>2109989</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -15552,7 +15743,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>16364</v>
+        <v>52803</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -15560,7 +15751,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>59908.5</v>
+        <v>167636.5</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -15578,51 +15769,51 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="534" t="s">
+      <c r="H77" s="524" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="535"/>
+      <c r="I77" s="525"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="536">
+      <c r="K77" s="526">
         <f>I75+L75</f>
-        <v>76272.5</v>
-      </c>
-      <c r="L77" s="537"/>
+        <v>220439.5</v>
+      </c>
+      <c r="L77" s="527"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="528" t="s">
+      <c r="D78" s="518" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="528"/>
+      <c r="E78" s="518"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>776425</v>
+        <v>1587299.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="529" t="s">
+      <c r="D79" s="519" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="529"/>
+      <c r="E79" s="519"/>
       <c r="F79" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>0</v>
       </c>
-      <c r="I79" s="530" t="s">
+      <c r="I79" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="531"/>
-      <c r="K79" s="532">
+      <c r="J79" s="521"/>
+      <c r="K79" s="522">
         <f>F81+F82+F83</f>
-        <v>776425</v>
-      </c>
-      <c r="L79" s="532"/>
+        <v>1587299.5</v>
+      </c>
+      <c r="L79" s="522"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -15657,18 +15848,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>776425</v>
+        <v>1587299.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="533">
+      <c r="K81" s="523">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L81" s="532"/>
+      <c r="L81" s="522"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -15683,22 +15874,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="521" t="s">
+      <c r="D83" s="511" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="522"/>
+      <c r="E83" s="512"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="555" t="s">
+      <c r="I83" s="556" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="556"/>
-      <c r="K83" s="557">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
-        <v>-3121542.53</v>
-      </c>
-      <c r="L83" s="557"/>
+        <v>-2310668.0299999998</v>
+      </c>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -15843,13 +16034,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15865,6 +16049,13 @@
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16678,10 +16869,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="543" t="s">
+      <c r="I37" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="544"/>
+      <c r="J37" s="545"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -16700,8 +16891,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="545"/>
-      <c r="J38" s="546"/>
+      <c r="I38" s="546"/>
+      <c r="J38" s="547"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -16720,8 +16911,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="547"/>
-      <c r="J39" s="548"/>
+      <c r="I39" s="548"/>
+      <c r="J39" s="549"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -17279,10 +17470,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="549" t="s">
+      <c r="I67" s="550" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="550"/>
+      <c r="J67" s="551"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -17304,11 +17495,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="553" t="s">
+      <c r="G68" s="554" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="558"/>
-      <c r="J68" s="559"/>
+      <c r="I68" s="559"/>
+      <c r="J68" s="560"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -17319,7 +17510,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="554"/>
+      <c r="G69" s="555"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -19253,10 +19444,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="540"/>
-      <c r="J36" s="541"/>
-      <c r="K36" s="541"/>
-      <c r="L36" s="542"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="542"/>
+      <c r="K36" s="542"/>
+      <c r="L36" s="543"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19283,10 +19474,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
-      <c r="K37" s="541"/>
-      <c r="L37" s="542"/>
+      <c r="I37" s="541"/>
+      <c r="J37" s="542"/>
+      <c r="K37" s="542"/>
+      <c r="L37" s="543"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19343,10 +19534,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="543" t="s">
+      <c r="I40" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="544"/>
+      <c r="J40" s="545"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19365,8 +19556,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="545"/>
-      <c r="J41" s="546"/>
+      <c r="I41" s="546"/>
+      <c r="J41" s="547"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19385,8 +19576,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="547"/>
-      <c r="J42" s="548"/>
+      <c r="I42" s="548"/>
+      <c r="J42" s="549"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -19890,10 +20081,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="549" t="s">
+      <c r="I67" s="550" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="550"/>
+      <c r="J67" s="551"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -19913,11 +20104,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="553" t="s">
+      <c r="G68" s="554" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="551"/>
-      <c r="J68" s="552"/>
+      <c r="I68" s="552"/>
+      <c r="J68" s="553"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -19928,7 +20119,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="554"/>
+      <c r="G69" s="555"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -20559,23 +20750,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20585,24 +20776,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="532" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="515" t="s">
+      <c r="R3" s="505" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20617,14 +20808,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="517" t="s">
+      <c r="E4" s="507" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="518"/>
-      <c r="H4" s="519" t="s">
+      <c r="F4" s="508"/>
+      <c r="H4" s="509" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="520"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20634,11 +20825,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="533"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="516"/>
+      <c r="R4" s="506"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -22614,11 +22805,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="526">
+      <c r="M49" s="516">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="526">
+      <c r="N49" s="516">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -22626,7 +22817,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="538">
+      <c r="Q49" s="528">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -22659,10 +22850,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="527"/>
-      <c r="N50" s="527"/>
+      <c r="M50" s="517"/>
+      <c r="N50" s="517"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="539"/>
+      <c r="Q50" s="529"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -22753,11 +22944,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="504">
+      <c r="M53" s="530">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="505"/>
+      <c r="N53" s="531"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23316,26 +23507,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="534" t="s">
+      <c r="H77" s="524" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="535"/>
+      <c r="I77" s="525"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="536">
+      <c r="K77" s="526">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="537"/>
+      <c r="L77" s="527"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="528" t="s">
+      <c r="D78" s="518" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="528"/>
+      <c r="E78" s="518"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -23344,22 +23535,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="529" t="s">
+      <c r="D79" s="519" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="529"/>
+      <c r="E79" s="519"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="530" t="s">
+      <c r="I79" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="531"/>
-      <c r="K79" s="532">
+      <c r="J79" s="521"/>
+      <c r="K79" s="522">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="532"/>
+      <c r="L79" s="522"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -23400,11 +23591,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="533">
+      <c r="K81" s="523">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="532"/>
+      <c r="L81" s="522"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -23421,22 +23612,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="521" t="s">
+      <c r="D83" s="511" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="522"/>
+      <c r="E83" s="512"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="555" t="s">
+      <c r="I83" s="556" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="556"/>
-      <c r="K83" s="557">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="557"/>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -23583,12 +23774,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23605,6 +23790,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25016,10 +25207,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="540"/>
-      <c r="J36" s="541"/>
-      <c r="K36" s="541"/>
-      <c r="L36" s="542"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="542"/>
+      <c r="K36" s="542"/>
+      <c r="L36" s="543"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -25046,10 +25237,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
-      <c r="K37" s="541"/>
-      <c r="L37" s="542"/>
+      <c r="I37" s="541"/>
+      <c r="J37" s="542"/>
+      <c r="K37" s="542"/>
+      <c r="L37" s="543"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -25116,10 +25307,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="543" t="s">
+      <c r="I40" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="544"/>
+      <c r="J40" s="545"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -25138,8 +25329,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="545"/>
-      <c r="J41" s="546"/>
+      <c r="I41" s="546"/>
+      <c r="J41" s="547"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -25158,8 +25349,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="547"/>
-      <c r="J42" s="548"/>
+      <c r="I42" s="548"/>
+      <c r="J42" s="549"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -25663,10 +25854,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="549" t="s">
+      <c r="I67" s="550" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="550"/>
+      <c r="J67" s="551"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -25686,11 +25877,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="553" t="s">
+      <c r="G68" s="554" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="558"/>
-      <c r="J68" s="559"/>
+      <c r="I68" s="559"/>
+      <c r="J68" s="560"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -25701,7 +25892,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="554"/>
+      <c r="G69" s="555"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -26316,23 +26507,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -26342,24 +26533,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="532" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="560" t="s">
+      <c r="R3" s="561" t="s">
         <v>3</v>
       </c>
     </row>
@@ -26374,14 +26565,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="517" t="s">
+      <c r="E4" s="507" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="518"/>
-      <c r="H4" s="519" t="s">
+      <c r="F4" s="508"/>
+      <c r="H4" s="509" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="520"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -26391,11 +26582,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="533"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="561"/>
+      <c r="R4" s="562"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -28376,11 +28567,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="526">
+      <c r="M49" s="516">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="526">
+      <c r="N49" s="516">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -28388,7 +28579,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="538">
+      <c r="Q49" s="528">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -28421,10 +28612,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="527"/>
-      <c r="N50" s="527"/>
+      <c r="M50" s="517"/>
+      <c r="N50" s="517"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="539"/>
+      <c r="Q50" s="529"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -28515,11 +28706,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="504">
+      <c r="M53" s="530">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="505"/>
+      <c r="N53" s="531"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -28998,26 +29189,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="534" t="s">
+      <c r="H77" s="524" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="535"/>
+      <c r="I77" s="525"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="536">
+      <c r="K77" s="526">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="537"/>
+      <c r="L77" s="527"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="528" t="s">
+      <c r="D78" s="518" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="528"/>
+      <c r="E78" s="518"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -29026,22 +29217,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="529" t="s">
+      <c r="D79" s="519" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="529"/>
+      <c r="E79" s="519"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="530" t="s">
+      <c r="I79" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="531"/>
-      <c r="K79" s="532">
+      <c r="J79" s="521"/>
+      <c r="K79" s="522">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="532"/>
+      <c r="L79" s="522"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -29082,11 +29273,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="533">
+      <c r="K81" s="523">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="532"/>
+      <c r="L81" s="522"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -29103,22 +29294,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="521" t="s">
+      <c r="D83" s="511" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="522"/>
+      <c r="E83" s="512"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="523" t="s">
+      <c r="I83" s="513" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="524"/>
-      <c r="K83" s="525">
+      <c r="J83" s="514"/>
+      <c r="K83" s="515">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="525"/>
+      <c r="L83" s="515"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -29265,6 +29456,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29281,12 +29478,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30589,10 +30780,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="540"/>
-      <c r="J36" s="541"/>
-      <c r="K36" s="541"/>
-      <c r="L36" s="542"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="542"/>
+      <c r="K36" s="542"/>
+      <c r="L36" s="543"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -30609,10 +30800,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
-      <c r="K37" s="541"/>
-      <c r="L37" s="542"/>
+      <c r="I37" s="541"/>
+      <c r="J37" s="542"/>
+      <c r="K37" s="542"/>
+      <c r="L37" s="543"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -30669,10 +30860,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="543" t="s">
+      <c r="I40" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="544"/>
+      <c r="J40" s="545"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -30691,8 +30882,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="545"/>
-      <c r="J41" s="546"/>
+      <c r="I41" s="546"/>
+      <c r="J41" s="547"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -30711,8 +30902,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="547"/>
-      <c r="J42" s="548"/>
+      <c r="I42" s="548"/>
+      <c r="J42" s="549"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -31216,10 +31407,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="549" t="s">
+      <c r="I67" s="550" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="550"/>
+      <c r="J67" s="551"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -31239,11 +31430,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="553" t="s">
+      <c r="G68" s="554" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="558"/>
-      <c r="J68" s="559"/>
+      <c r="I68" s="559"/>
+      <c r="J68" s="560"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -31254,7 +31445,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="554"/>
+      <c r="G69" s="555"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -31860,23 +32051,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -31886,24 +32077,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="532" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="560" t="s">
+      <c r="R3" s="561" t="s">
         <v>3</v>
       </c>
     </row>
@@ -31918,14 +32109,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="517" t="s">
+      <c r="E4" s="507" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="518"/>
-      <c r="H4" s="519" t="s">
+      <c r="F4" s="508"/>
+      <c r="H4" s="509" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="520"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -31935,11 +32126,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="533"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="561"/>
+      <c r="R4" s="562"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -33960,11 +34151,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="526">
+      <c r="M49" s="516">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="526">
+      <c r="N49" s="516">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -33972,7 +34163,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="538">
+      <c r="Q49" s="528">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -33999,10 +34190,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="527"/>
-      <c r="N50" s="527"/>
+      <c r="M50" s="517"/>
+      <c r="N50" s="517"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="539"/>
+      <c r="Q50" s="529"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -34076,11 +34267,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="504">
+      <c r="M53" s="530">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="505"/>
+      <c r="N53" s="531"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -34709,26 +34900,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="534" t="s">
+      <c r="H79" s="524" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="535"/>
+      <c r="I79" s="525"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="536">
+      <c r="K79" s="526">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="537"/>
+      <c r="L79" s="527"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="528" t="s">
+      <c r="D80" s="518" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="528"/>
+      <c r="E80" s="518"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -34737,22 +34928,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="529" t="s">
+      <c r="D81" s="519" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="529"/>
+      <c r="E81" s="519"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="530" t="s">
+      <c r="I81" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="531"/>
-      <c r="K81" s="532">
+      <c r="J81" s="521"/>
+      <c r="K81" s="522">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="532"/>
+      <c r="L81" s="522"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -34793,11 +34984,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="533">
+      <c r="K83" s="523">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="532"/>
+      <c r="L83" s="522"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -34814,22 +35005,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="521" t="s">
+      <c r="D85" s="511" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="522"/>
+      <c r="E85" s="512"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="523" t="s">
+      <c r="I85" s="513" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="524"/>
-      <c r="K85" s="525">
+      <c r="J85" s="514"/>
+      <c r="K85" s="515">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="525"/>
+      <c r="L85" s="515"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -34977,12 +35168,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -34999,6 +35184,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36318,10 +36509,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="540"/>
-      <c r="J36" s="541"/>
-      <c r="K36" s="541"/>
-      <c r="L36" s="542"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="542"/>
+      <c r="K36" s="542"/>
+      <c r="L36" s="543"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -36344,10 +36535,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
-      <c r="K37" s="541"/>
-      <c r="L37" s="542"/>
+      <c r="I37" s="541"/>
+      <c r="J37" s="542"/>
+      <c r="K37" s="542"/>
+      <c r="L37" s="543"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -36422,10 +36613,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="543" t="s">
+      <c r="I40" s="544" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="544"/>
+      <c r="J40" s="545"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -36450,8 +36641,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="545"/>
-      <c r="J41" s="546"/>
+      <c r="I41" s="546"/>
+      <c r="J41" s="547"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -36476,8 +36667,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="547"/>
-      <c r="J42" s="548"/>
+      <c r="I42" s="548"/>
+      <c r="J42" s="549"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -36999,10 +37190,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="549" t="s">
+      <c r="I67" s="550" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="550"/>
+      <c r="J67" s="551"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -37022,11 +37213,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="553" t="s">
+      <c r="G68" s="554" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="558"/>
-      <c r="J68" s="559"/>
+      <c r="I68" s="559"/>
+      <c r="J68" s="560"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -37037,7 +37228,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="554"/>
+      <c r="G69" s="555"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -37653,23 +37844,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="508"/>
-      <c r="C1" s="510" t="s">
+      <c r="B1" s="534"/>
+      <c r="C1" s="536" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="511"/>
-      <c r="K1" s="511"/>
-      <c r="L1" s="511"/>
-      <c r="M1" s="511"/>
+      <c r="D1" s="537"/>
+      <c r="E1" s="537"/>
+      <c r="F1" s="537"/>
+      <c r="G1" s="537"/>
+      <c r="H1" s="537"/>
+      <c r="I1" s="537"/>
+      <c r="J1" s="537"/>
+      <c r="K1" s="537"/>
+      <c r="L1" s="537"/>
+      <c r="M1" s="537"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="509"/>
+      <c r="B2" s="535"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -37679,27 +37870,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="512" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="513"/>
+      <c r="B3" s="538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="539"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="514" t="s">
+      <c r="H3" s="540" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="514"/>
+      <c r="I3" s="540"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="506" t="s">
+      <c r="P3" s="532" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="560" t="s">
+      <c r="R3" s="561" t="s">
         <v>3</v>
       </c>
     </row>
@@ -37714,14 +37905,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="517" t="s">
+      <c r="E4" s="507" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="518"/>
-      <c r="H4" s="519" t="s">
+      <c r="F4" s="508"/>
+      <c r="H4" s="509" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="520"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -37731,11 +37922,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="533"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="561"/>
+      <c r="R4" s="562"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -39738,11 +39929,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="526">
+      <c r="M49" s="516">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="526">
+      <c r="N49" s="516">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -39750,7 +39941,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="538">
+      <c r="Q49" s="528">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -39783,10 +39974,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="527"/>
-      <c r="N50" s="527"/>
+      <c r="M50" s="517"/>
+      <c r="N50" s="517"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="539"/>
+      <c r="Q50" s="529"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -39865,11 +40056,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="504">
+      <c r="M53" s="530">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="505"/>
+      <c r="N53" s="531"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -40348,26 +40539,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="534" t="s">
+      <c r="H77" s="524" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="535"/>
+      <c r="I77" s="525"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="536">
+      <c r="K77" s="526">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="537"/>
+      <c r="L77" s="527"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="528" t="s">
+      <c r="D78" s="518" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="528"/>
+      <c r="E78" s="518"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -40376,22 +40567,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="529" t="s">
+      <c r="D79" s="519" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="529"/>
+      <c r="E79" s="519"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="530" t="s">
+      <c r="I79" s="520" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="531"/>
-      <c r="K79" s="532">
+      <c r="J79" s="521"/>
+      <c r="K79" s="522">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="532"/>
+      <c r="L79" s="522"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -40432,11 +40623,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="533">
+      <c r="K81" s="523">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="532"/>
+      <c r="L81" s="522"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -40453,22 +40644,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="521" t="s">
+      <c r="D83" s="511" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="522"/>
+      <c r="E83" s="512"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="555" t="s">
+      <c r="I83" s="556" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="556"/>
-      <c r="K83" s="557">
+      <c r="J83" s="557"/>
+      <c r="K83" s="558">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="557"/>
+      <c r="L83" s="558"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -40616,6 +40807,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40632,12 +40829,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="682">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2499,6 +2499,9 @@
   </si>
   <si>
     <t>NOMINA # 24</t>
+  </si>
+  <si>
+    <t>SALSAS-QUESOS-TOCINETA-PEPERONI</t>
   </si>
 </sst>
 </file>
@@ -5064,6 +5067,40 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5139,39 +5176,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5238,7 +5242,6 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8197,23 +8200,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="510"/>
+      <c r="C1" s="512" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
+      <c r="L1" s="513"/>
+      <c r="M1" s="513"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="511"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -8223,24 +8226,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="515"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="516" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="516"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="532" t="s">
+      <c r="P3" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="505" t="s">
+      <c r="R3" s="517" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8255,14 +8258,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="507" t="s">
+      <c r="E4" s="519" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="508"/>
-      <c r="H4" s="509" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="510"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -8272,11 +8275,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="533"/>
+      <c r="P4" s="509"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="506"/>
+      <c r="R4" s="518"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -10111,11 +10114,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="516">
+      <c r="M49" s="528">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="516">
+      <c r="N49" s="528">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -10123,7 +10126,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="528">
+      <c r="Q49" s="540">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -10144,10 +10147,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="517"/>
-      <c r="N50" s="517"/>
+      <c r="M50" s="529"/>
+      <c r="N50" s="529"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="529"/>
+      <c r="Q50" s="541"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -10202,11 +10205,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="530">
+      <c r="M53" s="506">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="531"/>
+      <c r="N53" s="507"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -10631,26 +10634,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="524" t="s">
+      <c r="H77" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="525"/>
+      <c r="I77" s="537"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="526">
+      <c r="K77" s="538">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="527"/>
+      <c r="L77" s="539"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="518" t="s">
+      <c r="D78" s="530" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="518"/>
+      <c r="E78" s="530"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -10659,22 +10662,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="519" t="s">
+      <c r="D79" s="531" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="519"/>
+      <c r="E79" s="531"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="520" t="s">
+      <c r="I79" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="521"/>
-      <c r="K79" s="522">
+      <c r="J79" s="533"/>
+      <c r="K79" s="534">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="522"/>
+      <c r="L79" s="534"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -10715,11 +10718,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="523">
+      <c r="K81" s="535">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="522"/>
+      <c r="L81" s="534"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -10736,22 +10739,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="511" t="s">
+      <c r="D83" s="523" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="512"/>
+      <c r="E83" s="524"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="513" t="s">
+      <c r="I83" s="525" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="514"/>
-      <c r="K83" s="515">
+      <c r="J83" s="526"/>
+      <c r="K83" s="527">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="515"/>
+      <c r="L83" s="527"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -10898,12 +10901,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10920,6 +10917,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12089,10 +12092,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="544" t="s">
+      <c r="I37" s="545" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="545"/>
+      <c r="J37" s="546"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -12111,8 +12114,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="546"/>
-      <c r="J38" s="547"/>
+      <c r="I38" s="547"/>
+      <c r="J38" s="548"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -12131,8 +12134,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="548"/>
-      <c r="J39" s="549"/>
+      <c r="I39" s="549"/>
+      <c r="J39" s="550"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -12690,10 +12693,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="550" t="s">
+      <c r="I67" s="551" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="551"/>
+      <c r="J67" s="552"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -12715,11 +12718,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="554" t="s">
+      <c r="G68" s="555" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="559"/>
-      <c r="J68" s="560"/>
+      <c r="I68" s="560"/>
+      <c r="J68" s="561"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -12730,7 +12733,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="555"/>
+      <c r="G69" s="556"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -13291,8 +13294,8 @@
   </sheetPr>
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F29:F30"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13318,23 +13321,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="510"/>
+      <c r="C1" s="512" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
+      <c r="L1" s="513"/>
+      <c r="M1" s="513"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="511"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -13344,27 +13347,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="515"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="516" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="516"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="532" t="s">
+      <c r="P3" s="508" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="561" t="s">
+      <c r="R3" s="562" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13379,14 +13382,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="507" t="s">
+      <c r="E4" s="519" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="508"/>
-      <c r="H4" s="509" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="510"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -13396,11 +13399,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="533"/>
+      <c r="P4" s="509"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="562"/>
+      <c r="R4" s="563"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -13859,11 +13862,11 @@
       <c r="R13" s="46">
         <v>0</v>
       </c>
-      <c r="S13" s="563" t="s">
+      <c r="S13" s="505" t="s">
         <v>666</v>
       </c>
-      <c r="T13" s="563"/>
-      <c r="U13" s="563"/>
+      <c r="T13" s="505"/>
+      <c r="U13" s="505"/>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="504" t="s">
@@ -14175,29 +14178,37 @@
       <c r="B20" s="32">
         <v>45095</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="33">
+        <v>9154</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>681</v>
+      </c>
       <c r="E20" s="35">
         <v>45095</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="36">
+        <v>157691</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>45095</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="39">
+        <v>1885</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="60"/>
       <c r="L20" s="55"/>
       <c r="M20" s="42">
-        <v>0</v>
+        <v>73638</v>
       </c>
       <c r="N20" s="43">
-        <v>0</v>
+        <v>73014</v>
       </c>
       <c r="P20" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>157691</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="1"/>
@@ -15249,19 +15260,19 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="516">
+      <c r="M49" s="528">
         <f>SUM(M5:M40)</f>
-        <v>886541.78</v>
-      </c>
-      <c r="N49" s="516">
+        <v>960179.78</v>
+      </c>
+      <c r="N49" s="528">
         <f>SUM(N5:N40)</f>
-        <v>844913</v>
+        <v>917927</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2109563.7800000003</v>
-      </c>
-      <c r="Q49" s="528">
+        <v>2267254.7800000003</v>
+      </c>
+      <c r="Q49" s="540">
         <f>SUM(Q5:Q40)</f>
         <v>-425.22000000000116</v>
       </c>
@@ -15282,10 +15293,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="517"/>
-      <c r="N50" s="517"/>
+      <c r="M50" s="529"/>
+      <c r="N50" s="529"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="529"/>
+      <c r="Q50" s="541"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -15340,11 +15351,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="530">
+      <c r="M53" s="506">
         <f>M49+N49</f>
-        <v>1731454.78</v>
-      </c>
-      <c r="N53" s="531"/>
+        <v>1878106.78</v>
+      </c>
+      <c r="N53" s="507"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -15727,7 +15738,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>302250</v>
+        <v>311404</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -15735,7 +15746,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2109989</v>
+        <v>2267680</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -15743,7 +15754,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>52803</v>
+        <v>54688</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -15769,51 +15780,51 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="524" t="s">
+      <c r="H77" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="525"/>
+      <c r="I77" s="537"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="526">
+      <c r="K77" s="538">
         <f>I75+L75</f>
-        <v>220439.5</v>
-      </c>
-      <c r="L77" s="527"/>
+        <v>222324.5</v>
+      </c>
+      <c r="L77" s="539"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="518" t="s">
+      <c r="D78" s="530" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="518"/>
+      <c r="E78" s="530"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1587299.5</v>
+        <v>1733951.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="519" t="s">
+      <c r="D79" s="531" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="519"/>
+      <c r="E79" s="531"/>
       <c r="F79" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>0</v>
       </c>
-      <c r="I79" s="520" t="s">
+      <c r="I79" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="521"/>
-      <c r="K79" s="522">
+      <c r="J79" s="533"/>
+      <c r="K79" s="534">
         <f>F81+F82+F83</f>
-        <v>1587299.5</v>
-      </c>
-      <c r="L79" s="522"/>
+        <v>1733951.5</v>
+      </c>
+      <c r="L79" s="534"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -15848,18 +15859,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1587299.5</v>
+        <v>1733951.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="523">
+      <c r="K81" s="535">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L81" s="522"/>
+      <c r="L81" s="534"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -15874,22 +15885,22 @@
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C83" s="172"/>
-      <c r="D83" s="511" t="s">
+      <c r="D83" s="523" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="512"/>
+      <c r="E83" s="524"/>
       <c r="F83" s="173">
         <v>0</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="557" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="558"/>
+      <c r="K83" s="559">
         <f>K79+K81</f>
-        <v>-2310668.0299999998</v>
-      </c>
-      <c r="L83" s="558"/>
+        <v>-2164016.0299999998</v>
+      </c>
+      <c r="L83" s="559"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -16034,6 +16045,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16050,12 +16067,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16869,10 +16880,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="544" t="s">
+      <c r="I37" s="545" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="545"/>
+      <c r="J37" s="546"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -16891,8 +16902,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="546"/>
-      <c r="J38" s="547"/>
+      <c r="I38" s="547"/>
+      <c r="J38" s="548"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -16911,8 +16922,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="548"/>
-      <c r="J39" s="549"/>
+      <c r="I39" s="549"/>
+      <c r="J39" s="550"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -17470,10 +17481,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="550" t="s">
+      <c r="I67" s="551" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="551"/>
+      <c r="J67" s="552"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -17495,11 +17506,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="554" t="s">
+      <c r="G68" s="555" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="559"/>
-      <c r="J68" s="560"/>
+      <c r="I68" s="560"/>
+      <c r="J68" s="561"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -17510,7 +17521,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="555"/>
+      <c r="G69" s="556"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -19444,10 +19455,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
-      <c r="K36" s="542"/>
-      <c r="L36" s="543"/>
+      <c r="I36" s="542"/>
+      <c r="J36" s="543"/>
+      <c r="K36" s="543"/>
+      <c r="L36" s="544"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19474,10 +19485,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="541"/>
-      <c r="J37" s="542"/>
-      <c r="K37" s="542"/>
-      <c r="L37" s="543"/>
+      <c r="I37" s="542"/>
+      <c r="J37" s="543"/>
+      <c r="K37" s="543"/>
+      <c r="L37" s="544"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19534,10 +19545,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="544" t="s">
+      <c r="I40" s="545" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="545"/>
+      <c r="J40" s="546"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19556,8 +19567,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="546"/>
-      <c r="J41" s="547"/>
+      <c r="I41" s="547"/>
+      <c r="J41" s="548"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19576,8 +19587,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="548"/>
-      <c r="J42" s="549"/>
+      <c r="I42" s="549"/>
+      <c r="J42" s="550"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -20081,10 +20092,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="550" t="s">
+      <c r="I67" s="551" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="551"/>
+      <c r="J67" s="552"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -20104,11 +20115,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="554" t="s">
+      <c r="G68" s="555" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="552"/>
-      <c r="J68" s="553"/>
+      <c r="I68" s="553"/>
+      <c r="J68" s="554"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -20119,7 +20130,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="555"/>
+      <c r="G69" s="556"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -20750,23 +20761,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="510"/>
+      <c r="C1" s="512" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
+      <c r="L1" s="513"/>
+      <c r="M1" s="513"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="511"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20776,24 +20787,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="515"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="516" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="516"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="532" t="s">
+      <c r="P3" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="505" t="s">
+      <c r="R3" s="517" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20808,14 +20819,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="507" t="s">
+      <c r="E4" s="519" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="508"/>
-      <c r="H4" s="509" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="510"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20825,11 +20836,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="533"/>
+      <c r="P4" s="509"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="506"/>
+      <c r="R4" s="518"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -22805,11 +22816,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="516">
+      <c r="M49" s="528">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="516">
+      <c r="N49" s="528">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -22817,7 +22828,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="528">
+      <c r="Q49" s="540">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -22850,10 +22861,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="517"/>
-      <c r="N50" s="517"/>
+      <c r="M50" s="529"/>
+      <c r="N50" s="529"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="529"/>
+      <c r="Q50" s="541"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -22944,11 +22955,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="530">
+      <c r="M53" s="506">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="531"/>
+      <c r="N53" s="507"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23507,26 +23518,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="524" t="s">
+      <c r="H77" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="525"/>
+      <c r="I77" s="537"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="526">
+      <c r="K77" s="538">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="527"/>
+      <c r="L77" s="539"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="518" t="s">
+      <c r="D78" s="530" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="518"/>
+      <c r="E78" s="530"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -23535,22 +23546,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="519" t="s">
+      <c r="D79" s="531" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="519"/>
+      <c r="E79" s="531"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="520" t="s">
+      <c r="I79" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="521"/>
-      <c r="K79" s="522">
+      <c r="J79" s="533"/>
+      <c r="K79" s="534">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="522"/>
+      <c r="L79" s="534"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -23591,11 +23602,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="523">
+      <c r="K81" s="535">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="522"/>
+      <c r="L81" s="534"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -23612,22 +23623,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="511" t="s">
+      <c r="D83" s="523" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="512"/>
+      <c r="E83" s="524"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="557" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="558"/>
+      <c r="K83" s="559">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="558"/>
+      <c r="L83" s="559"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -23774,6 +23785,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23790,12 +23807,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25207,10 +25218,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
-      <c r="K36" s="542"/>
-      <c r="L36" s="543"/>
+      <c r="I36" s="542"/>
+      <c r="J36" s="543"/>
+      <c r="K36" s="543"/>
+      <c r="L36" s="544"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -25237,10 +25248,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="541"/>
-      <c r="J37" s="542"/>
-      <c r="K37" s="542"/>
-      <c r="L37" s="543"/>
+      <c r="I37" s="542"/>
+      <c r="J37" s="543"/>
+      <c r="K37" s="543"/>
+      <c r="L37" s="544"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -25307,10 +25318,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="544" t="s">
+      <c r="I40" s="545" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="545"/>
+      <c r="J40" s="546"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -25329,8 +25340,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="546"/>
-      <c r="J41" s="547"/>
+      <c r="I41" s="547"/>
+      <c r="J41" s="548"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -25349,8 +25360,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="548"/>
-      <c r="J42" s="549"/>
+      <c r="I42" s="549"/>
+      <c r="J42" s="550"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -25854,10 +25865,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="550" t="s">
+      <c r="I67" s="551" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="551"/>
+      <c r="J67" s="552"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -25877,11 +25888,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="554" t="s">
+      <c r="G68" s="555" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="559"/>
-      <c r="J68" s="560"/>
+      <c r="I68" s="560"/>
+      <c r="J68" s="561"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -25892,7 +25903,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="555"/>
+      <c r="G69" s="556"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -26507,23 +26518,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="510"/>
+      <c r="C1" s="512" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
+      <c r="L1" s="513"/>
+      <c r="M1" s="513"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="511"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -26533,24 +26544,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="515"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="516" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="516"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="532" t="s">
+      <c r="P3" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="561" t="s">
+      <c r="R3" s="562" t="s">
         <v>3</v>
       </c>
     </row>
@@ -26565,14 +26576,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="507" t="s">
+      <c r="E4" s="519" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="508"/>
-      <c r="H4" s="509" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="510"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -26582,11 +26593,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="533"/>
+      <c r="P4" s="509"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="562"/>
+      <c r="R4" s="563"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -28567,11 +28578,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="516">
+      <c r="M49" s="528">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="516">
+      <c r="N49" s="528">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -28579,7 +28590,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="528">
+      <c r="Q49" s="540">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -28612,10 +28623,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="517"/>
-      <c r="N50" s="517"/>
+      <c r="M50" s="529"/>
+      <c r="N50" s="529"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="529"/>
+      <c r="Q50" s="541"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -28706,11 +28717,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="530">
+      <c r="M53" s="506">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="531"/>
+      <c r="N53" s="507"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29189,26 +29200,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="524" t="s">
+      <c r="H77" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="525"/>
+      <c r="I77" s="537"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="526">
+      <c r="K77" s="538">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="527"/>
+      <c r="L77" s="539"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="518" t="s">
+      <c r="D78" s="530" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="518"/>
+      <c r="E78" s="530"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -29217,22 +29228,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="519" t="s">
+      <c r="D79" s="531" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="519"/>
+      <c r="E79" s="531"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="520" t="s">
+      <c r="I79" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="521"/>
-      <c r="K79" s="522">
+      <c r="J79" s="533"/>
+      <c r="K79" s="534">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="522"/>
+      <c r="L79" s="534"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -29273,11 +29284,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="523">
+      <c r="K81" s="535">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="522"/>
+      <c r="L81" s="534"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -29294,22 +29305,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="511" t="s">
+      <c r="D83" s="523" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="512"/>
+      <c r="E83" s="524"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="513" t="s">
+      <c r="I83" s="525" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="514"/>
-      <c r="K83" s="515">
+      <c r="J83" s="526"/>
+      <c r="K83" s="527">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="515"/>
+      <c r="L83" s="527"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -29456,12 +29467,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29478,6 +29483,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30780,10 +30791,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
-      <c r="K36" s="542"/>
-      <c r="L36" s="543"/>
+      <c r="I36" s="542"/>
+      <c r="J36" s="543"/>
+      <c r="K36" s="543"/>
+      <c r="L36" s="544"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -30800,10 +30811,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="541"/>
-      <c r="J37" s="542"/>
-      <c r="K37" s="542"/>
-      <c r="L37" s="543"/>
+      <c r="I37" s="542"/>
+      <c r="J37" s="543"/>
+      <c r="K37" s="543"/>
+      <c r="L37" s="544"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -30860,10 +30871,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="544" t="s">
+      <c r="I40" s="545" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="545"/>
+      <c r="J40" s="546"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -30882,8 +30893,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="546"/>
-      <c r="J41" s="547"/>
+      <c r="I41" s="547"/>
+      <c r="J41" s="548"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -30902,8 +30913,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="548"/>
-      <c r="J42" s="549"/>
+      <c r="I42" s="549"/>
+      <c r="J42" s="550"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -31407,10 +31418,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="550" t="s">
+      <c r="I67" s="551" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="551"/>
+      <c r="J67" s="552"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -31430,11 +31441,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="554" t="s">
+      <c r="G68" s="555" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="559"/>
-      <c r="J68" s="560"/>
+      <c r="I68" s="560"/>
+      <c r="J68" s="561"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -31445,7 +31456,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="555"/>
+      <c r="G69" s="556"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -32051,23 +32062,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="510"/>
+      <c r="C1" s="512" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
+      <c r="L1" s="513"/>
+      <c r="M1" s="513"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="511"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -32077,24 +32088,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="515"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="516" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="516"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="532" t="s">
+      <c r="P3" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="561" t="s">
+      <c r="R3" s="562" t="s">
         <v>3</v>
       </c>
     </row>
@@ -32109,14 +32120,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="507" t="s">
+      <c r="E4" s="519" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="508"/>
-      <c r="H4" s="509" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="510"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -32126,11 +32137,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="533"/>
+      <c r="P4" s="509"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="562"/>
+      <c r="R4" s="563"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -34151,11 +34162,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="516">
+      <c r="M49" s="528">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="516">
+      <c r="N49" s="528">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -34163,7 +34174,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="528">
+      <c r="Q49" s="540">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -34190,10 +34201,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="517"/>
-      <c r="N50" s="517"/>
+      <c r="M50" s="529"/>
+      <c r="N50" s="529"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="529"/>
+      <c r="Q50" s="541"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -34267,11 +34278,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="530">
+      <c r="M53" s="506">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="531"/>
+      <c r="N53" s="507"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -34900,26 +34911,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="524" t="s">
+      <c r="H79" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="525"/>
+      <c r="I79" s="537"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="526">
+      <c r="K79" s="538">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="527"/>
+      <c r="L79" s="539"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="518" t="s">
+      <c r="D80" s="530" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="518"/>
+      <c r="E80" s="530"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -34928,22 +34939,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="519" t="s">
+      <c r="D81" s="531" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="519"/>
+      <c r="E81" s="531"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="520" t="s">
+      <c r="I81" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="521"/>
-      <c r="K81" s="522">
+      <c r="J81" s="533"/>
+      <c r="K81" s="534">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="522"/>
+      <c r="L81" s="534"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -34984,11 +34995,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="523">
+      <c r="K83" s="535">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="522"/>
+      <c r="L83" s="534"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -35005,22 +35016,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="511" t="s">
+      <c r="D85" s="523" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="512"/>
+      <c r="E85" s="524"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="513" t="s">
+      <c r="I85" s="525" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="514"/>
-      <c r="K85" s="515">
+      <c r="J85" s="526"/>
+      <c r="K85" s="527">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="515"/>
+      <c r="L85" s="527"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -35168,6 +35179,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35184,12 +35201,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36509,10 +36520,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
-      <c r="K36" s="542"/>
-      <c r="L36" s="543"/>
+      <c r="I36" s="542"/>
+      <c r="J36" s="543"/>
+      <c r="K36" s="543"/>
+      <c r="L36" s="544"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -36535,10 +36546,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="541"/>
-      <c r="J37" s="542"/>
-      <c r="K37" s="542"/>
-      <c r="L37" s="543"/>
+      <c r="I37" s="542"/>
+      <c r="J37" s="543"/>
+      <c r="K37" s="543"/>
+      <c r="L37" s="544"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -36613,10 +36624,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="544" t="s">
+      <c r="I40" s="545" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="545"/>
+      <c r="J40" s="546"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -36641,8 +36652,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="546"/>
-      <c r="J41" s="547"/>
+      <c r="I41" s="547"/>
+      <c r="J41" s="548"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -36667,8 +36678,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="548"/>
-      <c r="J42" s="549"/>
+      <c r="I42" s="549"/>
+      <c r="J42" s="550"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -37190,10 +37201,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="550" t="s">
+      <c r="I67" s="551" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="551"/>
+      <c r="J67" s="552"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -37213,11 +37224,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="554" t="s">
+      <c r="G68" s="555" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="559"/>
-      <c r="J68" s="560"/>
+      <c r="I68" s="560"/>
+      <c r="J68" s="561"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -37228,7 +37239,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="555"/>
+      <c r="G69" s="556"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -37844,23 +37855,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="534"/>
-      <c r="C1" s="536" t="s">
+      <c r="B1" s="510"/>
+      <c r="C1" s="512" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="537"/>
-      <c r="E1" s="537"/>
-      <c r="F1" s="537"/>
-      <c r="G1" s="537"/>
-      <c r="H1" s="537"/>
-      <c r="I1" s="537"/>
-      <c r="J1" s="537"/>
-      <c r="K1" s="537"/>
-      <c r="L1" s="537"/>
-      <c r="M1" s="537"/>
+      <c r="D1" s="513"/>
+      <c r="E1" s="513"/>
+      <c r="F1" s="513"/>
+      <c r="G1" s="513"/>
+      <c r="H1" s="513"/>
+      <c r="I1" s="513"/>
+      <c r="J1" s="513"/>
+      <c r="K1" s="513"/>
+      <c r="L1" s="513"/>
+      <c r="M1" s="513"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="535"/>
+      <c r="B2" s="511"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -37870,27 +37881,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="538" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="539"/>
+      <c r="B3" s="514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="515"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="540" t="s">
+      <c r="H3" s="516" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="540"/>
+      <c r="I3" s="516"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="532" t="s">
+      <c r="P3" s="508" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="561" t="s">
+      <c r="R3" s="562" t="s">
         <v>3</v>
       </c>
     </row>
@@ -37905,14 +37916,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="507" t="s">
+      <c r="E4" s="519" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="508"/>
-      <c r="H4" s="509" t="s">
+      <c r="F4" s="520"/>
+      <c r="H4" s="521" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="510"/>
+      <c r="I4" s="522"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -37922,11 +37933,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="533"/>
+      <c r="P4" s="509"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="562"/>
+      <c r="R4" s="563"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -39929,11 +39940,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="516">
+      <c r="M49" s="528">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="516">
+      <c r="N49" s="528">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -39941,7 +39952,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="528">
+      <c r="Q49" s="540">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -39974,10 +39985,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="517"/>
-      <c r="N50" s="517"/>
+      <c r="M50" s="529"/>
+      <c r="N50" s="529"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="529"/>
+      <c r="Q50" s="541"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -40056,11 +40067,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="530">
+      <c r="M53" s="506">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="531"/>
+      <c r="N53" s="507"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -40539,26 +40550,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="524" t="s">
+      <c r="H77" s="536" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="525"/>
+      <c r="I77" s="537"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="526">
+      <c r="K77" s="538">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="527"/>
+      <c r="L77" s="539"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="518" t="s">
+      <c r="D78" s="530" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="518"/>
+      <c r="E78" s="530"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -40567,22 +40578,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="519" t="s">
+      <c r="D79" s="531" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="519"/>
+      <c r="E79" s="531"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="520" t="s">
+      <c r="I79" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="521"/>
-      <c r="K79" s="522">
+      <c r="J79" s="533"/>
+      <c r="K79" s="534">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="522"/>
+      <c r="L79" s="534"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -40623,11 +40634,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="523">
+      <c r="K81" s="535">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="522"/>
+      <c r="L81" s="534"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -40644,22 +40655,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="511" t="s">
+      <c r="D83" s="523" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="512"/>
+      <c r="E83" s="524"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="556" t="s">
+      <c r="I83" s="557" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="557"/>
-      <c r="K83" s="558">
+      <c r="J83" s="558"/>
+      <c r="K83" s="559">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="558"/>
+      <c r="L83" s="559"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -40807,12 +40818,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40829,6 +40834,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="685">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2502,6 +2502,15 @@
   </si>
   <si>
     <t>SALSAS-QUESOS-TOCINETA-PEPERONI</t>
+  </si>
+  <si>
+    <t>SALCHICHA-PICAÑA-QUESOS-POLLO-LONGANIZA-ARABE-JAMONES-CHISTORRA</t>
+  </si>
+  <si>
+    <t>PASTOR-JAMON-SALMON-TILAPIA-QUESOS-POLLO-SALCHICHAS</t>
+  </si>
+  <si>
+    <t>PENSION CAMIONETA</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2525,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2896,6 +2905,13 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4137,7 +4153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="564">
+  <cellXfs count="565">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5241,6 +5257,9 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13294,8 +13313,8 @@
   </sheetPr>
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14226,29 +14245,38 @@
       <c r="B21" s="32">
         <v>45096</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="33">
+        <v>38395</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>682</v>
+      </c>
       <c r="E21" s="35">
         <v>45096</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="36">
+        <v>108341</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="38">
         <v>45096</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="39">
+        <v>1682</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="402"/>
       <c r="L21" s="55"/>
       <c r="M21" s="42">
-        <v>0</v>
+        <f>27709+2014</f>
+        <v>29723</v>
       </c>
       <c r="N21" s="43">
-        <v>0</v>
+        <v>38541</v>
       </c>
       <c r="P21" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108341</v>
       </c>
       <c r="Q21" s="45">
         <f t="shared" si="1"/>
@@ -14266,33 +14294,48 @@
       <c r="B22" s="32">
         <v>45097</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="33">
+        <v>26495</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>683</v>
+      </c>
       <c r="E22" s="35">
         <v>45097</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36">
+        <v>155909</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38">
         <v>45097</v>
       </c>
-      <c r="I22" s="359"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="358"/>
-      <c r="L22" s="62"/>
+      <c r="I22" s="359">
+        <v>3439</v>
+      </c>
+      <c r="J22" s="40">
+        <v>45097</v>
+      </c>
+      <c r="K22" s="564" t="s">
+        <v>684</v>
+      </c>
+      <c r="L22" s="62">
+        <v>1000</v>
+      </c>
       <c r="M22" s="42">
-        <v>0</v>
+        <f>57664+8806.6</f>
+        <v>66470.600000000006</v>
       </c>
       <c r="N22" s="43">
-        <v>0</v>
+        <v>58504</v>
       </c>
       <c r="P22" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155908.6</v>
       </c>
       <c r="Q22" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.39999999999417923</v>
       </c>
       <c r="R22" s="46">
         <v>0</v>
@@ -15262,19 +15305,19 @@
       <c r="L49" s="49"/>
       <c r="M49" s="528">
         <f>SUM(M5:M40)</f>
-        <v>960179.78</v>
+        <v>1056373.3800000001</v>
       </c>
       <c r="N49" s="528">
         <f>SUM(N5:N40)</f>
-        <v>917927</v>
+        <v>1014972</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2267254.7800000003</v>
+        <v>2531504.3800000004</v>
       </c>
       <c r="Q49" s="540">
         <f>SUM(Q5:Q40)</f>
-        <v>-425.22000000000116</v>
+        <v>-425.61999999999534</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -15353,7 +15396,7 @@
       <c r="L53" s="49"/>
       <c r="M53" s="506">
         <f>M49+N49</f>
-        <v>1878106.78</v>
+        <v>2071345.3800000001</v>
       </c>
       <c r="N53" s="507"/>
       <c r="P53" s="44"/>
@@ -15738,7 +15781,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>311404</v>
+        <v>376294</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -15746,7 +15789,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2267680</v>
+        <v>2531930</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -15754,7 +15797,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>54688</v>
+        <v>59809</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -15762,7 +15805,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>167636.5</v>
+        <v>168636.5</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -15787,7 +15830,7 @@
       <c r="J77" s="154"/>
       <c r="K77" s="538">
         <f>I75+L75</f>
-        <v>222324.5</v>
+        <v>228445.5</v>
       </c>
       <c r="L77" s="539"/>
       <c r="M77" s="155"/>
@@ -15802,7 +15845,7 @@
       <c r="E78" s="530"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1733951.5</v>
+        <v>1927190.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
@@ -15822,7 +15865,7 @@
       <c r="J79" s="533"/>
       <c r="K79" s="534">
         <f>F81+F82+F83</f>
-        <v>1733951.5</v>
+        <v>1927190.5</v>
       </c>
       <c r="L79" s="534"/>
       <c r="M79" s="159"/>
@@ -15859,7 +15902,7 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1733951.5</v>
+        <v>1927190.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
@@ -15898,7 +15941,7 @@
       <c r="J83" s="558"/>
       <c r="K83" s="559">
         <f>K79+K81</f>
-        <v>-2164016.0299999998</v>
+        <v>-1970777.0299999998</v>
       </c>
       <c r="L83" s="559"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="692">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2511,6 +2511,27 @@
   </si>
   <si>
     <t>PENSION CAMIONETA</t>
+  </si>
+  <si>
+    <t>SALCHICHAS Y JAMONES-POLLO-ROASBEEF-CHISTORRA-QUESOS-CHORIZO</t>
+  </si>
+  <si>
+    <t>POLLO-SAL</t>
+  </si>
+  <si>
+    <t>ARABE-PASTOR-MAIZ-MOLE-POLLO-TOSTADAS</t>
+  </si>
+  <si>
+    <t>NOMINA # 25</t>
+  </si>
+  <si>
+    <t>NOMINA  # 25</t>
+  </si>
+  <si>
+    <t>CHORIZO-QUESOS-SALSAS-</t>
+  </si>
+  <si>
+    <t>SALCHICHAS-POLLO-QUESOS-LONGANIZA</t>
   </si>
 </sst>
 </file>
@@ -5084,6 +5105,9 @@
     </xf>
     <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5257,9 +5281,6 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8219,23 +8240,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="510"/>
-      <c r="C1" s="512" t="s">
+      <c r="B1" s="511"/>
+      <c r="C1" s="513" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
-      <c r="L1" s="513"/>
-      <c r="M1" s="513"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
+      <c r="L1" s="514"/>
+      <c r="M1" s="514"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="511"/>
+      <c r="B2" s="512"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -8245,24 +8266,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="514" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="515"/>
+      <c r="B3" s="515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="516" t="s">
+      <c r="H3" s="517" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="516"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="508" t="s">
+      <c r="P3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="518" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8277,14 +8298,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="520" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="521"/>
+      <c r="H4" s="522" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="523"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -8294,11 +8315,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="509"/>
+      <c r="P4" s="510"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="518"/>
+      <c r="R4" s="519"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -10133,11 +10154,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="528">
+      <c r="M49" s="529">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="528">
+      <c r="N49" s="529">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -10145,7 +10166,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="540">
+      <c r="Q49" s="541">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -10166,10 +10187,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="529"/>
-      <c r="N50" s="529"/>
+      <c r="M50" s="530"/>
+      <c r="N50" s="530"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="541"/>
+      <c r="Q50" s="542"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -10224,11 +10245,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="506">
+      <c r="M53" s="507">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="507"/>
+      <c r="N53" s="508"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -10653,26 +10674,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="536" t="s">
+      <c r="H77" s="537" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="537"/>
+      <c r="I77" s="538"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="538">
+      <c r="K77" s="539">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="539"/>
+      <c r="L77" s="540"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="530" t="s">
+      <c r="D78" s="531" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="530"/>
+      <c r="E78" s="531"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -10681,22 +10702,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="531" t="s">
+      <c r="D79" s="532" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="531"/>
+      <c r="E79" s="532"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="532" t="s">
+      <c r="I79" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="533"/>
-      <c r="K79" s="534">
+      <c r="J79" s="534"/>
+      <c r="K79" s="535">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="534"/>
+      <c r="L79" s="535"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -10737,11 +10758,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="535">
+      <c r="K81" s="536">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="534"/>
+      <c r="L81" s="535"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -10758,22 +10779,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="523" t="s">
+      <c r="D83" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="524"/>
+      <c r="E83" s="525"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="525" t="s">
+      <c r="I83" s="526" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="526"/>
-      <c r="K83" s="527">
+      <c r="J83" s="527"/>
+      <c r="K83" s="528">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="527"/>
+      <c r="L83" s="528"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -12111,10 +12132,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="545" t="s">
+      <c r="I37" s="546" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="546"/>
+      <c r="J37" s="547"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -12133,8 +12154,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="547"/>
-      <c r="J38" s="548"/>
+      <c r="I38" s="548"/>
+      <c r="J38" s="549"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -12153,8 +12174,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="549"/>
-      <c r="J39" s="550"/>
+      <c r="I39" s="550"/>
+      <c r="J39" s="551"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -12712,10 +12733,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="551" t="s">
+      <c r="I67" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="552"/>
+      <c r="J67" s="553"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -12737,11 +12758,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="555" t="s">
+      <c r="G68" s="556" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="560"/>
-      <c r="J68" s="561"/>
+      <c r="I68" s="561"/>
+      <c r="J68" s="562"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -12752,7 +12773,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="556"/>
+      <c r="G69" s="557"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -13313,8 +13334,8 @@
   </sheetPr>
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13340,23 +13361,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="510"/>
-      <c r="C1" s="512" t="s">
+      <c r="B1" s="511"/>
+      <c r="C1" s="513" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
-      <c r="L1" s="513"/>
-      <c r="M1" s="513"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
+      <c r="L1" s="514"/>
+      <c r="M1" s="514"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="511"/>
+      <c r="B2" s="512"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -13366,27 +13387,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="514" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="515"/>
+      <c r="B3" s="515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="516" t="s">
+      <c r="H3" s="517" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="516"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="508" t="s">
+      <c r="P3" s="509" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="562" t="s">
+      <c r="R3" s="563" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13401,14 +13422,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="520" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="521"/>
+      <c r="H4" s="522" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="523"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -13418,11 +13439,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="509"/>
+      <c r="P4" s="510"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="563"/>
+      <c r="R4" s="564"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -14316,7 +14337,7 @@
       <c r="J22" s="40">
         <v>45097</v>
       </c>
-      <c r="K22" s="564" t="s">
+      <c r="K22" s="506" t="s">
         <v>684</v>
       </c>
       <c r="L22" s="62">
@@ -14349,29 +14370,37 @@
       <c r="B23" s="32">
         <v>45098</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="33">
+        <v>15691</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>685</v>
+      </c>
       <c r="E23" s="35">
         <v>45098</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="36">
+        <v>91161</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>45098</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="39">
+        <v>3043</v>
+      </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
       <c r="L23" s="55"/>
       <c r="M23" s="42">
-        <v>0</v>
+        <v>33983</v>
       </c>
       <c r="N23" s="43">
-        <v>0</v>
+        <v>38444</v>
       </c>
       <c r="P23" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91161</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="1"/>
@@ -14389,29 +14418,37 @@
       <c r="B24" s="32">
         <v>45099</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="33">
+        <v>4153.5</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>686</v>
+      </c>
       <c r="E24" s="35">
         <v>45099</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="36">
+        <v>128071</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38">
         <v>45099</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="39">
+        <v>4621</v>
+      </c>
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="67"/>
       <c r="M24" s="42">
-        <v>0</v>
+        <v>75551.5</v>
       </c>
       <c r="N24" s="43">
-        <v>0</v>
+        <v>43745</v>
       </c>
       <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>128071</v>
       </c>
       <c r="Q24" s="45">
         <f t="shared" si="1"/>
@@ -14429,29 +14466,37 @@
       <c r="B25" s="32">
         <v>45100</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="33">
+        <v>9316</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>431</v>
+      </c>
       <c r="E25" s="35">
         <v>45100</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36">
+        <v>114195</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="38">
         <v>45100</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="39">
+        <v>4273</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
       <c r="L25" s="68"/>
       <c r="M25" s="42">
-        <v>0</v>
+        <v>48895</v>
       </c>
       <c r="N25" s="43">
-        <v>0</v>
+        <v>51711</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114195</v>
       </c>
       <c r="Q25" s="45">
         <f t="shared" si="1"/>
@@ -14469,32 +14514,46 @@
       <c r="B26" s="32">
         <v>45101</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="33">
+        <v>12864</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>687</v>
+      </c>
       <c r="E26" s="35">
         <v>45101</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="36">
+        <v>160667</v>
+      </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38">
         <v>45101</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
+      <c r="I26" s="39">
+        <v>4168</v>
+      </c>
+      <c r="J26" s="40">
+        <v>45101</v>
+      </c>
+      <c r="K26" s="70" t="s">
+        <v>688</v>
+      </c>
+      <c r="L26" s="71">
+        <v>27068</v>
+      </c>
       <c r="M26" s="42">
-        <v>0</v>
+        <v>57330</v>
       </c>
       <c r="N26" s="43">
-        <v>0</v>
+        <v>59237</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160667</v>
       </c>
       <c r="Q26" s="45">
         <f t="shared" si="1"/>
@@ -14514,29 +14573,37 @@
       <c r="B27" s="32">
         <v>45102</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="33">
+        <v>15442</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>690</v>
+      </c>
       <c r="E27" s="35">
         <v>45102</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="36">
+        <v>122060</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="38">
         <v>45102</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="39">
+        <v>0</v>
+      </c>
       <c r="J27" s="337"/>
       <c r="K27" s="345"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
-        <v>0</v>
+        <v>55293</v>
       </c>
       <c r="N27" s="43">
-        <v>0</v>
+        <v>51325</v>
       </c>
       <c r="P27" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>122060</v>
       </c>
       <c r="Q27" s="45">
         <f t="shared" si="1"/>
@@ -14554,29 +14621,37 @@
       <c r="B28" s="32">
         <v>45103</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33">
+        <v>17809.5</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>691</v>
+      </c>
       <c r="E28" s="35">
         <v>45103</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36">
+        <v>114386</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38">
         <v>45103</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="39">
+        <v>1060</v>
+      </c>
       <c r="J28" s="338"/>
       <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
-        <v>0</v>
+        <v>51884.5</v>
       </c>
       <c r="N28" s="43">
-        <v>0</v>
+        <v>43632</v>
       </c>
       <c r="P28" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114386</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="1"/>
@@ -15029,9 +15104,15 @@
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="338"/>
-      <c r="K41" s="347"/>
-      <c r="L41" s="49"/>
+      <c r="J41" s="338">
+        <v>45081</v>
+      </c>
+      <c r="K41" s="347" t="s">
+        <v>689</v>
+      </c>
+      <c r="L41" s="49">
+        <v>27622</v>
+      </c>
       <c r="M41" s="42">
         <v>0</v>
       </c>
@@ -15303,19 +15384,19 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="528">
+      <c r="M49" s="529">
         <f>SUM(M5:M40)</f>
-        <v>1056373.3800000001</v>
-      </c>
-      <c r="N49" s="528">
+        <v>1379310.3800000001</v>
+      </c>
+      <c r="N49" s="529">
         <f>SUM(N5:N40)</f>
-        <v>1014972</v>
+        <v>1303066</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>2531504.3800000004</v>
-      </c>
-      <c r="Q49" s="540">
+        <v>3262044.3800000004</v>
+      </c>
+      <c r="Q49" s="541">
         <f>SUM(Q5:Q40)</f>
         <v>-425.61999999999534</v>
       </c>
@@ -15336,10 +15417,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="529"/>
-      <c r="N50" s="529"/>
+      <c r="M50" s="530"/>
+      <c r="N50" s="530"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="541"/>
+      <c r="Q50" s="542"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -15394,11 +15475,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="506">
+      <c r="M53" s="507">
         <f>M49+N49</f>
-        <v>2071345.3800000001</v>
-      </c>
-      <c r="N53" s="507"/>
+        <v>2682376.38</v>
+      </c>
+      <c r="N53" s="508"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -15781,7 +15862,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>376294</v>
+        <v>451570</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -15789,7 +15870,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>2531930</v>
+        <v>3262470</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -15797,7 +15878,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>59809</v>
+        <v>76974</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -15805,7 +15886,7 @@
       </c>
       <c r="L75" s="149">
         <f>SUM(L5:L73)-L26</f>
-        <v>168636.5</v>
+        <v>196258.5</v>
       </c>
       <c r="M75" s="150"/>
       <c r="N75" s="150"/>
@@ -15823,51 +15904,51 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="536" t="s">
+      <c r="H77" s="537" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="537"/>
+      <c r="I77" s="538"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="538">
+      <c r="K77" s="539">
         <f>I75+L75</f>
-        <v>228445.5</v>
-      </c>
-      <c r="L77" s="539"/>
+        <v>273232.5</v>
+      </c>
+      <c r="L77" s="540"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="530" t="s">
+      <c r="D78" s="531" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="530"/>
+      <c r="E78" s="531"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>1927190.5</v>
+        <v>2537667.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="531" t="s">
+      <c r="D79" s="532" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="531"/>
+      <c r="E79" s="532"/>
       <c r="F79" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>0</v>
       </c>
-      <c r="I79" s="532" t="s">
+      <c r="I79" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="533"/>
-      <c r="K79" s="534">
+      <c r="J79" s="534"/>
+      <c r="K79" s="535">
         <f>F81+F82+F83</f>
-        <v>1927190.5</v>
-      </c>
-      <c r="L79" s="534"/>
+        <v>5669054.54</v>
+      </c>
+      <c r="L79" s="535"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -15902,18 +15983,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>1927190.5</v>
+        <v>2537667.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="535">
+      <c r="K81" s="536">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L81" s="534"/>
+      <c r="L81" s="535"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -15927,23 +16008,25 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="172"/>
-      <c r="D83" s="523" t="s">
+      <c r="C83" s="172">
+        <v>45107</v>
+      </c>
+      <c r="D83" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="524"/>
+      <c r="E83" s="525"/>
       <c r="F83" s="173">
-        <v>0</v>
-      </c>
-      <c r="I83" s="557" t="s">
+        <v>3131387.04</v>
+      </c>
+      <c r="I83" s="558" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="558"/>
-      <c r="K83" s="559">
+      <c r="J83" s="559"/>
+      <c r="K83" s="560">
         <f>K79+K81</f>
-        <v>-1970777.0299999998</v>
-      </c>
-      <c r="L83" s="559"/>
+        <v>1771087.0100000002</v>
+      </c>
+      <c r="L83" s="560"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -16923,10 +17006,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="545" t="s">
+      <c r="I37" s="546" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="546"/>
+      <c r="J37" s="547"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -16945,8 +17028,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="547"/>
-      <c r="J38" s="548"/>
+      <c r="I38" s="548"/>
+      <c r="J38" s="549"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -16965,8 +17048,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="549"/>
-      <c r="J39" s="550"/>
+      <c r="I39" s="550"/>
+      <c r="J39" s="551"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -17524,10 +17607,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="551" t="s">
+      <c r="I67" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="552"/>
+      <c r="J67" s="553"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>0</v>
@@ -17549,11 +17632,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="555" t="s">
+      <c r="G68" s="556" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="560"/>
-      <c r="J68" s="561"/>
+      <c r="I68" s="561"/>
+      <c r="J68" s="562"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -17564,7 +17647,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="556"/>
+      <c r="G69" s="557"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -19498,10 +19581,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="542"/>
-      <c r="J36" s="543"/>
-      <c r="K36" s="543"/>
-      <c r="L36" s="544"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="544"/>
+      <c r="K36" s="544"/>
+      <c r="L36" s="545"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19528,10 +19611,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="542"/>
-      <c r="J37" s="543"/>
-      <c r="K37" s="543"/>
-      <c r="L37" s="544"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="544"/>
+      <c r="K37" s="544"/>
+      <c r="L37" s="545"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19588,10 +19671,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="545" t="s">
+      <c r="I40" s="546" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="546"/>
+      <c r="J40" s="547"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19610,8 +19693,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="547"/>
-      <c r="J41" s="548"/>
+      <c r="I41" s="548"/>
+      <c r="J41" s="549"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19630,8 +19713,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="549"/>
-      <c r="J42" s="550"/>
+      <c r="I42" s="550"/>
+      <c r="J42" s="551"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -20135,10 +20218,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="551" t="s">
+      <c r="I67" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="552"/>
+      <c r="J67" s="553"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -20158,11 +20241,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="555" t="s">
+      <c r="G68" s="556" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="553"/>
-      <c r="J68" s="554"/>
+      <c r="I68" s="554"/>
+      <c r="J68" s="555"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -20173,7 +20256,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="556"/>
+      <c r="G69" s="557"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -20804,23 +20887,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="510"/>
-      <c r="C1" s="512" t="s">
+      <c r="B1" s="511"/>
+      <c r="C1" s="513" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
-      <c r="L1" s="513"/>
-      <c r="M1" s="513"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
+      <c r="L1" s="514"/>
+      <c r="M1" s="514"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="511"/>
+      <c r="B2" s="512"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20830,24 +20913,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="514" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="515"/>
+      <c r="B3" s="515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="516" t="s">
+      <c r="H3" s="517" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="516"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="508" t="s">
+      <c r="P3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="517" t="s">
+      <c r="R3" s="518" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20862,14 +20945,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="520" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="521"/>
+      <c r="H4" s="522" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="523"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20879,11 +20962,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="509"/>
+      <c r="P4" s="510"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="518"/>
+      <c r="R4" s="519"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -22859,11 +22942,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="528">
+      <c r="M49" s="529">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="528">
+      <c r="N49" s="529">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -22871,7 +22954,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="540">
+      <c r="Q49" s="541">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -22904,10 +22987,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="529"/>
-      <c r="N50" s="529"/>
+      <c r="M50" s="530"/>
+      <c r="N50" s="530"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="541"/>
+      <c r="Q50" s="542"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -22998,11 +23081,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="506">
+      <c r="M53" s="507">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="507"/>
+      <c r="N53" s="508"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23561,26 +23644,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="536" t="s">
+      <c r="H77" s="537" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="537"/>
+      <c r="I77" s="538"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="538">
+      <c r="K77" s="539">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="539"/>
+      <c r="L77" s="540"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="530" t="s">
+      <c r="D78" s="531" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="530"/>
+      <c r="E78" s="531"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -23589,22 +23672,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="531" t="s">
+      <c r="D79" s="532" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="531"/>
+      <c r="E79" s="532"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="532" t="s">
+      <c r="I79" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="533"/>
-      <c r="K79" s="534">
+      <c r="J79" s="534"/>
+      <c r="K79" s="535">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="534"/>
+      <c r="L79" s="535"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -23645,11 +23728,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="535">
+      <c r="K81" s="536">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="534"/>
+      <c r="L81" s="535"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -23666,22 +23749,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="523" t="s">
+      <c r="D83" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="524"/>
+      <c r="E83" s="525"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="557" t="s">
+      <c r="I83" s="558" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="558"/>
-      <c r="K83" s="559">
+      <c r="J83" s="559"/>
+      <c r="K83" s="560">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="559"/>
+      <c r="L83" s="560"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -25261,10 +25344,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="542"/>
-      <c r="J36" s="543"/>
-      <c r="K36" s="543"/>
-      <c r="L36" s="544"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="544"/>
+      <c r="K36" s="544"/>
+      <c r="L36" s="545"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -25291,10 +25374,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="542"/>
-      <c r="J37" s="543"/>
-      <c r="K37" s="543"/>
-      <c r="L37" s="544"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="544"/>
+      <c r="K37" s="544"/>
+      <c r="L37" s="545"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -25361,10 +25444,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="545" t="s">
+      <c r="I40" s="546" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="546"/>
+      <c r="J40" s="547"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -25383,8 +25466,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="547"/>
-      <c r="J41" s="548"/>
+      <c r="I41" s="548"/>
+      <c r="J41" s="549"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -25403,8 +25486,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="549"/>
-      <c r="J42" s="550"/>
+      <c r="I42" s="550"/>
+      <c r="J42" s="551"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -25908,10 +25991,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="551" t="s">
+      <c r="I67" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="552"/>
+      <c r="J67" s="553"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -25931,11 +26014,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="555" t="s">
+      <c r="G68" s="556" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="560"/>
-      <c r="J68" s="561"/>
+      <c r="I68" s="561"/>
+      <c r="J68" s="562"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -25946,7 +26029,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="556"/>
+      <c r="G69" s="557"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -26561,23 +26644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="510"/>
-      <c r="C1" s="512" t="s">
+      <c r="B1" s="511"/>
+      <c r="C1" s="513" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
-      <c r="L1" s="513"/>
-      <c r="M1" s="513"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
+      <c r="L1" s="514"/>
+      <c r="M1" s="514"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="511"/>
+      <c r="B2" s="512"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -26587,24 +26670,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="514" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="515"/>
+      <c r="B3" s="515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="516" t="s">
+      <c r="H3" s="517" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="516"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="508" t="s">
+      <c r="P3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="562" t="s">
+      <c r="R3" s="563" t="s">
         <v>3</v>
       </c>
     </row>
@@ -26619,14 +26702,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="520" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="521"/>
+      <c r="H4" s="522" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="523"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -26636,11 +26719,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="509"/>
+      <c r="P4" s="510"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="563"/>
+      <c r="R4" s="564"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -28621,11 +28704,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="528">
+      <c r="M49" s="529">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="528">
+      <c r="N49" s="529">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -28633,7 +28716,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="540">
+      <c r="Q49" s="541">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -28666,10 +28749,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="529"/>
-      <c r="N50" s="529"/>
+      <c r="M50" s="530"/>
+      <c r="N50" s="530"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="541"/>
+      <c r="Q50" s="542"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -28760,11 +28843,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="506">
+      <c r="M53" s="507">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="507"/>
+      <c r="N53" s="508"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29243,26 +29326,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="536" t="s">
+      <c r="H77" s="537" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="537"/>
+      <c r="I77" s="538"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="538">
+      <c r="K77" s="539">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="539"/>
+      <c r="L77" s="540"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="530" t="s">
+      <c r="D78" s="531" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="530"/>
+      <c r="E78" s="531"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -29271,22 +29354,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="531" t="s">
+      <c r="D79" s="532" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="531"/>
+      <c r="E79" s="532"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="532" t="s">
+      <c r="I79" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="533"/>
-      <c r="K79" s="534">
+      <c r="J79" s="534"/>
+      <c r="K79" s="535">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="534"/>
+      <c r="L79" s="535"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -29327,11 +29410,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="535">
+      <c r="K81" s="536">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="534"/>
+      <c r="L81" s="535"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -29348,22 +29431,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="523" t="s">
+      <c r="D83" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="524"/>
+      <c r="E83" s="525"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="525" t="s">
+      <c r="I83" s="526" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="526"/>
-      <c r="K83" s="527">
+      <c r="J83" s="527"/>
+      <c r="K83" s="528">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="527"/>
+      <c r="L83" s="528"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -30834,10 +30917,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="542"/>
-      <c r="J36" s="543"/>
-      <c r="K36" s="543"/>
-      <c r="L36" s="544"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="544"/>
+      <c r="K36" s="544"/>
+      <c r="L36" s="545"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -30854,10 +30937,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="542"/>
-      <c r="J37" s="543"/>
-      <c r="K37" s="543"/>
-      <c r="L37" s="544"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="544"/>
+      <c r="K37" s="544"/>
+      <c r="L37" s="545"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -30914,10 +30997,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="545" t="s">
+      <c r="I40" s="546" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="546"/>
+      <c r="J40" s="547"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -30936,8 +31019,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="547"/>
-      <c r="J41" s="548"/>
+      <c r="I41" s="548"/>
+      <c r="J41" s="549"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -30956,8 +31039,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="549"/>
-      <c r="J42" s="550"/>
+      <c r="I42" s="550"/>
+      <c r="J42" s="551"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -31461,10 +31544,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="551" t="s">
+      <c r="I67" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="552"/>
+      <c r="J67" s="553"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -31484,11 +31567,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="555" t="s">
+      <c r="G68" s="556" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="560"/>
-      <c r="J68" s="561"/>
+      <c r="I68" s="561"/>
+      <c r="J68" s="562"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -31499,7 +31582,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="556"/>
+      <c r="G69" s="557"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -32105,23 +32188,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="510"/>
-      <c r="C1" s="512" t="s">
+      <c r="B1" s="511"/>
+      <c r="C1" s="513" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
-      <c r="L1" s="513"/>
-      <c r="M1" s="513"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
+      <c r="L1" s="514"/>
+      <c r="M1" s="514"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="511"/>
+      <c r="B2" s="512"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -32131,24 +32214,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="514" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="515"/>
+      <c r="B3" s="515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="516" t="s">
+      <c r="H3" s="517" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="516"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="508" t="s">
+      <c r="P3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="562" t="s">
+      <c r="R3" s="563" t="s">
         <v>3</v>
       </c>
     </row>
@@ -32163,14 +32246,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="520" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="521"/>
+      <c r="H4" s="522" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="523"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -32180,11 +32263,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="509"/>
+      <c r="P4" s="510"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="563"/>
+      <c r="R4" s="564"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -34205,11 +34288,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="528">
+      <c r="M49" s="529">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="528">
+      <c r="N49" s="529">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -34217,7 +34300,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="540">
+      <c r="Q49" s="541">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -34244,10 +34327,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="529"/>
-      <c r="N50" s="529"/>
+      <c r="M50" s="530"/>
+      <c r="N50" s="530"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="541"/>
+      <c r="Q50" s="542"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -34321,11 +34404,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="506">
+      <c r="M53" s="507">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="507"/>
+      <c r="N53" s="508"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -34954,26 +35037,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="536" t="s">
+      <c r="H79" s="537" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="537"/>
+      <c r="I79" s="538"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="538">
+      <c r="K79" s="539">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="539"/>
+      <c r="L79" s="540"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="530" t="s">
+      <c r="D80" s="531" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="530"/>
+      <c r="E80" s="531"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -34982,22 +35065,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="531" t="s">
+      <c r="D81" s="532" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="531"/>
+      <c r="E81" s="532"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="532" t="s">
+      <c r="I81" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="533"/>
-      <c r="K81" s="534">
+      <c r="J81" s="534"/>
+      <c r="K81" s="535">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="534"/>
+      <c r="L81" s="535"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -35038,11 +35121,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="535">
+      <c r="K83" s="536">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="534"/>
+      <c r="L83" s="535"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -35059,22 +35142,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="523" t="s">
+      <c r="D85" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="524"/>
+      <c r="E85" s="525"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="525" t="s">
+      <c r="I85" s="526" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="526"/>
-      <c r="K85" s="527">
+      <c r="J85" s="527"/>
+      <c r="K85" s="528">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="527"/>
+      <c r="L85" s="528"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -36563,10 +36646,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="542"/>
-      <c r="J36" s="543"/>
-      <c r="K36" s="543"/>
-      <c r="L36" s="544"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="544"/>
+      <c r="K36" s="544"/>
+      <c r="L36" s="545"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -36589,10 +36672,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="542"/>
-      <c r="J37" s="543"/>
-      <c r="K37" s="543"/>
-      <c r="L37" s="544"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="544"/>
+      <c r="K37" s="544"/>
+      <c r="L37" s="545"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -36667,10 +36750,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="545" t="s">
+      <c r="I40" s="546" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="546"/>
+      <c r="J40" s="547"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -36695,8 +36778,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="547"/>
-      <c r="J41" s="548"/>
+      <c r="I41" s="548"/>
+      <c r="J41" s="549"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -36721,8 +36804,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="549"/>
-      <c r="J42" s="550"/>
+      <c r="I42" s="550"/>
+      <c r="J42" s="551"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -37244,10 +37327,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="551" t="s">
+      <c r="I67" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="552"/>
+      <c r="J67" s="553"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -37267,11 +37350,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="555" t="s">
+      <c r="G68" s="556" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="560"/>
-      <c r="J68" s="561"/>
+      <c r="I68" s="561"/>
+      <c r="J68" s="562"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -37282,7 +37365,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="556"/>
+      <c r="G69" s="557"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -37898,23 +37981,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="510"/>
-      <c r="C1" s="512" t="s">
+      <c r="B1" s="511"/>
+      <c r="C1" s="513" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
-      <c r="L1" s="513"/>
-      <c r="M1" s="513"/>
+      <c r="D1" s="514"/>
+      <c r="E1" s="514"/>
+      <c r="F1" s="514"/>
+      <c r="G1" s="514"/>
+      <c r="H1" s="514"/>
+      <c r="I1" s="514"/>
+      <c r="J1" s="514"/>
+      <c r="K1" s="514"/>
+      <c r="L1" s="514"/>
+      <c r="M1" s="514"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="511"/>
+      <c r="B2" s="512"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -37924,27 +38007,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="514" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="515"/>
+      <c r="B3" s="515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="516"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="516" t="s">
+      <c r="H3" s="517" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="516"/>
+      <c r="I3" s="517"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="508" t="s">
+      <c r="P3" s="509" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="562" t="s">
+      <c r="R3" s="563" t="s">
         <v>3</v>
       </c>
     </row>
@@ -37959,14 +38042,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="519" t="s">
+      <c r="E4" s="520" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="520"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="521"/>
+      <c r="H4" s="522" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="523"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -37976,11 +38059,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="509"/>
+      <c r="P4" s="510"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="563"/>
+      <c r="R4" s="564"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -39983,11 +40066,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="528">
+      <c r="M49" s="529">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="528">
+      <c r="N49" s="529">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -39995,7 +40078,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="540">
+      <c r="Q49" s="541">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -40028,10 +40111,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="529"/>
-      <c r="N50" s="529"/>
+      <c r="M50" s="530"/>
+      <c r="N50" s="530"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="541"/>
+      <c r="Q50" s="542"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -40110,11 +40193,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="506">
+      <c r="M53" s="507">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="507"/>
+      <c r="N53" s="508"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -40593,26 +40676,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="536" t="s">
+      <c r="H77" s="537" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="537"/>
+      <c r="I77" s="538"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="538">
+      <c r="K77" s="539">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="539"/>
+      <c r="L77" s="540"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="530" t="s">
+      <c r="D78" s="531" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="530"/>
+      <c r="E78" s="531"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -40621,22 +40704,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="531" t="s">
+      <c r="D79" s="532" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="531"/>
+      <c r="E79" s="532"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="532" t="s">
+      <c r="I79" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="533"/>
-      <c r="K79" s="534">
+      <c r="J79" s="534"/>
+      <c r="K79" s="535">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="534"/>
+      <c r="L79" s="535"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -40677,11 +40760,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="535">
+      <c r="K81" s="536">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="534"/>
+      <c r="L81" s="535"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -40698,22 +40781,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="523" t="s">
+      <c r="D83" s="524" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="524"/>
+      <c r="E83" s="525"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="557" t="s">
+      <c r="I83" s="558" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="558"/>
-      <c r="K83" s="559">
+      <c r="J83" s="559"/>
+      <c r="K83" s="560">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="559"/>
+      <c r="L83" s="560"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="693">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2532,6 +2532,9 @@
   </si>
   <si>
     <t>SALCHICHAS-POLLO-QUESOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>SALCHICHA-JAMON-POLLO-QUESOS-PÁN BIMBO</t>
   </si>
 </sst>
 </file>
@@ -5108,39 +5111,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5215,6 +5185,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8240,23 +8243,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -8266,24 +8269,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="542" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="509" t="s">
+      <c r="P3" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="518" t="s">
+      <c r="R3" s="507" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8298,14 +8301,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="520" t="s">
+      <c r="E4" s="509" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="521"/>
-      <c r="H4" s="522" t="s">
+      <c r="F4" s="510"/>
+      <c r="H4" s="511" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="523"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -8315,11 +8318,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="510"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="519"/>
+      <c r="R4" s="508"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -10154,11 +10157,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="529">
+      <c r="M49" s="518">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="529">
+      <c r="N49" s="518">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -10166,7 +10169,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="541">
+      <c r="Q49" s="530">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -10187,10 +10190,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="530"/>
-      <c r="N50" s="530"/>
+      <c r="M50" s="519"/>
+      <c r="N50" s="519"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="542"/>
+      <c r="Q50" s="531"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -10245,11 +10248,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="507">
+      <c r="M53" s="532">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="508"/>
+      <c r="N53" s="533"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -10674,26 +10677,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="537" t="s">
+      <c r="H77" s="526" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="538"/>
+      <c r="I77" s="527"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="539">
+      <c r="K77" s="528">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="540"/>
+      <c r="L77" s="529"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="531" t="s">
+      <c r="D78" s="520" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="531"/>
+      <c r="E78" s="520"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -10702,22 +10705,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="532" t="s">
+      <c r="D79" s="521" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="532"/>
+      <c r="E79" s="521"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="533" t="s">
+      <c r="I79" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="534"/>
-      <c r="K79" s="535">
+      <c r="J79" s="523"/>
+      <c r="K79" s="524">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="535"/>
+      <c r="L79" s="524"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -10758,11 +10761,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="536">
+      <c r="K81" s="525">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="535"/>
+      <c r="L81" s="524"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -10779,22 +10782,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="524" t="s">
+      <c r="D83" s="513" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="525"/>
+      <c r="E83" s="514"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="526" t="s">
+      <c r="I83" s="515" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="527"/>
-      <c r="K83" s="528">
+      <c r="J83" s="516"/>
+      <c r="K83" s="517">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="528"/>
+      <c r="L83" s="517"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -10941,6 +10944,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10957,12 +10966,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13334,8 +13337,8 @@
   </sheetPr>
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13361,23 +13364,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -13387,21 +13390,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="542" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="509" t="s">
+      <c r="P3" s="534" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -13422,14 +13425,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="520" t="s">
+      <c r="E4" s="509" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="521"/>
-      <c r="H4" s="522" t="s">
+      <c r="F4" s="510"/>
+      <c r="H4" s="511" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="523"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -13439,7 +13442,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="510"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -14669,33 +14672,41 @@
       <c r="B29" s="32">
         <v>45104</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="76"/>
+      <c r="C29" s="33">
+        <v>23762</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>692</v>
+      </c>
       <c r="E29" s="35">
         <v>45104</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="36">
+        <v>156188</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="38">
         <v>45104</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="39">
+        <v>3904</v>
+      </c>
       <c r="J29" s="339"/>
       <c r="K29" s="346"/>
       <c r="L29" s="68"/>
       <c r="M29" s="42">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="N29" s="43">
-        <v>0</v>
+        <v>62525</v>
       </c>
       <c r="P29" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156191</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29" s="46">
         <v>0</v>
@@ -15384,21 +15395,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="343"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="529">
+      <c r="M49" s="518">
         <f>SUM(M5:M40)</f>
-        <v>1379310.3800000001</v>
-      </c>
-      <c r="N49" s="529">
+        <v>1445310.3800000001</v>
+      </c>
+      <c r="N49" s="518">
         <f>SUM(N5:N40)</f>
-        <v>1303066</v>
+        <v>1365591</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3262044.3800000004</v>
-      </c>
-      <c r="Q49" s="541">
+        <v>3418235.3800000004</v>
+      </c>
+      <c r="Q49" s="530">
         <f>SUM(Q5:Q40)</f>
-        <v>-425.61999999999534</v>
+        <v>-422.61999999999534</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -15417,10 +15428,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="530"/>
-      <c r="N50" s="530"/>
+      <c r="M50" s="519"/>
+      <c r="N50" s="519"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="542"/>
+      <c r="Q50" s="531"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -15475,11 +15486,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="507">
+      <c r="M53" s="532">
         <f>M49+N49</f>
-        <v>2682376.38</v>
-      </c>
-      <c r="N53" s="508"/>
+        <v>2810901.38</v>
+      </c>
+      <c r="N53" s="533"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -15862,7 +15873,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>451570</v>
+        <v>475332</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -15870,7 +15881,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>3262470</v>
+        <v>3418658</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -15878,7 +15889,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>76974</v>
+        <v>80878</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -15904,51 +15915,51 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="537" t="s">
+      <c r="H77" s="526" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="538"/>
+      <c r="I77" s="527"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="539">
+      <c r="K77" s="528">
         <f>I75+L75</f>
-        <v>273232.5</v>
-      </c>
-      <c r="L77" s="540"/>
+        <v>277136.5</v>
+      </c>
+      <c r="L77" s="529"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="531" t="s">
+      <c r="D78" s="520" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="531"/>
+      <c r="E78" s="520"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>2537667.5</v>
+        <v>2666189.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="532" t="s">
+      <c r="D79" s="521" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="532"/>
+      <c r="E79" s="521"/>
       <c r="F79" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>0</v>
       </c>
-      <c r="I79" s="533" t="s">
+      <c r="I79" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="534"/>
-      <c r="K79" s="535">
+      <c r="J79" s="523"/>
+      <c r="K79" s="524">
         <f>F81+F82+F83</f>
-        <v>5669054.54</v>
-      </c>
-      <c r="L79" s="535"/>
+        <v>5797576.54</v>
+      </c>
+      <c r="L79" s="524"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -15983,18 +15994,18 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>2537667.5</v>
+        <v>2666189.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="536">
+      <c r="K81" s="525">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L81" s="535"/>
+      <c r="L81" s="524"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -16011,10 +16022,10 @@
       <c r="C83" s="172">
         <v>45107</v>
       </c>
-      <c r="D83" s="524" t="s">
+      <c r="D83" s="513" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="525"/>
+      <c r="E83" s="514"/>
       <c r="F83" s="173">
         <v>3131387.04</v>
       </c>
@@ -16024,7 +16035,7 @@
       <c r="J83" s="559"/>
       <c r="K83" s="560">
         <f>K79+K81</f>
-        <v>1771087.0100000002</v>
+        <v>1899609.0100000002</v>
       </c>
       <c r="L83" s="560"/>
     </row>
@@ -16171,12 +16182,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16193,6 +16198,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20887,23 +20898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20913,24 +20924,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="542" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="509" t="s">
+      <c r="P3" s="534" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="518" t="s">
+      <c r="R3" s="507" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20945,14 +20956,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="520" t="s">
+      <c r="E4" s="509" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="521"/>
-      <c r="H4" s="522" t="s">
+      <c r="F4" s="510"/>
+      <c r="H4" s="511" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="523"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20962,11 +20973,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="510"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="519"/>
+      <c r="R4" s="508"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -22942,11 +22953,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="529">
+      <c r="M49" s="518">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="529">
+      <c r="N49" s="518">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -22954,7 +22965,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="541">
+      <c r="Q49" s="530">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -22987,10 +22998,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="530"/>
-      <c r="N50" s="530"/>
+      <c r="M50" s="519"/>
+      <c r="N50" s="519"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="542"/>
+      <c r="Q50" s="531"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -23081,11 +23092,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="507">
+      <c r="M53" s="532">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="508"/>
+      <c r="N53" s="533"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23644,26 +23655,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="537" t="s">
+      <c r="H77" s="526" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="538"/>
+      <c r="I77" s="527"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="539">
+      <c r="K77" s="528">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="540"/>
+      <c r="L77" s="529"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="531" t="s">
+      <c r="D78" s="520" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="531"/>
+      <c r="E78" s="520"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -23672,22 +23683,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="532" t="s">
+      <c r="D79" s="521" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="532"/>
+      <c r="E79" s="521"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="533" t="s">
+      <c r="I79" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="534"/>
-      <c r="K79" s="535">
+      <c r="J79" s="523"/>
+      <c r="K79" s="524">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="535"/>
+      <c r="L79" s="524"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -23728,11 +23739,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="536">
+      <c r="K81" s="525">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="535"/>
+      <c r="L81" s="524"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -23749,10 +23760,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="524" t="s">
+      <c r="D83" s="513" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="525"/>
+      <c r="E83" s="514"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -23911,12 +23922,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23933,6 +23938,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26644,23 +26655,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -26670,21 +26681,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="542" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="509" t="s">
+      <c r="P3" s="534" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="563" t="s">
@@ -26702,14 +26713,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="520" t="s">
+      <c r="E4" s="509" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="521"/>
-      <c r="H4" s="522" t="s">
+      <c r="F4" s="510"/>
+      <c r="H4" s="511" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="523"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -26719,7 +26730,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="510"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -28704,11 +28715,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="529">
+      <c r="M49" s="518">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="529">
+      <c r="N49" s="518">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -28716,7 +28727,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="541">
+      <c r="Q49" s="530">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -28749,10 +28760,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="530"/>
-      <c r="N50" s="530"/>
+      <c r="M50" s="519"/>
+      <c r="N50" s="519"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="542"/>
+      <c r="Q50" s="531"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -28843,11 +28854,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="507">
+      <c r="M53" s="532">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="508"/>
+      <c r="N53" s="533"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29326,26 +29337,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="537" t="s">
+      <c r="H77" s="526" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="538"/>
+      <c r="I77" s="527"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="539">
+      <c r="K77" s="528">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="540"/>
+      <c r="L77" s="529"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="531" t="s">
+      <c r="D78" s="520" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="531"/>
+      <c r="E78" s="520"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -29354,22 +29365,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="532" t="s">
+      <c r="D79" s="521" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="532"/>
+      <c r="E79" s="521"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="533" t="s">
+      <c r="I79" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="534"/>
-      <c r="K79" s="535">
+      <c r="J79" s="523"/>
+      <c r="K79" s="524">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="535"/>
+      <c r="L79" s="524"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -29410,11 +29421,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="536">
+      <c r="K81" s="525">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="535"/>
+      <c r="L81" s="524"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -29431,22 +29442,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="524" t="s">
+      <c r="D83" s="513" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="525"/>
+      <c r="E83" s="514"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="526" t="s">
+      <c r="I83" s="515" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="527"/>
-      <c r="K83" s="528">
+      <c r="J83" s="516"/>
+      <c r="K83" s="517">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="528"/>
+      <c r="L83" s="517"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -29593,6 +29604,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29609,12 +29626,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32188,23 +32199,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -32214,21 +32225,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="542" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="509" t="s">
+      <c r="P3" s="534" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="563" t="s">
@@ -32246,14 +32257,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="520" t="s">
+      <c r="E4" s="509" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="521"/>
-      <c r="H4" s="522" t="s">
+      <c r="F4" s="510"/>
+      <c r="H4" s="511" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="523"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -32263,7 +32274,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="510"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -34288,11 +34299,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="529">
+      <c r="M49" s="518">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="529">
+      <c r="N49" s="518">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -34300,7 +34311,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="541">
+      <c r="Q49" s="530">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -34327,10 +34338,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="530"/>
-      <c r="N50" s="530"/>
+      <c r="M50" s="519"/>
+      <c r="N50" s="519"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="542"/>
+      <c r="Q50" s="531"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -34404,11 +34415,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="507">
+      <c r="M53" s="532">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="508"/>
+      <c r="N53" s="533"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35037,26 +35048,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="537" t="s">
+      <c r="H79" s="526" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="538"/>
+      <c r="I79" s="527"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="539">
+      <c r="K79" s="528">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="540"/>
+      <c r="L79" s="529"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="531" t="s">
+      <c r="D80" s="520" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="531"/>
+      <c r="E80" s="520"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -35065,22 +35076,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="532" t="s">
+      <c r="D81" s="521" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="532"/>
+      <c r="E81" s="521"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="533" t="s">
+      <c r="I81" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="534"/>
-      <c r="K81" s="535">
+      <c r="J81" s="523"/>
+      <c r="K81" s="524">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="535"/>
+      <c r="L81" s="524"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -35121,11 +35132,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="536">
+      <c r="K83" s="525">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="535"/>
+      <c r="L83" s="524"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -35142,22 +35153,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="524" t="s">
+      <c r="D85" s="513" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="525"/>
+      <c r="E85" s="514"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="526" t="s">
+      <c r="I85" s="515" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="527"/>
-      <c r="K85" s="528">
+      <c r="J85" s="516"/>
+      <c r="K85" s="517">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="528"/>
+      <c r="L85" s="517"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -35305,12 +35316,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35327,6 +35332,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37981,23 +37992,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="511"/>
-      <c r="C1" s="513" t="s">
+      <c r="B1" s="536"/>
+      <c r="C1" s="538" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
+      <c r="D1" s="539"/>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="G1" s="539"/>
+      <c r="H1" s="539"/>
+      <c r="I1" s="539"/>
+      <c r="J1" s="539"/>
+      <c r="K1" s="539"/>
+      <c r="L1" s="539"/>
+      <c r="M1" s="539"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="512"/>
+      <c r="B2" s="537"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38007,21 +38018,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="515" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="516"/>
+      <c r="B3" s="540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="541"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="517" t="s">
+      <c r="H3" s="542" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="517"/>
+      <c r="I3" s="542"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="509" t="s">
+      <c r="P3" s="534" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -38042,14 +38053,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="520" t="s">
+      <c r="E4" s="509" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="521"/>
-      <c r="H4" s="522" t="s">
+      <c r="F4" s="510"/>
+      <c r="H4" s="511" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="523"/>
+      <c r="I4" s="512"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38059,7 +38070,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="510"/>
+      <c r="P4" s="535"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -40066,11 +40077,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="529">
+      <c r="M49" s="518">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="529">
+      <c r="N49" s="518">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -40078,7 +40089,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="541">
+      <c r="Q49" s="530">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -40111,10 +40122,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="530"/>
-      <c r="N50" s="530"/>
+      <c r="M50" s="519"/>
+      <c r="N50" s="519"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="542"/>
+      <c r="Q50" s="531"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -40193,11 +40204,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="507">
+      <c r="M53" s="532">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="508"/>
+      <c r="N53" s="533"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -40676,26 +40687,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="537" t="s">
+      <c r="H77" s="526" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="538"/>
+      <c r="I77" s="527"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="539">
+      <c r="K77" s="528">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="540"/>
+      <c r="L77" s="529"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="531" t="s">
+      <c r="D78" s="520" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="531"/>
+      <c r="E78" s="520"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -40704,22 +40715,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="532" t="s">
+      <c r="D79" s="521" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="532"/>
+      <c r="E79" s="521"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="533" t="s">
+      <c r="I79" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="534"/>
-      <c r="K79" s="535">
+      <c r="J79" s="523"/>
+      <c r="K79" s="524">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="535"/>
+      <c r="L79" s="524"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -40760,11 +40771,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="536">
+      <c r="K81" s="525">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="535"/>
+      <c r="L81" s="524"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -40781,10 +40792,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="524" t="s">
+      <c r="D83" s="513" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="525"/>
+      <c r="E83" s="514"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -40944,6 +40955,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -40960,12 +40977,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="694">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2535,6 +2535,9 @@
   </si>
   <si>
     <t>SALCHICHA-JAMON-POLLO-QUESOS-PÁN BIMBO</t>
+  </si>
+  <si>
+    <t>PICAÑA-POLLO-PHILADELPHIA</t>
   </si>
 </sst>
 </file>
@@ -13337,8 +13340,8 @@
   </sheetPr>
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14720,29 +14723,38 @@
       <c r="B30" s="32">
         <v>45105</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="76"/>
+      <c r="C30" s="33">
+        <v>33938</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>693</v>
+      </c>
       <c r="E30" s="35">
         <v>45105</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="36">
+        <v>108765</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="38">
         <v>45105</v>
       </c>
-      <c r="I30" s="39"/>
+      <c r="I30" s="39">
+        <v>1775</v>
+      </c>
       <c r="J30" s="338"/>
       <c r="K30" s="65"/>
       <c r="L30" s="49"/>
       <c r="M30" s="42">
-        <v>0</v>
+        <f>29850+6613</f>
+        <v>36463</v>
       </c>
       <c r="N30" s="43">
-        <v>0</v>
+        <v>36589</v>
       </c>
       <c r="P30" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108765</v>
       </c>
       <c r="Q30" s="45">
         <f t="shared" si="1"/>
@@ -15104,7 +15116,7 @@
       <c r="B41" s="32">
         <v>45084</v>
       </c>
-      <c r="C41" s="93">
+      <c r="C41" s="455">
         <v>14567</v>
       </c>
       <c r="D41" s="470" t="s">
@@ -15116,7 +15128,7 @@
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
       <c r="J41" s="338">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="K41" s="347" t="s">
         <v>689</v>
@@ -15146,7 +15158,7 @@
       <c r="B42" s="32">
         <v>45084</v>
       </c>
-      <c r="C42" s="93">
+      <c r="C42" s="455">
         <v>2311</v>
       </c>
       <c r="D42" s="102" t="s">
@@ -15182,7 +15194,7 @@
       <c r="B43" s="32">
         <v>45084</v>
       </c>
-      <c r="C43" s="93">
+      <c r="C43" s="455">
         <v>14389</v>
       </c>
       <c r="D43" s="102" t="s">
@@ -15218,7 +15230,7 @@
       <c r="B44" s="32">
         <v>45084</v>
       </c>
-      <c r="C44" s="93">
+      <c r="C44" s="455">
         <v>6664</v>
       </c>
       <c r="D44" s="102" t="s">
@@ -15254,7 +15266,7 @@
       <c r="B45" s="32">
         <v>45084</v>
       </c>
-      <c r="C45" s="93">
+      <c r="C45" s="455">
         <v>13376</v>
       </c>
       <c r="D45" s="102" t="s">
@@ -15290,7 +15302,7 @@
       <c r="B46" s="32">
         <v>45084</v>
       </c>
-      <c r="C46" s="93">
+      <c r="C46" s="455">
         <v>3979</v>
       </c>
       <c r="D46" s="102" t="s">
@@ -15326,7 +15338,7 @@
       <c r="B47" s="32">
         <v>45084</v>
       </c>
-      <c r="C47" s="93">
+      <c r="C47" s="455">
         <v>4440</v>
       </c>
       <c r="D47" s="102" t="s">
@@ -15397,15 +15409,15 @@
       <c r="L49" s="49"/>
       <c r="M49" s="518">
         <f>SUM(M5:M40)</f>
-        <v>1445310.3800000001</v>
+        <v>1481773.3800000001</v>
       </c>
       <c r="N49" s="518">
         <f>SUM(N5:N40)</f>
-        <v>1365591</v>
+        <v>1402180</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3418235.3800000004</v>
+        <v>3527000.3800000004</v>
       </c>
       <c r="Q49" s="530">
         <f>SUM(Q5:Q40)</f>
@@ -15488,7 +15500,7 @@
       <c r="L53" s="49"/>
       <c r="M53" s="532">
         <f>M49+N49</f>
-        <v>2810901.38</v>
+        <v>2883953.38</v>
       </c>
       <c r="N53" s="533"/>
       <c r="P53" s="44"/>
@@ -15873,7 +15885,7 @@
       </c>
       <c r="C75" s="141">
         <f>SUM(C5:C68)</f>
-        <v>475332</v>
+        <v>509270</v>
       </c>
       <c r="D75" s="142"/>
       <c r="E75" s="143" t="s">
@@ -15881,7 +15893,7 @@
       </c>
       <c r="F75" s="144">
         <f>SUM(F5:F68)</f>
-        <v>3418658</v>
+        <v>3527423</v>
       </c>
       <c r="G75" s="145"/>
       <c r="H75" s="143" t="s">
@@ -15889,7 +15901,7 @@
       </c>
       <c r="I75" s="146">
         <f>SUM(I5:I68)</f>
-        <v>80878</v>
+        <v>82653</v>
       </c>
       <c r="J75" s="147"/>
       <c r="K75" s="148" t="s">
@@ -15922,7 +15934,7 @@
       <c r="J77" s="154"/>
       <c r="K77" s="528">
         <f>I75+L75</f>
-        <v>277136.5</v>
+        <v>278911.5</v>
       </c>
       <c r="L77" s="529"/>
       <c r="M77" s="155"/>
@@ -15937,7 +15949,7 @@
       <c r="E78" s="520"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
-        <v>2666189.5</v>
+        <v>2739241.5</v>
       </c>
       <c r="I78" s="157"/>
       <c r="J78" s="158"/>
@@ -15957,7 +15969,7 @@
       <c r="J79" s="523"/>
       <c r="K79" s="524">
         <f>F81+F82+F83</f>
-        <v>5797576.54</v>
+        <v>5870628.54</v>
       </c>
       <c r="L79" s="524"/>
       <c r="M79" s="159"/>
@@ -15994,7 +16006,7 @@
       </c>
       <c r="F81" s="150">
         <f>SUM(F78:F80)</f>
-        <v>2666189.5</v>
+        <v>2739241.5</v>
       </c>
       <c r="H81" s="168"/>
       <c r="I81" s="169" t="s">
@@ -16035,7 +16047,7 @@
       <c r="J83" s="559"/>
       <c r="K83" s="560">
         <f>K79+K81</f>
-        <v>1899609.0100000002</v>
+        <v>1972661.0100000002</v>
       </c>
       <c r="L83" s="560"/>
     </row>
@@ -37965,8 +37977,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/BALANCE  ZAVALETA   Junio    2023.xlsx
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="765">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -2538,6 +2538,219 @@
   </si>
   <si>
     <t>PICAÑA-POLLO-PHILADELPHIA</t>
+  </si>
+  <si>
+    <t>ACEITE-JAMON-CREMA-SALSAS--QUESOS</t>
+  </si>
+  <si>
+    <t>QUESO MANCHEGO GOUDA</t>
+  </si>
+  <si>
+    <t>BASURA</t>
+  </si>
+  <si>
+    <t>Servcio Camioneta</t>
+  </si>
+  <si>
+    <t>SALMON-</t>
+  </si>
+  <si>
+    <t>Seguro de res</t>
+  </si>
+  <si>
+    <t>PULPA-RES</t>
+  </si>
+  <si>
+    <t>MEDIA RES TORO</t>
+  </si>
+  <si>
+    <t>Bolsa rollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hueso blanco de res </t>
+  </si>
+  <si>
+    <t>Rollos termicos</t>
+  </si>
+  <si>
+    <t>Seguros de res</t>
+  </si>
+  <si>
+    <t>5-jun-2023</t>
+  </si>
+  <si>
+    <t>6-jun-2023</t>
+  </si>
+  <si>
+    <t>7-jun-2023</t>
+  </si>
+  <si>
+    <t>9-jun-2023</t>
+  </si>
+  <si>
+    <t>10-jun-2023</t>
+  </si>
+  <si>
+    <t>12-jun-2023</t>
+  </si>
+  <si>
+    <t>13-jun-2023</t>
+  </si>
+  <si>
+    <t>14-jun-2023</t>
+  </si>
+  <si>
+    <t>15-jun-2023</t>
+  </si>
+  <si>
+    <t>16-jun-2023</t>
+  </si>
+  <si>
+    <t>17-jun-2023</t>
+  </si>
+  <si>
+    <t>19-jun-2023</t>
+  </si>
+  <si>
+    <t>20-jun-2023</t>
+  </si>
+  <si>
+    <t>21-jun-2023</t>
+  </si>
+  <si>
+    <t>22-jun-2023</t>
+  </si>
+  <si>
+    <t>23-jun-2023</t>
+  </si>
+  <si>
+    <t>24-jun-2023</t>
+  </si>
+  <si>
+    <t>26-jun-2023</t>
+  </si>
+  <si>
+    <t>28-jun-2023</t>
+  </si>
+  <si>
+    <t>29-jun-2023</t>
+  </si>
+  <si>
+    <t>E-12352</t>
+  </si>
+  <si>
+    <t>E-12441</t>
+  </si>
+  <si>
+    <t>E-12584</t>
+  </si>
+  <si>
+    <t>E-12679</t>
+  </si>
+  <si>
+    <t>8-jun-2023</t>
+  </si>
+  <si>
+    <t>E-12834</t>
+  </si>
+  <si>
+    <t>E-12873</t>
+  </si>
+  <si>
+    <t>E-12874</t>
+  </si>
+  <si>
+    <t>E-13063</t>
+  </si>
+  <si>
+    <t>E-13064</t>
+  </si>
+  <si>
+    <t>E-13170</t>
+  </si>
+  <si>
+    <t>E-13300</t>
+  </si>
+  <si>
+    <t>E-13383</t>
+  </si>
+  <si>
+    <t>E-13483</t>
+  </si>
+  <si>
+    <t>E-13507</t>
+  </si>
+  <si>
+    <t>E-13580</t>
+  </si>
+  <si>
+    <t>E-13765</t>
+  </si>
+  <si>
+    <t>E-13810</t>
+  </si>
+  <si>
+    <t>E-13815</t>
+  </si>
+  <si>
+    <t>E-13902</t>
+  </si>
+  <si>
+    <t>E-13907</t>
+  </si>
+  <si>
+    <t>E-13989</t>
+  </si>
+  <si>
+    <t>E-14102</t>
+  </si>
+  <si>
+    <t>E-14113</t>
+  </si>
+  <si>
+    <t>E-14199</t>
+  </si>
+  <si>
+    <t>E-14311</t>
+  </si>
+  <si>
+    <t>E-14419</t>
+  </si>
+  <si>
+    <t>E-14560</t>
+  </si>
+  <si>
+    <t>E-14579</t>
+  </si>
+  <si>
+    <t>27-jun-2023</t>
+  </si>
+  <si>
+    <t>E-14715</t>
+  </si>
+  <si>
+    <t>E-14810</t>
+  </si>
+  <si>
+    <t>E-14900</t>
+  </si>
+  <si>
+    <t>30-jun-2023</t>
+  </si>
+  <si>
+    <t>E-15002</t>
+  </si>
+  <si>
+    <t>E-15003</t>
+  </si>
+  <si>
+    <t>RES ANICIPO</t>
+  </si>
+  <si>
+    <t>Servicios camaras</t>
+  </si>
+  <si>
+    <t>PEERDIDA</t>
   </si>
 </sst>
 </file>
@@ -3078,7 +3291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -4175,12 +4388,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="565">
+  <cellXfs count="589">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5114,6 +5360,22 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5288,6 +5550,52 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5297,10 +5605,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF800080"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFCCFF99"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
@@ -7531,13 +7840,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7584,13 +7893,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7637,13 +7946,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7690,13 +7999,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7712,8 +8021,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771775" y="16392525"/>
-          <a:ext cx="1781175" cy="447675"/>
+          <a:off x="2771775" y="14820900"/>
+          <a:ext cx="1657350" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7742,15 +8051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7765,8 +8074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="8167688" y="15530510"/>
-          <a:ext cx="200026" cy="2228852"/>
+          <a:off x="8101013" y="14177960"/>
+          <a:ext cx="295276" cy="2228852"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -7802,10 +8111,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>64250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>26151</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
     <xdr:sp macro="" textlink="">
@@ -7821,7 +8130,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18916712">
-          <a:off x="0" y="17209250"/>
+          <a:off x="904875" y="15904326"/>
           <a:ext cx="1323990" cy="419708"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7897,16 +8206,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7921,7 +8230,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5543550" y="17230725"/>
+          <a:off x="5591175" y="16030575"/>
           <a:ext cx="819150" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8246,23 +8555,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -8272,24 +8581,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="534" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="507" t="s">
+      <c r="R3" s="513" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8304,14 +8613,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="509" t="s">
+      <c r="E4" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="510"/>
-      <c r="H4" s="511" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="512"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -8321,11 +8630,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="535"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="508"/>
+      <c r="R4" s="514"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -10160,11 +10469,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="518">
+      <c r="M49" s="524">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="518">
+      <c r="N49" s="524">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -10172,7 +10481,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="530">
+      <c r="Q49" s="536">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -10193,10 +10502,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="519"/>
-      <c r="N50" s="519"/>
+      <c r="M50" s="525"/>
+      <c r="N50" s="525"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="531"/>
+      <c r="Q50" s="537"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -10251,11 +10560,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="532">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="533"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -10680,26 +10989,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="526" t="s">
+      <c r="H77" s="532" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="527"/>
+      <c r="I77" s="533"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="528">
+      <c r="K77" s="534">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="529"/>
+      <c r="L77" s="535"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="520" t="s">
+      <c r="D78" s="526" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="520"/>
+      <c r="E78" s="526"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -10708,22 +11017,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="521" t="s">
+      <c r="D79" s="527" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="521"/>
+      <c r="E79" s="527"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="522" t="s">
+      <c r="I79" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="523"/>
-      <c r="K79" s="524">
+      <c r="J79" s="529"/>
+      <c r="K79" s="530">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="524"/>
+      <c r="L79" s="530"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -10764,11 +11073,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="525">
+      <c r="K81" s="531">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="524"/>
+      <c r="L81" s="530"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -10785,22 +11094,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="513" t="s">
+      <c r="D83" s="519" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="514"/>
+      <c r="E83" s="520"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="515" t="s">
+      <c r="I83" s="521" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="516"/>
-      <c r="K83" s="517">
+      <c r="J83" s="522"/>
+      <c r="K83" s="523">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="517"/>
+      <c r="L83" s="523"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -10984,8 +11293,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12138,10 +12447,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="546" t="s">
+      <c r="I37" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="547"/>
+      <c r="J37" s="553"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -12160,8 +12469,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="548"/>
-      <c r="J38" s="549"/>
+      <c r="I38" s="554"/>
+      <c r="J38" s="555"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -12180,8 +12489,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="550"/>
-      <c r="J39" s="551"/>
+      <c r="I39" s="556"/>
+      <c r="J39" s="557"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -12739,10 +13048,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="552" t="s">
+      <c r="I67" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="553"/>
+      <c r="J67" s="559"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -12764,11 +13073,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="556" t="s">
+      <c r="G68" s="562" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="561"/>
-      <c r="J68" s="562"/>
+      <c r="I68" s="567"/>
+      <c r="J68" s="568"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -12779,7 +13088,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="557"/>
+      <c r="G69" s="563"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -13338,10 +13647,10 @@
   <sheetPr>
     <tabColor rgb="FFCCFF99"/>
   </sheetPr>
-  <dimension ref="A1:U105"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13360,30 +13669,30 @@
     <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
     <col min="17" max="17" width="21.28515625" style="3" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -13393,27 +13702,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="534" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="563" t="s">
+      <c r="R3" s="569" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13428,14 +13737,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="509" t="s">
+      <c r="E4" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="510"/>
-      <c r="H4" s="511" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="512"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -13445,11 +13754,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="535"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="564"/>
+      <c r="R4" s="570"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -13493,7 +13802,7 @@
         <v>84098</v>
       </c>
       <c r="P5" s="44">
-        <f t="shared" ref="P5:P36" si="0">N5+M5+L5+I5+C5</f>
+        <f t="shared" ref="P5:P34" si="0">N5+M5+L5+I5+C5</f>
         <v>192653</v>
       </c>
       <c r="Q5" s="45">
@@ -14772,29 +15081,37 @@
       <c r="B31" s="32">
         <v>45106</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="33">
+        <v>7310</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>659</v>
+      </c>
       <c r="E31" s="35">
         <v>45106</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="36">
+        <v>123576</v>
+      </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38">
         <v>45106</v>
       </c>
-      <c r="I31" s="39"/>
+      <c r="I31" s="39">
+        <v>2703</v>
+      </c>
       <c r="J31" s="338"/>
       <c r="K31" s="347"/>
       <c r="L31" s="68"/>
       <c r="M31" s="42">
-        <v>0</v>
+        <v>50692</v>
       </c>
       <c r="N31" s="43">
-        <v>0</v>
+        <v>62871</v>
       </c>
       <c r="P31" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123576</v>
       </c>
       <c r="Q31" s="45">
         <f t="shared" si="1"/>
@@ -14812,32 +15129,40 @@
       <c r="B32" s="32">
         <v>45107</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="305"/>
+      <c r="C32" s="33">
+        <v>11925</v>
+      </c>
+      <c r="D32" s="305" t="s">
+        <v>694</v>
+      </c>
       <c r="E32" s="35">
         <v>45107</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="36">
+        <v>144153</v>
+      </c>
       <c r="G32" s="37"/>
       <c r="H32" s="38">
         <v>45107</v>
       </c>
-      <c r="I32" s="39"/>
+      <c r="I32" s="39">
+        <v>4893.5</v>
+      </c>
       <c r="J32" s="367"/>
       <c r="K32" s="368"/>
       <c r="L32" s="369"/>
       <c r="M32" s="42">
-        <v>0</v>
+        <v>69329.5</v>
       </c>
       <c r="N32" s="43">
-        <v>0</v>
+        <v>58005</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P32" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144153</v>
       </c>
       <c r="Q32" s="45">
         <f t="shared" si="1"/>
@@ -14914,9 +15239,15 @@
     </row>
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="504"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="79"/>
+      <c r="B35" s="32">
+        <v>45082</v>
+      </c>
+      <c r="C35" s="86">
+        <v>183640.5</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>695</v>
+      </c>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37"/>
@@ -14932,7 +15263,6 @@
         <v>0</v>
       </c>
       <c r="P35" s="69">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q35" s="45">
@@ -14945,9 +15275,15 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="364"/>
+      <c r="B36" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C36" s="90">
+        <v>129375.51</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>695</v>
+      </c>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
       <c r="G36" s="92"/>
@@ -14963,7 +15299,6 @@
         <v>0</v>
       </c>
       <c r="P36" s="69">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q36" s="45">
@@ -14976,9 +15311,15 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
+      <c r="B37" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C37" s="93">
+        <v>183839.35999999999</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>695</v>
+      </c>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
       <c r="G37" s="92"/>
@@ -15006,21 +15347,27 @@
     </row>
     <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="91"/>
+      <c r="B38" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C38" s="93">
+        <v>14567</v>
+      </c>
+      <c r="D38" s="512" t="s">
+        <v>670</v>
+      </c>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
       <c r="G38" s="92"/>
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="338">
+      <c r="J38" s="507">
         <v>45080</v>
       </c>
-      <c r="K38" s="383" t="s">
+      <c r="K38" s="508" t="s">
         <v>644</v>
       </c>
-      <c r="L38" s="49">
+      <c r="L38" s="509">
         <v>31805.5</v>
       </c>
       <c r="M38" s="42">
@@ -15042,21 +15389,27 @@
     </row>
     <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="94"/>
+      <c r="B39" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C39" s="93">
+        <v>2311</v>
+      </c>
+      <c r="D39" s="94" t="s">
+        <v>671</v>
+      </c>
       <c r="E39" s="35"/>
       <c r="F39" s="97"/>
       <c r="G39" s="92"/>
       <c r="H39" s="38"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="338">
+      <c r="J39" s="507">
         <v>45087</v>
       </c>
-      <c r="K39" s="343" t="s">
+      <c r="K39" s="510" t="s">
         <v>663</v>
       </c>
-      <c r="L39" s="49">
+      <c r="L39" s="509">
         <v>25834</v>
       </c>
       <c r="M39" s="42">
@@ -15078,21 +15431,27 @@
     </row>
     <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
+      <c r="B40" s="32">
+        <v>45084</v>
+      </c>
+      <c r="C40" s="93">
+        <v>14389</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>672</v>
+      </c>
       <c r="E40" s="35"/>
       <c r="F40" s="97"/>
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="338">
+      <c r="J40" s="507">
         <v>45094</v>
       </c>
-      <c r="K40" s="343" t="s">
+      <c r="K40" s="510" t="s">
         <v>680</v>
       </c>
-      <c r="L40" s="49">
+      <c r="L40" s="509">
         <v>27215</v>
       </c>
       <c r="M40" s="42">
@@ -15116,24 +15475,24 @@
       <c r="B41" s="32">
         <v>45084</v>
       </c>
-      <c r="C41" s="455">
-        <v>14567</v>
-      </c>
-      <c r="D41" s="470" t="s">
-        <v>670</v>
+      <c r="C41" s="93">
+        <v>6664</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>673</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
       <c r="G41" s="37"/>
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="338">
+      <c r="J41" s="507">
         <v>45101</v>
       </c>
-      <c r="K41" s="347" t="s">
+      <c r="K41" s="511" t="s">
         <v>689</v>
       </c>
-      <c r="L41" s="49">
+      <c r="L41" s="509">
         <v>27622</v>
       </c>
       <c r="M41" s="42">
@@ -15158,11 +15517,11 @@
       <c r="B42" s="32">
         <v>45084</v>
       </c>
-      <c r="C42" s="455">
-        <v>2311</v>
+      <c r="C42" s="93">
+        <v>13376</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
@@ -15194,11 +15553,11 @@
       <c r="B43" s="32">
         <v>45084</v>
       </c>
-      <c r="C43" s="455">
-        <v>14389</v>
+      <c r="C43" s="93">
+        <v>3979</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
@@ -15230,20 +15589,26 @@
       <c r="B44" s="32">
         <v>45084</v>
       </c>
-      <c r="C44" s="455">
-        <v>6664</v>
+      <c r="C44" s="93">
+        <v>4440</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
-      <c r="J44" s="338"/>
-      <c r="K44" s="471"/>
-      <c r="L44" s="49"/>
+      <c r="J44" s="338">
+        <v>45082</v>
+      </c>
+      <c r="K44" s="471" t="s">
+        <v>216</v>
+      </c>
+      <c r="L44" s="49">
+        <v>8488</v>
+      </c>
       <c r="M44" s="42">
         <v>0</v>
       </c>
@@ -15264,22 +15629,28 @@
     <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
       <c r="B45" s="32">
-        <v>45084</v>
-      </c>
-      <c r="C45" s="455">
-        <v>13376</v>
-      </c>
-      <c r="D45" s="102" t="s">
-        <v>674</v>
+        <v>45086</v>
+      </c>
+      <c r="C45" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D45" s="403" t="s">
+        <v>700</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
       <c r="I45" s="103"/>
-      <c r="J45" s="338"/>
-      <c r="K45" s="343"/>
-      <c r="L45" s="49"/>
+      <c r="J45" s="338">
+        <v>45084</v>
+      </c>
+      <c r="K45" s="343" t="s">
+        <v>224</v>
+      </c>
+      <c r="L45" s="49">
+        <v>1856</v>
+      </c>
       <c r="M45" s="42">
         <v>0</v>
       </c>
@@ -15300,22 +15671,28 @@
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="32">
-        <v>45084</v>
-      </c>
-      <c r="C46" s="455">
-        <v>3979</v>
-      </c>
-      <c r="D46" s="102" t="s">
-        <v>675</v>
+        <v>45090</v>
+      </c>
+      <c r="C46" s="93">
+        <v>142732.54999999999</v>
+      </c>
+      <c r="D46" s="403" t="s">
+        <v>700</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
-      <c r="J46" s="338"/>
-      <c r="K46" s="349"/>
-      <c r="L46" s="49"/>
+      <c r="J46" s="338">
+        <v>45084</v>
+      </c>
+      <c r="K46" s="349" t="s">
+        <v>696</v>
+      </c>
+      <c r="L46" s="49">
+        <v>4908.49</v>
+      </c>
       <c r="M46" s="42">
         <v>0</v>
       </c>
@@ -15336,22 +15713,28 @@
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="32">
-        <v>45084</v>
-      </c>
-      <c r="C47" s="455">
-        <v>4440</v>
+        <v>45091</v>
+      </c>
+      <c r="C47" s="93">
+        <v>40500</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
       <c r="G47" s="37"/>
       <c r="H47" s="106"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="338"/>
-      <c r="K47" s="349"/>
-      <c r="L47" s="49"/>
+      <c r="J47" s="338">
+        <v>45085</v>
+      </c>
+      <c r="K47" s="349" t="s">
+        <v>697</v>
+      </c>
+      <c r="L47" s="49">
+        <v>3769</v>
+      </c>
       <c r="M47" s="42">
         <v>0</v>
       </c>
@@ -15371,17 +15754,29 @@
     </row>
     <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="102"/>
+      <c r="B48" s="32">
+        <v>45097</v>
+      </c>
+      <c r="C48" s="93">
+        <v>119260.25</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>700</v>
+      </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
       <c r="G48" s="37"/>
       <c r="H48" s="106"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="338"/>
-      <c r="K48" s="349"/>
-      <c r="L48" s="49"/>
+      <c r="J48" s="338">
+        <v>45086</v>
+      </c>
+      <c r="K48" s="349" t="s">
+        <v>225</v>
+      </c>
+      <c r="L48" s="49">
+        <v>549</v>
+      </c>
       <c r="M48" s="107"/>
       <c r="N48" s="44"/>
       <c r="P48" s="44">
@@ -15396,30 +15791,42 @@
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="403"/>
+      <c r="B49" s="32">
+        <v>45097</v>
+      </c>
+      <c r="C49" s="93">
+        <v>81177.600000000006</v>
+      </c>
+      <c r="D49" s="403" t="s">
+        <v>701</v>
+      </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
       <c r="G49" s="37"/>
       <c r="H49" s="106"/>
       <c r="I49" s="103"/>
-      <c r="J49" s="338"/>
-      <c r="K49" s="343"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="518">
+      <c r="J49" s="338">
+        <v>45086</v>
+      </c>
+      <c r="K49" s="343" t="s">
+        <v>214</v>
+      </c>
+      <c r="L49" s="49">
+        <v>14500</v>
+      </c>
+      <c r="M49" s="524">
         <f>SUM(M5:M40)</f>
-        <v>1481773.3800000001</v>
-      </c>
-      <c r="N49" s="518">
+        <v>1601794.8800000001</v>
+      </c>
+      <c r="N49" s="524">
         <f>SUM(N5:N40)</f>
-        <v>1402180</v>
+        <v>1523056</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3527000.3800000004</v>
-      </c>
-      <c r="Q49" s="530">
+        <v>3794729.3800000004</v>
+      </c>
+      <c r="Q49" s="536">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -15429,21 +15836,33 @@
     </row>
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="403"/>
+      <c r="B50" s="32">
+        <v>45103</v>
+      </c>
+      <c r="C50" s="93">
+        <v>150000</v>
+      </c>
+      <c r="D50" s="575" t="s">
+        <v>762</v>
+      </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
       <c r="G50" s="37"/>
       <c r="H50" s="106"/>
       <c r="I50" s="103"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="343"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="519"/>
-      <c r="N50" s="519"/>
+      <c r="J50" s="87">
+        <v>45089</v>
+      </c>
+      <c r="K50" s="343" t="s">
+        <v>216</v>
+      </c>
+      <c r="L50" s="89">
+        <v>2808.6</v>
+      </c>
+      <c r="M50" s="525"/>
+      <c r="N50" s="525"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="531"/>
+      <c r="Q50" s="537"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -15451,17 +15870,29 @@
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="114"/>
+      <c r="B51" s="32">
+        <v>45104</v>
+      </c>
+      <c r="C51" s="93">
+        <v>26077.7</v>
+      </c>
+      <c r="D51" s="114" t="s">
+        <v>703</v>
+      </c>
       <c r="E51" s="104"/>
       <c r="F51" s="110"/>
       <c r="G51" s="37"/>
       <c r="H51" s="106"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="338"/>
-      <c r="K51" s="343"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="338">
+        <v>45091</v>
+      </c>
+      <c r="K51" s="343" t="s">
+        <v>699</v>
+      </c>
+      <c r="L51" s="49">
+        <v>4640</v>
+      </c>
       <c r="M51" s="113"/>
       <c r="N51" s="113"/>
       <c r="P51" s="44"/>
@@ -15469,17 +15900,29 @@
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="114"/>
+      <c r="B52" s="32">
+        <v>45107</v>
+      </c>
+      <c r="C52" s="93">
+        <v>150000</v>
+      </c>
+      <c r="D52" s="576" t="s">
+        <v>762</v>
+      </c>
       <c r="E52" s="104"/>
       <c r="F52" s="110"/>
       <c r="G52" s="37"/>
       <c r="H52" s="106"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="363"/>
-      <c r="K52" s="349"/>
-      <c r="L52" s="55"/>
+      <c r="J52" s="363">
+        <v>45100</v>
+      </c>
+      <c r="K52" s="349" t="s">
+        <v>498</v>
+      </c>
+      <c r="L52" s="55">
+        <v>28000</v>
+      </c>
       <c r="M52" s="113"/>
       <c r="N52" s="113"/>
       <c r="P52" s="44"/>
@@ -15495,14 +15938,20 @@
       <c r="G53" s="37"/>
       <c r="H53" s="106"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="338"/>
-      <c r="K53" s="343"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="532">
+      <c r="J53" s="338">
+        <v>45103</v>
+      </c>
+      <c r="K53" s="343" t="s">
+        <v>702</v>
+      </c>
+      <c r="L53" s="49">
+        <v>6254.95</v>
+      </c>
+      <c r="M53" s="538">
         <f>M49+N49</f>
-        <v>2883953.38</v>
-      </c>
-      <c r="N53" s="533"/>
+        <v>3124850.88</v>
+      </c>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -15516,9 +15965,15 @@
       <c r="G54" s="37"/>
       <c r="H54" s="106"/>
       <c r="I54" s="103"/>
-      <c r="J54" s="338"/>
-      <c r="K54" s="343"/>
-      <c r="L54" s="49"/>
+      <c r="J54" s="338">
+        <v>45104</v>
+      </c>
+      <c r="K54" s="343" t="s">
+        <v>216</v>
+      </c>
+      <c r="L54" s="49">
+        <v>270</v>
+      </c>
       <c r="M54" s="113"/>
       <c r="N54" s="113"/>
       <c r="P54" s="44"/>
@@ -15534,9 +15989,15 @@
       <c r="G55" s="37"/>
       <c r="H55" s="106"/>
       <c r="I55" s="103"/>
-      <c r="J55" s="338"/>
-      <c r="K55" s="343"/>
-      <c r="L55" s="49"/>
+      <c r="J55" s="338">
+        <v>45104</v>
+      </c>
+      <c r="K55" s="343" t="s">
+        <v>704</v>
+      </c>
+      <c r="L55" s="49">
+        <v>10208</v>
+      </c>
       <c r="M55" s="113"/>
       <c r="N55" s="113"/>
       <c r="P55" s="44"/>
@@ -15552,9 +16013,15 @@
       <c r="G56" s="37"/>
       <c r="H56" s="106"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="456"/>
-      <c r="L56" s="84"/>
+      <c r="J56" s="341">
+        <v>45104</v>
+      </c>
+      <c r="K56" s="349" t="s">
+        <v>763</v>
+      </c>
+      <c r="L56" s="84">
+        <v>82128</v>
+      </c>
       <c r="M56" s="113"/>
       <c r="N56" s="113"/>
       <c r="P56" s="44"/>
@@ -15570,9 +16037,15 @@
       <c r="G57" s="37"/>
       <c r="H57" s="106"/>
       <c r="I57" s="103"/>
-      <c r="J57" s="341"/>
-      <c r="K57" s="343"/>
-      <c r="L57" s="84"/>
+      <c r="J57" s="341">
+        <v>45105</v>
+      </c>
+      <c r="K57" s="343" t="s">
+        <v>593</v>
+      </c>
+      <c r="L57" s="84">
+        <v>2320</v>
+      </c>
       <c r="M57" s="113"/>
       <c r="N57" s="113"/>
       <c r="P57" s="44"/>
@@ -15588,9 +16061,15 @@
       <c r="G58" s="37"/>
       <c r="H58" s="106"/>
       <c r="I58" s="103"/>
-      <c r="J58" s="341"/>
-      <c r="K58" s="343"/>
-      <c r="L58" s="84"/>
+      <c r="J58" s="341">
+        <v>45105</v>
+      </c>
+      <c r="K58" s="343" t="s">
+        <v>705</v>
+      </c>
+      <c r="L58" s="84">
+        <v>7656</v>
+      </c>
       <c r="M58" s="113"/>
       <c r="N58" s="113"/>
       <c r="P58" s="44"/>
@@ -15606,9 +16085,15 @@
       <c r="G59" s="37"/>
       <c r="H59" s="106"/>
       <c r="I59" s="103"/>
-      <c r="J59" s="341"/>
-      <c r="K59" s="349"/>
-      <c r="L59" s="84"/>
+      <c r="J59" s="341">
+        <v>45105</v>
+      </c>
+      <c r="K59" s="349" t="s">
+        <v>228</v>
+      </c>
+      <c r="L59" s="84">
+        <v>1298.04</v>
+      </c>
       <c r="M59" s="113"/>
       <c r="N59" s="113"/>
       <c r="P59" s="44"/>
@@ -15624,9 +16109,15 @@
       <c r="G60" s="37"/>
       <c r="H60" s="106"/>
       <c r="I60" s="103"/>
-      <c r="J60" s="341"/>
-      <c r="K60" s="350"/>
-      <c r="L60" s="84"/>
+      <c r="J60" s="341">
+        <v>45105</v>
+      </c>
+      <c r="K60" s="350" t="s">
+        <v>233</v>
+      </c>
+      <c r="L60" s="84">
+        <v>7168.8</v>
+      </c>
       <c r="M60" s="113"/>
       <c r="N60" s="113"/>
       <c r="P60" s="44"/>
@@ -15642,573 +16133,438 @@
       <c r="G61" s="37"/>
       <c r="H61" s="106"/>
       <c r="I61" s="103"/>
-      <c r="J61" s="341"/>
-      <c r="K61" s="349"/>
-      <c r="L61" s="84"/>
+      <c r="J61" s="341">
+        <v>45107</v>
+      </c>
+      <c r="K61" s="479" t="s">
+        <v>500</v>
+      </c>
+      <c r="L61" s="84">
+        <v>39725.760000000002</v>
+      </c>
       <c r="M61" s="113"/>
       <c r="N61" s="113"/>
       <c r="P61" s="44"/>
       <c r="Q61" s="19"/>
     </row>
-    <row r="62" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="341"/>
-      <c r="K62" s="349"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="44"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="125"/>
       <c r="L62" s="84"/>
-      <c r="M62" s="113"/>
-      <c r="N62" s="113"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
       <c r="P62" s="44"/>
       <c r="Q62" s="19"/>
     </row>
-    <row r="63" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="110"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="106"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="341"/>
-      <c r="K63" s="343"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="44"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="125"/>
       <c r="L63" s="84"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="113"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
       <c r="P63" s="44"/>
       <c r="Q63" s="19"/>
     </row>
-    <row r="64" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="106"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="341"/>
-      <c r="K64" s="350"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="44"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="133"/>
+      <c r="K64" s="125"/>
       <c r="L64" s="84"/>
-      <c r="M64" s="113"/>
-      <c r="N64" s="113"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
       <c r="P64" s="44"/>
       <c r="Q64" s="19"/>
     </row>
-    <row r="65" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="110"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="106"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="341"/>
-      <c r="K65" s="343"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="44"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="125"/>
       <c r="L65" s="84"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
       <c r="P65" s="44"/>
       <c r="Q65" s="19"/>
     </row>
-    <row r="66" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="31"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="341"/>
-      <c r="K66" s="343"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="113"/>
-      <c r="N66" s="113"/>
+      <c r="B66" s="587"/>
+      <c r="C66" s="588"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="44"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="139"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
       <c r="P66" s="44"/>
       <c r="Q66" s="19"/>
     </row>
-    <row r="67" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="31"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="341"/>
-      <c r="K67" s="351"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="113"/>
-      <c r="N67" s="113"/>
+    <row r="67" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="586" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="577">
+        <f>SUM(C5:C61)</f>
+        <v>1835108.4700000002</v>
+      </c>
+      <c r="D67" s="578"/>
+      <c r="E67" s="579" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="580">
+        <f>SUM(F5:F61)</f>
+        <v>3795152</v>
+      </c>
+      <c r="G67" s="581"/>
+      <c r="H67" s="579" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="582">
+        <f>SUM(I5:I61)</f>
+        <v>90249.5</v>
+      </c>
+      <c r="J67" s="583"/>
+      <c r="K67" s="584" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="585">
+        <f>SUM(L5:L65)-L26</f>
+        <v>422807.13999999996</v>
+      </c>
+      <c r="M67" s="150"/>
+      <c r="N67" s="150"/>
       <c r="P67" s="44"/>
       <c r="Q67" s="19"/>
     </row>
-    <row r="68" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="128"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="129"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
+    <row r="68" spans="1:17" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="P68" s="44"/>
       <c r="Q68" s="19"/>
     </row>
-    <row r="69" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31"/>
-      <c r="B69" s="130"/>
-      <c r="C69" s="131"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="106"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="125"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
+    <row r="69" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="152"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="1"/>
+      <c r="H69" s="532" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="533"/>
+      <c r="J69" s="154"/>
+      <c r="K69" s="534">
+        <f>I67+L67</f>
+        <v>513056.63999999996</v>
+      </c>
+      <c r="L69" s="535"/>
+      <c r="M69" s="155"/>
+      <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
-    <row r="70" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31"/>
-      <c r="B70" s="134"/>
-      <c r="C70" s="131"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="136"/>
-      <c r="F70" s="44"/>
-      <c r="H70" s="137"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="19"/>
-    </row>
-    <row r="71" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="31"/>
-      <c r="B71" s="134"/>
-      <c r="C71" s="131"/>
-      <c r="D71" s="135"/>
-      <c r="E71" s="136"/>
-      <c r="F71" s="44"/>
-      <c r="H71" s="137"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="125"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="19"/>
-    </row>
-    <row r="72" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="31"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="135"/>
-      <c r="E72" s="136"/>
-      <c r="F72" s="44"/>
-      <c r="H72" s="137"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="133"/>
-      <c r="K72" s="125"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="19"/>
-    </row>
-    <row r="73" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="31"/>
-      <c r="B73" s="134"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="135"/>
-      <c r="E73" s="136"/>
-      <c r="F73" s="44"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="133"/>
-      <c r="K73" s="125"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="19"/>
-    </row>
-    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="31"/>
-      <c r="B74" s="134"/>
-      <c r="C74" s="131"/>
-      <c r="D74" s="135"/>
-      <c r="E74" s="136"/>
-      <c r="F74" s="44"/>
-      <c r="H74" s="137"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="138"/>
-      <c r="K74" s="139"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="19"/>
-    </row>
-    <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="141">
-        <f>SUM(C5:C68)</f>
-        <v>509270</v>
-      </c>
-      <c r="D75" s="142"/>
-      <c r="E75" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="144">
-        <f>SUM(F5:F68)</f>
-        <v>3527423</v>
-      </c>
-      <c r="G75" s="145"/>
-      <c r="H75" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="146">
-        <f>SUM(I5:I68)</f>
-        <v>82653</v>
-      </c>
-      <c r="J75" s="147"/>
-      <c r="K75" s="148" t="s">
-        <v>14</v>
-      </c>
-      <c r="L75" s="149">
-        <f>SUM(L5:L73)-L26</f>
-        <v>196258.5</v>
-      </c>
-      <c r="M75" s="150"/>
-      <c r="N75" s="150"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="19"/>
-    </row>
-    <row r="76" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="5" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D70" s="526" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="526"/>
+      <c r="F70" s="156">
+        <f>F67-K69-C67</f>
+        <v>1446986.8899999997</v>
+      </c>
+      <c r="I70" s="157"/>
+      <c r="J70" s="158"/>
+    </row>
+    <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D71" s="527" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="527"/>
+      <c r="F71" s="101">
+        <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
+        <v>-1585182.9300000004</v>
+      </c>
+      <c r="I71" s="528" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="529"/>
+      <c r="K71" s="530">
+        <f>F73+F74+F75</f>
+        <v>3054589.7999999993</v>
+      </c>
+      <c r="L71" s="530"/>
+      <c r="M71" s="159"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="160"/>
+      <c r="P71" s="159"/>
+      <c r="Q71" s="159"/>
+    </row>
+    <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D72" s="161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="162"/>
+      <c r="F72" s="163">
+        <f>-'   COMPRAS     JUNIO     2023  '!K67</f>
+        <v>-121417.2</v>
+      </c>
+      <c r="I72" s="164"/>
+      <c r="J72" s="165"/>
+      <c r="K72" s="166"/>
+      <c r="L72" s="167"/>
+      <c r="M72" s="159"/>
+      <c r="N72" s="159"/>
+      <c r="O72" s="160"/>
+      <c r="P72" s="159"/>
+      <c r="Q72" s="159"/>
+    </row>
+    <row r="73" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="44"/>
-      <c r="Q76" s="19"/>
-    </row>
-    <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="152"/>
-      <c r="B77" s="153"/>
-      <c r="C77" s="1"/>
-      <c r="H77" s="526" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="527"/>
-      <c r="J77" s="154"/>
-      <c r="K77" s="528">
-        <f>I75+L75</f>
-        <v>278911.5</v>
-      </c>
-      <c r="L77" s="529"/>
-      <c r="M77" s="155"/>
-      <c r="N77" s="155"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="19"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="520" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="520"/>
-      <c r="F78" s="156">
-        <f>F75-K77-C75</f>
-        <v>2739241.5</v>
-      </c>
-      <c r="I78" s="157"/>
-      <c r="J78" s="158"/>
-    </row>
-    <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="521" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="521"/>
-      <c r="F79" s="101">
-        <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="522" t="s">
-        <v>18</v>
-      </c>
-      <c r="J79" s="523"/>
-      <c r="K79" s="524">
-        <f>F81+F82+F83</f>
-        <v>5870628.54</v>
-      </c>
-      <c r="L79" s="524"/>
-      <c r="M79" s="159"/>
-      <c r="N79" s="159"/>
-      <c r="O79" s="160"/>
-      <c r="P79" s="159"/>
-      <c r="Q79" s="159"/>
-    </row>
-    <row r="80" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D80" s="161" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="162"/>
-      <c r="F80" s="163">
-        <f>-'   COMPRAS     JUNIO     2023  '!K67</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="164"/>
-      <c r="J80" s="165"/>
-      <c r="K80" s="166"/>
-      <c r="L80" s="167"/>
-      <c r="M80" s="159"/>
-      <c r="N80" s="159"/>
-      <c r="O80" s="160"/>
-      <c r="P80" s="159"/>
-      <c r="Q80" s="159"/>
-    </row>
-    <row r="81" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="152" t="s">
+      <c r="E73" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="150">
-        <f>SUM(F78:F80)</f>
-        <v>2739241.5</v>
-      </c>
-      <c r="H81" s="168"/>
-      <c r="I81" s="169" t="s">
+      <c r="F73" s="150">
+        <f>SUM(F70:F72)</f>
+        <v>-259613.24000000075</v>
+      </c>
+      <c r="H73" s="168"/>
+      <c r="I73" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="J81" s="170"/>
-      <c r="K81" s="525">
+      <c r="J73" s="170"/>
+      <c r="K73" s="531">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L81" s="524"/>
-    </row>
-    <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="171" t="s">
+      <c r="L73" s="530"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="152" t="s">
+      <c r="E74" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="172">
+      <c r="F74" s="101">
+        <v>182816</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D83" s="513" t="s">
+      <c r="D75" s="519" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="514"/>
-      <c r="F83" s="173">
+      <c r="E75" s="520"/>
+      <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I83" s="558" t="s">
-        <v>25</v>
-      </c>
-      <c r="J83" s="559"/>
-      <c r="K83" s="560">
-        <f>K79+K81</f>
-        <v>1972661.0100000002</v>
-      </c>
-      <c r="L83" s="560"/>
-    </row>
-    <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C84" s="174"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="152"/>
-      <c r="F84" s="176"/>
-      <c r="J84" s="177"/>
-    </row>
-    <row r="85" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I85" s="178"/>
-      <c r="J85" s="178"/>
-      <c r="K85" s="179"/>
-      <c r="L85" s="180"/>
-    </row>
-    <row r="86" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="181"/>
-      <c r="C86" s="182"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="44"/>
-      <c r="I86" s="178"/>
-      <c r="J86" s="178"/>
-      <c r="K86" s="179"/>
-      <c r="L86" s="180"/>
-      <c r="M86" s="184"/>
-      <c r="N86" s="152"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="181"/>
-      <c r="C87" s="185"/>
-      <c r="E87" s="44"/>
-      <c r="M87" s="184"/>
-      <c r="N87" s="152"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="181"/>
-      <c r="C88" s="185"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="186"/>
-      <c r="L88" s="187"/>
+      <c r="I75" s="521" t="s">
+        <v>764</v>
+      </c>
+      <c r="J75" s="522"/>
+      <c r="K75" s="523">
+        <f>K71+K73</f>
+        <v>-843377.73000000045</v>
+      </c>
+      <c r="L75" s="523"/>
+    </row>
+    <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C76" s="174"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="152"/>
+      <c r="F76" s="176"/>
+      <c r="J76" s="177"/>
+    </row>
+    <row r="77" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="178"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="179"/>
+      <c r="L77" s="180"/>
+    </row>
+    <row r="78" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="181"/>
+      <c r="C78" s="182"/>
+      <c r="D78" s="183"/>
+      <c r="E78" s="44"/>
+      <c r="I78" s="178"/>
+      <c r="J78" s="178"/>
+      <c r="K78" s="179"/>
+      <c r="L78" s="180"/>
+      <c r="M78" s="184"/>
+      <c r="N78" s="152"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="181"/>
+      <c r="C79" s="185"/>
+      <c r="E79" s="44"/>
+      <c r="M79" s="184"/>
+      <c r="N79" s="152"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="181"/>
+      <c r="C80" s="185"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="186"/>
+      <c r="L80" s="187"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="181"/>
+      <c r="C81" s="185"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="186"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="181"/>
+      <c r="C82" s="185"/>
+      <c r="D82" s="188"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D83" s="188"/>
+      <c r="E83" s="190"/>
+      <c r="F83" s="44"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D84" s="188"/>
+      <c r="E84" s="190"/>
+      <c r="F84" s="44"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D85" s="188"/>
+      <c r="E85" s="190"/>
+      <c r="F85" s="44"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D86" s="188"/>
+      <c r="E86" s="190"/>
+      <c r="F86" s="454"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D87" s="188"/>
+      <c r="E87" s="190"/>
+      <c r="F87" s="454"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D88" s="188"/>
+      <c r="E88" s="190"/>
+      <c r="F88" s="454"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="181"/>
-      <c r="C89" s="185"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="186"/>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D89" s="188"/>
+      <c r="E89" s="190"/>
+      <c r="F89" s="44"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="181"/>
-      <c r="C90" s="185"/>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D90" s="188"/>
-      <c r="E90" s="44"/>
+      <c r="E90" s="190"/>
       <c r="F90" s="44"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D91" s="188"/>
       <c r="E91" s="190"/>
       <c r="F91" s="44"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D92" s="188"/>
       <c r="E92" s="190"/>
       <c r="F92" s="44"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D93" s="188"/>
       <c r="E93" s="190"/>
       <c r="F93" s="44"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D94" s="188"/>
       <c r="E94" s="190"/>
-      <c r="F94" s="454"/>
-      <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F94" s="44"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D95" s="188"/>
-      <c r="E95" s="190"/>
-      <c r="F95" s="454"/>
-      <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E95" s="191"/>
+      <c r="F95" s="189"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D96" s="188"/>
-      <c r="E96" s="190"/>
-      <c r="F96" s="454"/>
-      <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E96" s="191"/>
+      <c r="F96" s="189"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="188"/>
-      <c r="E97" s="190"/>
-      <c r="F97" s="44"/>
-      <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D98" s="188"/>
-      <c r="E98" s="190"/>
-      <c r="F98" s="44"/>
-      <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D99" s="188"/>
-      <c r="E99" s="190"/>
-      <c r="F99" s="44"/>
-      <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D100" s="188"/>
-      <c r="E100" s="190"/>
-      <c r="F100" s="44"/>
-      <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D101" s="188"/>
-      <c r="E101" s="190"/>
-      <c r="F101" s="44"/>
-      <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D102" s="188"/>
-      <c r="E102" s="190"/>
-      <c r="F102" s="44"/>
-    </row>
-    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D103" s="188"/>
-      <c r="E103" s="191"/>
-      <c r="F103" s="189"/>
-    </row>
-    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D104" s="188"/>
-      <c r="E104" s="191"/>
-      <c r="F104" s="189"/>
-    </row>
-    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D105" s="188"/>
-      <c r="E105" s="191"/>
-      <c r="F105" s="189"/>
+      <c r="E97" s="191"/>
+      <c r="F97" s="189"/>
     </row>
   </sheetData>
+  <sortState ref="B37:D49">
+    <sortCondition ref="B37:B49"/>
+  </sortState>
   <mergeCells count="22">
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
     <mergeCell ref="M49:M50"/>
     <mergeCell ref="N49:N50"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="P3:P4"/>
@@ -16231,8 +16587,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16338,19 +16694,25 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="222"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="101"/>
+      <c r="B4" s="235" t="s">
+        <v>640</v>
+      </c>
+      <c r="C4" s="461" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4" s="410">
+        <v>39952.639999999999</v>
+      </c>
       <c r="E4" s="224"/>
       <c r="F4" s="101"/>
       <c r="G4" s="225">
         <f t="shared" ref="G4:G65" si="0">D4-F4</f>
-        <v>0</v>
+        <v>39952.639999999999</v>
       </c>
       <c r="H4" s="226"/>
-      <c r="I4" s="352"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="220"/>
+      <c r="I4" s="571"/>
+      <c r="J4" s="572"/>
+      <c r="K4" s="573"/>
       <c r="L4" s="218"/>
       <c r="M4" s="237"/>
       <c r="N4" s="227">
@@ -16359,18 +16721,24 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="222"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="235" t="s">
+        <v>706</v>
+      </c>
+      <c r="C5" s="461" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="410">
+        <v>34402.36</v>
+      </c>
       <c r="E5" s="224"/>
       <c r="F5" s="101"/>
       <c r="G5" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="352"/>
-      <c r="J5" s="310"/>
-      <c r="K5" s="220"/>
+        <v>34402.36</v>
+      </c>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="573"/>
       <c r="L5" s="218"/>
       <c r="M5" s="237"/>
       <c r="N5" s="227">
@@ -16379,571 +16747,897 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="222"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="235" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6" s="461" t="s">
+        <v>728</v>
+      </c>
+      <c r="D6" s="410">
+        <v>30209.599999999999</v>
+      </c>
       <c r="E6" s="224"/>
       <c r="F6" s="101"/>
       <c r="G6" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="352"/>
-      <c r="J6" s="310"/>
-      <c r="K6" s="220"/>
+        <v>30209.599999999999</v>
+      </c>
+      <c r="I6" s="574" t="s">
+        <v>640</v>
+      </c>
+      <c r="J6" s="236">
+        <v>12528</v>
+      </c>
+      <c r="K6" s="237">
+        <v>720</v>
+      </c>
       <c r="L6" s="218"/>
       <c r="M6" s="237"/>
       <c r="N6" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="222"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="101"/>
+      <c r="B7" s="235" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" s="461" t="s">
+        <v>729</v>
+      </c>
+      <c r="D7" s="410">
+        <v>79132.5</v>
+      </c>
       <c r="E7" s="224"/>
       <c r="F7" s="101"/>
       <c r="G7" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="352"/>
-      <c r="J7" s="310"/>
-      <c r="K7" s="220"/>
+        <v>79132.5</v>
+      </c>
+      <c r="I7" s="574" t="s">
+        <v>706</v>
+      </c>
+      <c r="J7" s="236">
+        <v>12546</v>
+      </c>
+      <c r="K7" s="237">
+        <v>17557.2</v>
+      </c>
       <c r="L7" s="218"/>
       <c r="M7" s="237"/>
       <c r="N7" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18277.2</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="222"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="101"/>
+      <c r="B8" s="235" t="s">
+        <v>730</v>
+      </c>
+      <c r="C8" s="461" t="s">
+        <v>731</v>
+      </c>
+      <c r="D8" s="410">
+        <v>56131.44</v>
+      </c>
       <c r="E8" s="224"/>
       <c r="F8" s="101"/>
       <c r="G8" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="352"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="220"/>
+        <v>56131.44</v>
+      </c>
+      <c r="I8" s="574" t="s">
+        <v>707</v>
+      </c>
+      <c r="J8" s="236">
+        <v>12552</v>
+      </c>
+      <c r="K8" s="237">
+        <v>360</v>
+      </c>
       <c r="L8" s="218"/>
       <c r="M8" s="237"/>
       <c r="N8" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18637.2</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="222"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="101"/>
+      <c r="B9" s="235" t="s">
+        <v>709</v>
+      </c>
+      <c r="C9" s="461" t="s">
+        <v>732</v>
+      </c>
+      <c r="D9" s="410">
+        <v>13237.76</v>
+      </c>
       <c r="E9" s="224"/>
       <c r="F9" s="101"/>
       <c r="G9" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="352"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="220"/>
+        <v>13237.76</v>
+      </c>
+      <c r="I9" s="574" t="s">
+        <v>708</v>
+      </c>
+      <c r="J9" s="236">
+        <v>12559</v>
+      </c>
+      <c r="K9" s="237">
+        <v>481</v>
+      </c>
       <c r="L9" s="218"/>
       <c r="M9" s="237"/>
       <c r="N9" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19118.2</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="222"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="101"/>
+      <c r="B10" s="235" t="s">
+        <v>709</v>
+      </c>
+      <c r="C10" s="461" t="s">
+        <v>733</v>
+      </c>
+      <c r="D10" s="410">
+        <v>79127.8</v>
+      </c>
       <c r="E10" s="224"/>
       <c r="F10" s="101"/>
       <c r="G10" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79127.8</v>
       </c>
       <c r="H10" s="226"/>
-      <c r="I10" s="352"/>
-      <c r="J10" s="310"/>
-      <c r="K10" s="220"/>
+      <c r="I10" s="574" t="s">
+        <v>709</v>
+      </c>
+      <c r="J10" s="236">
+        <v>12585</v>
+      </c>
+      <c r="K10" s="237">
+        <v>12683</v>
+      </c>
       <c r="L10" s="218"/>
       <c r="M10" s="237"/>
       <c r="N10" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31801.200000000001</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="222"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="101"/>
+      <c r="B11" s="235" t="s">
+        <v>710</v>
+      </c>
+      <c r="C11" s="461" t="s">
+        <v>734</v>
+      </c>
+      <c r="D11" s="410">
+        <v>28305.200000000001</v>
+      </c>
       <c r="E11" s="224"/>
       <c r="F11" s="101"/>
       <c r="G11" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="352"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="220"/>
+        <v>28305.200000000001</v>
+      </c>
+      <c r="I11" s="574" t="s">
+        <v>710</v>
+      </c>
+      <c r="J11" s="236">
+        <v>12592</v>
+      </c>
+      <c r="K11" s="237">
+        <v>600</v>
+      </c>
       <c r="L11" s="218"/>
       <c r="M11" s="237"/>
       <c r="N11" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32401.200000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="222"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="101"/>
+      <c r="B12" s="235" t="s">
+        <v>710</v>
+      </c>
+      <c r="C12" s="461" t="s">
+        <v>735</v>
+      </c>
+      <c r="D12" s="410">
+        <v>4855.7</v>
+      </c>
       <c r="E12" s="224"/>
       <c r="F12" s="101"/>
       <c r="G12" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="352"/>
-      <c r="J12" s="310"/>
-      <c r="K12" s="220"/>
+        <v>4855.7</v>
+      </c>
+      <c r="I12" s="574" t="s">
+        <v>711</v>
+      </c>
+      <c r="J12" s="236">
+        <v>12604</v>
+      </c>
+      <c r="K12" s="237">
+        <v>600</v>
+      </c>
       <c r="L12" s="218"/>
       <c r="M12" s="237"/>
       <c r="N12" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33001.199999999997</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="222"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="101"/>
+      <c r="B13" s="235" t="s">
+        <v>711</v>
+      </c>
+      <c r="C13" s="461" t="s">
+        <v>736</v>
+      </c>
+      <c r="D13" s="410">
+        <v>132962.48000000001</v>
+      </c>
       <c r="E13" s="224"/>
       <c r="F13" s="101"/>
       <c r="G13" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="352"/>
-      <c r="J13" s="310"/>
-      <c r="K13" s="220"/>
+        <v>132962.48000000001</v>
+      </c>
+      <c r="I13" s="574" t="s">
+        <v>712</v>
+      </c>
+      <c r="J13" s="236">
+        <v>12610</v>
+      </c>
+      <c r="K13" s="237">
+        <v>1365</v>
+      </c>
       <c r="L13" s="218"/>
       <c r="M13" s="237"/>
       <c r="N13" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34366.199999999997</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="222"/>
-      <c r="C14" s="223"/>
-      <c r="D14" s="101"/>
+      <c r="B14" s="235" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" s="461" t="s">
+        <v>737</v>
+      </c>
+      <c r="D14" s="410">
+        <v>29594.400000000001</v>
+      </c>
       <c r="E14" s="224"/>
       <c r="F14" s="101"/>
       <c r="G14" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="352"/>
-      <c r="J14" s="310"/>
-      <c r="K14" s="220"/>
+        <v>29594.400000000001</v>
+      </c>
+      <c r="I14" s="574" t="s">
+        <v>713</v>
+      </c>
+      <c r="J14" s="236">
+        <v>12624</v>
+      </c>
+      <c r="K14" s="237">
+        <v>2601</v>
+      </c>
       <c r="L14" s="218"/>
       <c r="M14" s="237"/>
       <c r="N14" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36967.199999999997</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="222"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="101"/>
+      <c r="B15" s="235" t="s">
+        <v>713</v>
+      </c>
+      <c r="C15" s="461" t="s">
+        <v>738</v>
+      </c>
+      <c r="D15" s="410">
+        <v>17264.25</v>
+      </c>
       <c r="E15" s="224"/>
       <c r="F15" s="101"/>
       <c r="G15" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="352"/>
-      <c r="J15" s="310"/>
-      <c r="K15" s="220"/>
+        <v>17264.25</v>
+      </c>
+      <c r="I15" s="574" t="s">
+        <v>714</v>
+      </c>
+      <c r="J15" s="236">
+        <v>12630</v>
+      </c>
+      <c r="K15" s="237">
+        <v>13184.4</v>
+      </c>
       <c r="L15" s="218"/>
       <c r="M15" s="237"/>
       <c r="N15" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50151.6</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="222"/>
-      <c r="C16" s="223"/>
-      <c r="D16" s="101"/>
+      <c r="B16" s="235" t="s">
+        <v>714</v>
+      </c>
+      <c r="C16" s="461" t="s">
+        <v>739</v>
+      </c>
+      <c r="D16" s="410">
+        <v>123525.8</v>
+      </c>
       <c r="E16" s="224"/>
       <c r="F16" s="101"/>
       <c r="G16" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="352"/>
-      <c r="J16" s="310"/>
-      <c r="K16" s="220"/>
+        <v>123525.8</v>
+      </c>
+      <c r="I16" s="574" t="s">
+        <v>715</v>
+      </c>
+      <c r="J16" s="236">
+        <v>12636</v>
+      </c>
+      <c r="K16" s="237">
+        <v>480</v>
+      </c>
       <c r="L16" s="218"/>
       <c r="M16" s="237"/>
       <c r="N16" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50631.6</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="222"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="101"/>
+      <c r="B17" s="235" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" s="461" t="s">
+        <v>740</v>
+      </c>
+      <c r="D17" s="410">
+        <v>10929.6</v>
+      </c>
       <c r="E17" s="224"/>
       <c r="F17" s="101"/>
       <c r="G17" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="352"/>
-      <c r="J17" s="310"/>
-      <c r="K17" s="220"/>
+        <v>10929.6</v>
+      </c>
+      <c r="I17" s="574" t="s">
+        <v>715</v>
+      </c>
+      <c r="J17" s="236">
+        <v>12638</v>
+      </c>
+      <c r="K17" s="237">
+        <v>480</v>
+      </c>
       <c r="L17" s="218"/>
       <c r="M17" s="237"/>
       <c r="N17" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>51111.6</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="222"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="101"/>
+      <c r="B18" s="235" t="s">
+        <v>715</v>
+      </c>
+      <c r="C18" s="461" t="s">
+        <v>741</v>
+      </c>
+      <c r="D18" s="410">
+        <v>13256.16</v>
+      </c>
       <c r="E18" s="224"/>
       <c r="F18" s="101"/>
       <c r="G18" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="352"/>
-      <c r="J18" s="310"/>
-      <c r="K18" s="220"/>
+        <v>13256.16</v>
+      </c>
+      <c r="I18" s="574" t="s">
+        <v>716</v>
+      </c>
+      <c r="J18" s="236">
+        <v>12645</v>
+      </c>
+      <c r="K18" s="237">
+        <v>19808</v>
+      </c>
       <c r="L18" s="218"/>
       <c r="M18" s="237"/>
       <c r="N18" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70919.600000000006</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="222"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="101"/>
+      <c r="B19" s="235" t="s">
+        <v>716</v>
+      </c>
+      <c r="C19" s="461" t="s">
+        <v>742</v>
+      </c>
+      <c r="D19" s="410">
+        <v>10945</v>
+      </c>
       <c r="E19" s="224"/>
       <c r="F19" s="101"/>
       <c r="G19" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="352"/>
-      <c r="J19" s="310"/>
-      <c r="K19" s="220"/>
+        <v>10945</v>
+      </c>
+      <c r="I19" s="574" t="s">
+        <v>716</v>
+      </c>
+      <c r="J19" s="236">
+        <v>12646</v>
+      </c>
+      <c r="K19" s="237">
+        <v>3823</v>
+      </c>
       <c r="L19" s="218"/>
       <c r="M19" s="237"/>
       <c r="N19" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>74742.600000000006</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="222"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="101"/>
+      <c r="B20" s="235" t="s">
+        <v>716</v>
+      </c>
+      <c r="C20" s="461" t="s">
+        <v>743</v>
+      </c>
+      <c r="D20" s="410">
+        <v>55883.199999999997</v>
+      </c>
       <c r="E20" s="224"/>
       <c r="F20" s="101"/>
       <c r="G20" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="352"/>
-      <c r="J20" s="310"/>
-      <c r="K20" s="220"/>
+        <v>55883.199999999997</v>
+      </c>
+      <c r="I20" s="574" t="s">
+        <v>717</v>
+      </c>
+      <c r="J20" s="236">
+        <v>12654</v>
+      </c>
+      <c r="K20" s="237">
+        <v>600</v>
+      </c>
       <c r="L20" s="218"/>
       <c r="M20" s="237"/>
       <c r="N20" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75342.600000000006</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="235" t="s">
+        <v>716</v>
+      </c>
+      <c r="C21" s="461" t="s">
+        <v>744</v>
+      </c>
+      <c r="D21" s="410">
+        <v>12802.36</v>
+      </c>
       <c r="E21" s="224"/>
       <c r="F21" s="101"/>
       <c r="G21" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="352"/>
-      <c r="J21" s="310"/>
-      <c r="K21" s="220"/>
+        <v>12802.36</v>
+      </c>
+      <c r="I21" s="574" t="s">
+        <v>717</v>
+      </c>
+      <c r="J21" s="236">
+        <v>12661</v>
+      </c>
+      <c r="K21" s="237">
+        <v>3782</v>
+      </c>
       <c r="L21" s="218"/>
       <c r="M21" s="237"/>
       <c r="N21" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79124.600000000006</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="222"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="101"/>
+      <c r="B22" s="235" t="s">
+        <v>717</v>
+      </c>
+      <c r="C22" s="461" t="s">
+        <v>745</v>
+      </c>
+      <c r="D22" s="410">
+        <v>56051.5</v>
+      </c>
       <c r="E22" s="224"/>
       <c r="F22" s="101"/>
       <c r="G22" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56051.5</v>
       </c>
       <c r="H22" s="232"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="310"/>
-      <c r="K22" s="220"/>
+      <c r="I22" s="574" t="s">
+        <v>718</v>
+      </c>
+      <c r="J22" s="236">
+        <v>12664</v>
+      </c>
+      <c r="K22" s="237">
+        <v>10871.2</v>
+      </c>
       <c r="L22" s="218"/>
       <c r="M22" s="237"/>
       <c r="N22" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89995.8</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="222"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="101"/>
+      <c r="B23" s="235" t="s">
+        <v>717</v>
+      </c>
+      <c r="C23" s="461" t="s">
+        <v>746</v>
+      </c>
+      <c r="D23" s="410">
+        <v>3178</v>
+      </c>
       <c r="E23" s="224"/>
       <c r="F23" s="101"/>
       <c r="G23" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3178</v>
       </c>
       <c r="H23" s="233"/>
-      <c r="I23" s="352"/>
-      <c r="J23" s="310"/>
-      <c r="K23" s="220"/>
+      <c r="I23" s="574" t="s">
+        <v>718</v>
+      </c>
+      <c r="J23" s="236">
+        <v>12665</v>
+      </c>
+      <c r="K23" s="237">
+        <v>240</v>
+      </c>
       <c r="L23" s="218"/>
       <c r="M23" s="237"/>
       <c r="N23" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90235.8</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="222"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="101"/>
+      <c r="B24" s="235" t="s">
+        <v>718</v>
+      </c>
+      <c r="C24" s="461" t="s">
+        <v>747</v>
+      </c>
+      <c r="D24" s="410">
+        <v>24779.279999999999</v>
+      </c>
       <c r="E24" s="224"/>
       <c r="F24" s="101"/>
       <c r="G24" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24779.279999999999</v>
       </c>
       <c r="H24" s="233"/>
-      <c r="I24" s="352"/>
-      <c r="J24" s="310"/>
-      <c r="K24" s="220"/>
+      <c r="I24" s="574" t="s">
+        <v>719</v>
+      </c>
+      <c r="J24" s="236">
+        <v>12682</v>
+      </c>
+      <c r="K24" s="237">
+        <v>4061</v>
+      </c>
       <c r="L24" s="218"/>
       <c r="M24" s="237"/>
       <c r="N24" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94296.8</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="222"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="101"/>
+      <c r="B25" s="235" t="s">
+        <v>719</v>
+      </c>
+      <c r="C25" s="461" t="s">
+        <v>748</v>
+      </c>
+      <c r="D25" s="410">
+        <v>88264.8</v>
+      </c>
       <c r="E25" s="224"/>
       <c r="F25" s="101"/>
       <c r="G25" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88264.8</v>
       </c>
       <c r="H25" s="234"/>
-      <c r="I25" s="352"/>
-      <c r="J25" s="310"/>
-      <c r="K25" s="220"/>
+      <c r="I25" s="574" t="s">
+        <v>720</v>
+      </c>
+      <c r="J25" s="236">
+        <v>12690</v>
+      </c>
+      <c r="K25" s="237">
+        <v>600</v>
+      </c>
       <c r="L25" s="218"/>
       <c r="M25" s="237"/>
       <c r="N25" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94896.8</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="222"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="101"/>
+      <c r="B26" s="235" t="s">
+        <v>719</v>
+      </c>
+      <c r="C26" s="461" t="s">
+        <v>749</v>
+      </c>
+      <c r="D26" s="410">
+        <v>39048.300000000003</v>
+      </c>
       <c r="E26" s="224"/>
       <c r="F26" s="101"/>
       <c r="G26" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39048.300000000003</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="352"/>
-      <c r="J26" s="310"/>
-      <c r="K26" s="220"/>
+      <c r="I26" s="574" t="s">
+        <v>720</v>
+      </c>
+      <c r="J26" s="236">
+        <v>12692</v>
+      </c>
+      <c r="K26" s="237">
+        <v>480</v>
+      </c>
       <c r="L26" s="218"/>
       <c r="M26" s="237"/>
       <c r="N26" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>95376.8</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="222"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="101"/>
+      <c r="B27" s="235" t="s">
+        <v>720</v>
+      </c>
+      <c r="C27" s="461" t="s">
+        <v>750</v>
+      </c>
+      <c r="D27" s="410">
+        <v>65638</v>
+      </c>
       <c r="E27" s="224"/>
       <c r="F27" s="101"/>
       <c r="G27" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65638</v>
       </c>
       <c r="H27" s="234"/>
-      <c r="I27" s="352"/>
-      <c r="J27" s="310"/>
-      <c r="K27" s="220"/>
+      <c r="I27" s="574" t="s">
+        <v>721</v>
+      </c>
+      <c r="J27" s="236">
+        <v>12699</v>
+      </c>
+      <c r="K27" s="237">
+        <v>2589</v>
+      </c>
       <c r="L27" s="218"/>
       <c r="M27" s="237"/>
       <c r="N27" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>97965.8</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="222"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="101"/>
+      <c r="B28" s="235" t="s">
+        <v>721</v>
+      </c>
+      <c r="C28" s="461" t="s">
+        <v>751</v>
+      </c>
+      <c r="D28" s="410">
+        <v>4895.84</v>
+      </c>
       <c r="E28" s="224"/>
       <c r="F28" s="101"/>
       <c r="G28" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4895.84</v>
       </c>
       <c r="H28" s="234"/>
-      <c r="I28" s="435"/>
-      <c r="J28" s="437"/>
-      <c r="K28" s="237"/>
+      <c r="I28" s="574" t="s">
+        <v>721</v>
+      </c>
+      <c r="J28" s="236">
+        <v>12706</v>
+      </c>
+      <c r="K28" s="237">
+        <v>360</v>
+      </c>
       <c r="L28" s="218"/>
       <c r="M28" s="237"/>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98325.8</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="222"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="101"/>
+      <c r="B29" s="235" t="s">
+        <v>722</v>
+      </c>
+      <c r="C29" s="461" t="s">
+        <v>752</v>
+      </c>
+      <c r="D29" s="410">
+        <v>106444.7</v>
+      </c>
       <c r="E29" s="224"/>
       <c r="F29" s="101"/>
       <c r="G29" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106444.7</v>
       </c>
       <c r="H29" s="234"/>
-      <c r="I29" s="435"/>
-      <c r="J29" s="437"/>
-      <c r="K29" s="237"/>
+      <c r="I29" s="574" t="s">
+        <v>722</v>
+      </c>
+      <c r="J29" s="236">
+        <v>12711</v>
+      </c>
+      <c r="K29" s="237">
+        <v>11428.4</v>
+      </c>
       <c r="L29" s="218"/>
       <c r="M29" s="237"/>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109754.2</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
-      <c r="B30" s="222"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="101"/>
+      <c r="B30" s="235" t="s">
+        <v>723</v>
+      </c>
+      <c r="C30" s="461" t="s">
+        <v>753</v>
+      </c>
+      <c r="D30" s="410">
+        <v>144748.88</v>
+      </c>
       <c r="E30" s="224"/>
       <c r="F30" s="101"/>
       <c r="G30" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144748.88</v>
       </c>
       <c r="H30" s="234"/>
-      <c r="I30" s="435"/>
-      <c r="J30" s="437"/>
-      <c r="K30" s="237"/>
+      <c r="I30" s="574" t="s">
+        <v>723</v>
+      </c>
+      <c r="J30" s="236">
+        <v>12715</v>
+      </c>
+      <c r="K30" s="237">
+        <v>3440</v>
+      </c>
       <c r="L30" s="224"/>
       <c r="M30" s="101"/>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113194.2</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="222"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="101"/>
+      <c r="B31" s="235" t="s">
+        <v>723</v>
+      </c>
+      <c r="C31" s="461" t="s">
+        <v>754</v>
+      </c>
+      <c r="D31" s="410">
+        <v>14753.24</v>
+      </c>
       <c r="E31" s="224"/>
       <c r="F31" s="101"/>
       <c r="G31" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14753.24</v>
       </c>
       <c r="H31" s="233"/>
-      <c r="I31" s="436"/>
-      <c r="J31" s="438"/>
-      <c r="K31" s="150">
-        <v>0</v>
+      <c r="I31" s="574" t="s">
+        <v>724</v>
+      </c>
+      <c r="J31" s="236">
+        <v>12735</v>
+      </c>
+      <c r="K31" s="237">
+        <v>5263</v>
       </c>
       <c r="L31" s="224"/>
       <c r="M31" s="101"/>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>118457.2</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="222"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="101"/>
+      <c r="B32" s="235" t="s">
+        <v>755</v>
+      </c>
+      <c r="C32" s="461" t="s">
+        <v>756</v>
+      </c>
+      <c r="D32" s="410">
+        <v>15134.82</v>
+      </c>
       <c r="E32" s="224"/>
       <c r="F32" s="101"/>
       <c r="G32" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15134.82</v>
       </c>
       <c r="H32" s="233"/>
-      <c r="I32" s="436"/>
-      <c r="J32" s="438"/>
-      <c r="K32" s="150">
-        <v>0</v>
+      <c r="I32" s="574" t="s">
+        <v>725</v>
+      </c>
+      <c r="J32" s="236">
+        <v>12746</v>
+      </c>
+      <c r="K32" s="237">
+        <v>2960</v>
       </c>
       <c r="L32" s="224"/>
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="222"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="101"/>
+      <c r="B33" s="235" t="s">
+        <v>724</v>
+      </c>
+      <c r="C33" s="461" t="s">
+        <v>757</v>
+      </c>
+      <c r="D33" s="410">
+        <v>93664.48</v>
+      </c>
       <c r="E33" s="224"/>
       <c r="F33" s="101"/>
       <c r="G33" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93664.48</v>
       </c>
       <c r="I33" s="436"/>
       <c r="J33" s="438"/>
@@ -16954,18 +17648,24 @@
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="222"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="101"/>
+      <c r="B34" s="235" t="s">
+        <v>725</v>
+      </c>
+      <c r="C34" s="461" t="s">
+        <v>758</v>
+      </c>
+      <c r="D34" s="410">
+        <v>92452.12</v>
+      </c>
       <c r="E34" s="224"/>
       <c r="F34" s="101"/>
       <c r="G34" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92452.12</v>
       </c>
       <c r="I34" s="436"/>
       <c r="J34" s="438"/>
@@ -16976,18 +17676,24 @@
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="222"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="235" t="s">
+        <v>759</v>
+      </c>
+      <c r="C35" s="461" t="s">
+        <v>760</v>
+      </c>
+      <c r="D35" s="410">
+        <v>4358.3999999999996</v>
+      </c>
       <c r="E35" s="224"/>
       <c r="F35" s="101"/>
       <c r="G35" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4358.3999999999996</v>
       </c>
       <c r="I35" s="487"/>
       <c r="J35" s="488"/>
@@ -16996,18 +17702,24 @@
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="222"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="101"/>
+      <c r="B36" s="235" t="s">
+        <v>759</v>
+      </c>
+      <c r="C36" s="461" t="s">
+        <v>761</v>
+      </c>
+      <c r="D36" s="410">
+        <v>59252.32</v>
+      </c>
       <c r="E36" s="224"/>
       <c r="F36" s="101"/>
       <c r="G36" s="225">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59252.32</v>
       </c>
       <c r="I36" s="491"/>
       <c r="J36" s="491"/>
@@ -17016,7 +17728,7 @@
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17029,16 +17741,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="546" t="s">
+      <c r="I37" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="547"/>
+      <c r="J37" s="553"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17051,14 +17763,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="548"/>
-      <c r="J38" s="549"/>
+      <c r="I38" s="554"/>
+      <c r="J38" s="555"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17071,14 +17783,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="550"/>
-      <c r="J39" s="551"/>
+      <c r="I39" s="556"/>
+      <c r="J39" s="557"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17096,7 +17808,7 @@
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17114,7 +17826,7 @@
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17132,7 +17844,7 @@
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17152,7 +17864,7 @@
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17172,7 +17884,7 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17192,7 +17904,7 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17212,7 +17924,7 @@
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17232,7 +17944,7 @@
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -17252,7 +17964,7 @@
       <c r="M48" s="84"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17272,7 +17984,7 @@
       <c r="M49" s="84"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17292,7 +18004,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17312,7 +18024,7 @@
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17332,7 +18044,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17352,7 +18064,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17372,7 +18084,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17392,7 +18104,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17412,7 +18124,7 @@
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17432,7 +18144,7 @@
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17452,7 +18164,7 @@
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17472,7 +18184,7 @@
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17492,7 +18204,7 @@
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17512,7 +18224,7 @@
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17532,7 +18244,7 @@
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17552,7 +18264,7 @@
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17572,7 +18284,7 @@
       <c r="M64" s="84"/>
       <c r="N64" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17592,7 +18304,7 @@
       <c r="M65" s="84"/>
       <c r="N65" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17619,7 +18331,7 @@
       <c r="C67" s="259"/>
       <c r="D67" s="260">
         <f>SUM(D3:D66)</f>
-        <v>0</v>
+        <v>1585182.9300000004</v>
       </c>
       <c r="E67" s="261"/>
       <c r="F67" s="262">
@@ -17628,15 +18340,15 @@
       </c>
       <c r="G67" s="263">
         <f>SUM(G3:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="552" t="s">
+        <v>1585182.9300000004</v>
+      </c>
+      <c r="I67" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="553"/>
+      <c r="J67" s="559"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
-        <v>0</v>
+        <v>121417.2</v>
       </c>
       <c r="L67" s="265"/>
       <c r="M67" s="266">
@@ -17655,11 +18367,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="556" t="s">
+      <c r="G68" s="562" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="561"/>
-      <c r="J68" s="562"/>
+      <c r="I68" s="567"/>
+      <c r="J68" s="568"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -17670,7 +18382,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="557"/>
+      <c r="G69" s="563"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -18221,6 +18933,7 @@
     <mergeCell ref="G68:G69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19604,10 +20317,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="543"/>
-      <c r="J36" s="544"/>
-      <c r="K36" s="544"/>
-      <c r="L36" s="545"/>
+      <c r="I36" s="549"/>
+      <c r="J36" s="550"/>
+      <c r="K36" s="550"/>
+      <c r="L36" s="551"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -19634,10 +20347,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="543"/>
-      <c r="J37" s="544"/>
-      <c r="K37" s="544"/>
-      <c r="L37" s="545"/>
+      <c r="I37" s="549"/>
+      <c r="J37" s="550"/>
+      <c r="K37" s="550"/>
+      <c r="L37" s="551"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -19694,10 +20407,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="546" t="s">
+      <c r="I40" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="547"/>
+      <c r="J40" s="553"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -19716,8 +20429,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="548"/>
-      <c r="J41" s="549"/>
+      <c r="I41" s="554"/>
+      <c r="J41" s="555"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -19736,8 +20449,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="550"/>
-      <c r="J42" s="551"/>
+      <c r="I42" s="556"/>
+      <c r="J42" s="557"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -20241,10 +20954,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="552" t="s">
+      <c r="I67" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="553"/>
+      <c r="J67" s="559"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -20264,11 +20977,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="556" t="s">
+      <c r="G68" s="562" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="554"/>
-      <c r="J68" s="555"/>
+      <c r="I68" s="560"/>
+      <c r="J68" s="561"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -20279,7 +20992,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="557"/>
+      <c r="G69" s="563"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -20910,23 +21623,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -20936,24 +21649,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="534" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="507" t="s">
+      <c r="R3" s="513" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20968,14 +21681,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="509" t="s">
+      <c r="E4" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="510"/>
-      <c r="H4" s="511" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="512"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -20985,11 +21698,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="535"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="508"/>
+      <c r="R4" s="514"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -22965,11 +23678,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="518">
+      <c r="M49" s="524">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="518">
+      <c r="N49" s="524">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -22977,7 +23690,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="530">
+      <c r="Q49" s="536">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -23010,10 +23723,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="519"/>
-      <c r="N50" s="519"/>
+      <c r="M50" s="525"/>
+      <c r="N50" s="525"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="531"/>
+      <c r="Q50" s="537"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -23104,11 +23817,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="532">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="533"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -23667,26 +24380,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="526" t="s">
+      <c r="H77" s="532" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="527"/>
+      <c r="I77" s="533"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="528">
+      <c r="K77" s="534">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="529"/>
+      <c r="L77" s="535"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="520" t="s">
+      <c r="D78" s="526" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="520"/>
+      <c r="E78" s="526"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -23695,22 +24408,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="521" t="s">
+      <c r="D79" s="527" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="521"/>
+      <c r="E79" s="527"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="522" t="s">
+      <c r="I79" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="523"/>
-      <c r="K79" s="524">
+      <c r="J79" s="529"/>
+      <c r="K79" s="530">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="524"/>
+      <c r="L79" s="530"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -23751,11 +24464,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="525">
+      <c r="K81" s="531">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="524"/>
+      <c r="L81" s="530"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -23772,22 +24485,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="513" t="s">
+      <c r="D83" s="519" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="514"/>
+      <c r="E83" s="520"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="558" t="s">
+      <c r="I83" s="564" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="559"/>
-      <c r="K83" s="560">
+      <c r="J83" s="565"/>
+      <c r="K83" s="566">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="560"/>
+      <c r="L83" s="566"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -25367,10 +26080,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="543"/>
-      <c r="J36" s="544"/>
-      <c r="K36" s="544"/>
-      <c r="L36" s="545"/>
+      <c r="I36" s="549"/>
+      <c r="J36" s="550"/>
+      <c r="K36" s="550"/>
+      <c r="L36" s="551"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -25397,10 +26110,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="543"/>
-      <c r="J37" s="544"/>
-      <c r="K37" s="544"/>
-      <c r="L37" s="545"/>
+      <c r="I37" s="549"/>
+      <c r="J37" s="550"/>
+      <c r="K37" s="550"/>
+      <c r="L37" s="551"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -25467,10 +26180,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="546" t="s">
+      <c r="I40" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="547"/>
+      <c r="J40" s="553"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -25489,8 +26202,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="548"/>
-      <c r="J41" s="549"/>
+      <c r="I41" s="554"/>
+      <c r="J41" s="555"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -25509,8 +26222,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="550"/>
-      <c r="J42" s="551"/>
+      <c r="I42" s="556"/>
+      <c r="J42" s="557"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -26014,10 +26727,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="552" t="s">
+      <c r="I67" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="553"/>
+      <c r="J67" s="559"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -26037,11 +26750,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="556" t="s">
+      <c r="G68" s="562" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="561"/>
-      <c r="J68" s="562"/>
+      <c r="I68" s="567"/>
+      <c r="J68" s="568"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26052,7 +26765,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="557"/>
+      <c r="G69" s="563"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -26667,23 +27380,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -26693,24 +27406,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="534" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="563" t="s">
+      <c r="R3" s="569" t="s">
         <v>3</v>
       </c>
     </row>
@@ -26725,14 +27438,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="509" t="s">
+      <c r="E4" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="510"/>
-      <c r="H4" s="511" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="512"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -26742,11 +27455,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="535"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="564"/>
+      <c r="R4" s="570"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -28727,11 +29440,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="518">
+      <c r="M49" s="524">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="518">
+      <c r="N49" s="524">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -28739,7 +29452,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="530">
+      <c r="Q49" s="536">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -28772,10 +29485,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="519"/>
-      <c r="N50" s="519"/>
+      <c r="M50" s="525"/>
+      <c r="N50" s="525"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="531"/>
+      <c r="Q50" s="537"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -28866,11 +29579,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="532">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="533"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29349,26 +30062,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="526" t="s">
+      <c r="H77" s="532" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="527"/>
+      <c r="I77" s="533"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="528">
+      <c r="K77" s="534">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="529"/>
+      <c r="L77" s="535"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="520" t="s">
+      <c r="D78" s="526" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="520"/>
+      <c r="E78" s="526"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -29377,22 +30090,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="521" t="s">
+      <c r="D79" s="527" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="521"/>
+      <c r="E79" s="527"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="522" t="s">
+      <c r="I79" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="523"/>
-      <c r="K79" s="524">
+      <c r="J79" s="529"/>
+      <c r="K79" s="530">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="524"/>
+      <c r="L79" s="530"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -29433,11 +30146,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="525">
+      <c r="K81" s="531">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="524"/>
+      <c r="L81" s="530"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -29454,22 +30167,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="513" t="s">
+      <c r="D83" s="519" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="514"/>
+      <c r="E83" s="520"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="515" t="s">
+      <c r="I83" s="521" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="516"/>
-      <c r="K83" s="517">
+      <c r="J83" s="522"/>
+      <c r="K83" s="523">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="517"/>
+      <c r="L83" s="523"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -30940,10 +31653,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="543"/>
-      <c r="J36" s="544"/>
-      <c r="K36" s="544"/>
-      <c r="L36" s="545"/>
+      <c r="I36" s="549"/>
+      <c r="J36" s="550"/>
+      <c r="K36" s="550"/>
+      <c r="L36" s="551"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -30960,10 +31673,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="543"/>
-      <c r="J37" s="544"/>
-      <c r="K37" s="544"/>
-      <c r="L37" s="545"/>
+      <c r="I37" s="549"/>
+      <c r="J37" s="550"/>
+      <c r="K37" s="550"/>
+      <c r="L37" s="551"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -31020,10 +31733,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="546" t="s">
+      <c r="I40" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="547"/>
+      <c r="J40" s="553"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -31042,8 +31755,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="548"/>
-      <c r="J41" s="549"/>
+      <c r="I41" s="554"/>
+      <c r="J41" s="555"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -31062,8 +31775,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="550"/>
-      <c r="J42" s="551"/>
+      <c r="I42" s="556"/>
+      <c r="J42" s="557"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -31567,10 +32280,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="552" t="s">
+      <c r="I67" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="553"/>
+      <c r="J67" s="559"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -31590,11 +32303,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="556" t="s">
+      <c r="G68" s="562" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="561"/>
-      <c r="J68" s="562"/>
+      <c r="I68" s="567"/>
+      <c r="J68" s="568"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -31605,7 +32318,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="557"/>
+      <c r="G69" s="563"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -32211,23 +32924,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -32237,24 +32950,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="534" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="563" t="s">
+      <c r="R3" s="569" t="s">
         <v>3</v>
       </c>
     </row>
@@ -32269,14 +32982,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="509" t="s">
+      <c r="E4" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="510"/>
-      <c r="H4" s="511" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="512"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -32286,11 +32999,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="535"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="564"/>
+      <c r="R4" s="570"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -34311,11 +35024,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="518">
+      <c r="M49" s="524">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="518">
+      <c r="N49" s="524">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -34323,7 +35036,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="530">
+      <c r="Q49" s="536">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -34350,10 +35063,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="519"/>
-      <c r="N50" s="519"/>
+      <c r="M50" s="525"/>
+      <c r="N50" s="525"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="531"/>
+      <c r="Q50" s="537"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -34427,11 +35140,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="532">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="533"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35060,26 +35773,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="526" t="s">
+      <c r="H79" s="532" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="527"/>
+      <c r="I79" s="533"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="528">
+      <c r="K79" s="534">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="529"/>
+      <c r="L79" s="535"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="520" t="s">
+      <c r="D80" s="526" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="520"/>
+      <c r="E80" s="526"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -35088,22 +35801,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="521" t="s">
+      <c r="D81" s="527" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="521"/>
+      <c r="E81" s="527"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="522" t="s">
+      <c r="I81" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="523"/>
-      <c r="K81" s="524">
+      <c r="J81" s="529"/>
+      <c r="K81" s="530">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="524"/>
+      <c r="L81" s="530"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -35144,11 +35857,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="525">
+      <c r="K83" s="531">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="524"/>
+      <c r="L83" s="530"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -35165,22 +35878,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="513" t="s">
+      <c r="D85" s="519" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="514"/>
+      <c r="E85" s="520"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="515" t="s">
+      <c r="I85" s="521" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="516"/>
-      <c r="K85" s="517">
+      <c r="J85" s="522"/>
+      <c r="K85" s="523">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="517"/>
+      <c r="L85" s="523"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -36669,10 +37382,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="543"/>
-      <c r="J36" s="544"/>
-      <c r="K36" s="544"/>
-      <c r="L36" s="545"/>
+      <c r="I36" s="549"/>
+      <c r="J36" s="550"/>
+      <c r="K36" s="550"/>
+      <c r="L36" s="551"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -36695,10 +37408,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="543"/>
-      <c r="J37" s="544"/>
-      <c r="K37" s="544"/>
-      <c r="L37" s="545"/>
+      <c r="I37" s="549"/>
+      <c r="J37" s="550"/>
+      <c r="K37" s="550"/>
+      <c r="L37" s="551"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -36773,10 +37486,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="546" t="s">
+      <c r="I40" s="552" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="547"/>
+      <c r="J40" s="553"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -36801,8 +37514,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="548"/>
-      <c r="J41" s="549"/>
+      <c r="I41" s="554"/>
+      <c r="J41" s="555"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -36827,8 +37540,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="550"/>
-      <c r="J42" s="551"/>
+      <c r="I42" s="556"/>
+      <c r="J42" s="557"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -37350,10 +38063,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="552" t="s">
+      <c r="I67" s="558" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="553"/>
+      <c r="J67" s="559"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -37373,11 +38086,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="556" t="s">
+      <c r="G68" s="562" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="561"/>
-      <c r="J68" s="562"/>
+      <c r="I68" s="567"/>
+      <c r="J68" s="568"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -37388,7 +38101,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="557"/>
+      <c r="G69" s="563"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -37977,8 +38690,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38004,23 +38717,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="536"/>
-      <c r="C1" s="538" t="s">
+      <c r="B1" s="542"/>
+      <c r="C1" s="544" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="539"/>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="G1" s="539"/>
-      <c r="H1" s="539"/>
-      <c r="I1" s="539"/>
-      <c r="J1" s="539"/>
-      <c r="K1" s="539"/>
-      <c r="L1" s="539"/>
-      <c r="M1" s="539"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
+      <c r="F1" s="545"/>
+      <c r="G1" s="545"/>
+      <c r="H1" s="545"/>
+      <c r="I1" s="545"/>
+      <c r="J1" s="545"/>
+      <c r="K1" s="545"/>
+      <c r="L1" s="545"/>
+      <c r="M1" s="545"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="537"/>
+      <c r="B2" s="543"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -38030,27 +38743,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="541"/>
+      <c r="B3" s="546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="547"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="542" t="s">
+      <c r="H3" s="548" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="542"/>
+      <c r="I3" s="548"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="534" t="s">
+      <c r="P3" s="540" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="563" t="s">
+      <c r="R3" s="569" t="s">
         <v>3</v>
       </c>
     </row>
@@ -38065,14 +38778,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="509" t="s">
+      <c r="E4" s="515" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="510"/>
-      <c r="H4" s="511" t="s">
+      <c r="F4" s="516"/>
+      <c r="H4" s="517" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="512"/>
+      <c r="I4" s="518"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -38082,11 +38795,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="535"/>
+      <c r="P4" s="541"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="564"/>
+      <c r="R4" s="570"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -40089,11 +40802,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="518">
+      <c r="M49" s="524">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="518">
+      <c r="N49" s="524">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -40101,7 +40814,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="530">
+      <c r="Q49" s="536">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -40134,10 +40847,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="519"/>
-      <c r="N50" s="519"/>
+      <c r="M50" s="525"/>
+      <c r="N50" s="525"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="531"/>
+      <c r="Q50" s="537"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -40216,11 +40929,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="532">
+      <c r="M53" s="538">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="533"/>
+      <c r="N53" s="539"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -40699,26 +41412,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="526" t="s">
+      <c r="H77" s="532" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="527"/>
+      <c r="I77" s="533"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="528">
+      <c r="K77" s="534">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="529"/>
+      <c r="L77" s="535"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="520" t="s">
+      <c r="D78" s="526" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="520"/>
+      <c r="E78" s="526"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -40727,22 +41440,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="521" t="s">
+      <c r="D79" s="527" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="521"/>
+      <c r="E79" s="527"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="522" t="s">
+      <c r="I79" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="523"/>
-      <c r="K79" s="524">
+      <c r="J79" s="529"/>
+      <c r="K79" s="530">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="524"/>
+      <c r="L79" s="530"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -40783,11 +41496,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="525">
+      <c r="K81" s="531">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="524"/>
+      <c r="L81" s="530"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -40804,22 +41517,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="513" t="s">
+      <c r="D83" s="519" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="514"/>
+      <c r="E83" s="520"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="558" t="s">
+      <c r="I83" s="564" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="559"/>
-      <c r="K83" s="560">
+      <c r="J83" s="565"/>
+      <c r="K83" s="566">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="560"/>
+      <c r="L83" s="566"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
